--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schilder/Desktop/Ilona_thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935D97EA-43AC-DA4B-A330-34508BAF1817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F58830-C2F5-9249-8CC5-FEF76F487F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="1700" windowWidth="27640" windowHeight="16940" xr2:uid="{3843ECAF-FC15-3B44-AD26-4A902B2E57C4}"/>
+    <workbookView xWindow="1700" yWindow="1020" windowWidth="27640" windowHeight="16940" xr2:uid="{3843ECAF-FC15-3B44-AD26-4A902B2E57C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8322CDB-25C4-5444-B944-F0725C38DC11}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91:XFD91"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="75" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schilder/Desktop/Ilona_thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F58830-C2F5-9249-8CC5-FEF76F487F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C312A4-6660-3241-9EF7-3422D5A7C198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="1020" windowWidth="27640" windowHeight="16940" xr2:uid="{3843ECAF-FC15-3B44-AD26-4A902B2E57C4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="64">
   <si>
     <t>from</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t xml:space="preserve">Deep Structure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wellcome Library Archives </t>
   </si>
 </sst>
 </file>
@@ -621,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8322CDB-25C4-5444-B944-F0725C38DC11}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="75" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1346,7 +1349,7 @@
         <v>49</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schilder/Desktop/Ilona_thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C312A4-6660-3241-9EF7-3422D5A7C198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF946E4-665F-754F-A331-DEAA86D1092A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="1020" windowWidth="27640" windowHeight="16940" xr2:uid="{3843ECAF-FC15-3B44-AD26-4A902B2E57C4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="65">
   <si>
     <t>from</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t xml:space="preserve">Wellcome Library Archives </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilona Sagar Writer and Editor </t>
   </si>
 </sst>
 </file>
@@ -625,7 +628,7 @@
   <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A74" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1429,7 +1432,7 @@
         <v>62</v>
       </c>
       <c r="B97" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schilder/Desktop/Ilona_thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF946E4-665F-754F-A331-DEAA86D1092A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF431D82-B20C-AB4C-8ABB-688AF5B23C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="1020" windowWidth="27640" windowHeight="16940" xr2:uid="{3843ECAF-FC15-3B44-AD26-4A902B2E57C4}"/>
+    <workbookView xWindow="2180" yWindow="500" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{3843ECAF-FC15-3B44-AD26-4A902B2E57C4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="edges" sheetId="1" r:id="rId1"/>
+    <sheet name="nodes" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">edges!$A$1:$C$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">nodes!$A$1:$F$58</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="148">
   <si>
     <t>from</t>
   </si>
@@ -44,15 +49,6 @@
     <t>to</t>
   </si>
   <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>linetype</t>
-  </si>
-  <si>
-    <t>solid</t>
-  </si>
-  <si>
     <t>For Some Future Time</t>
   </si>
   <si>
@@ -66,9 +62,6 @@
   </si>
   <si>
     <t>Correspondence O</t>
-  </si>
-  <si>
-    <t>Wellcome Libuary Archives</t>
   </si>
   <si>
     <t>Charles Curtice 
@@ -113,9 +106,6 @@
     <t>Wellcome Collection</t>
   </si>
   <si>
-    <t xml:space="preserve">Wellcome Libuary Archives </t>
-  </si>
-  <si>
     <t>Angela Saward Archivist
 Research Development Specialist 
 (Moving Image &amp; Sound)</t>
@@ -128,17 +118,6 @@
   <si>
     <t>Lesley Hall, Historian and
 archivist Wellcome Library</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RIBA archive </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tom Bell Mowma Projects 
-(LIDAR)  Pioneer Centre Resident </t>
-  </si>
-  <si>
-    <t xml:space="preserve">James Hardy 
-Live Fit Pioneer Centre Resident </t>
   </si>
   <si>
     <t>Dr Lisa Curtice 
@@ -147,21 +126,12 @@
 Pioneer Health Foundation</t>
   </si>
   <si>
-    <t xml:space="preserve">Tom Nowell lighting and Camera in collaboration with Ilona Sagar </t>
-  </si>
-  <si>
     <t xml:space="preserve">Amy Newton Actor </t>
   </si>
   <si>
-    <t xml:space="preserve">Michael Ogunseye </t>
-  </si>
-  <si>
     <t xml:space="preserve">Seth Scott Sound Design </t>
   </si>
   <si>
-    <t xml:space="preserve">Mike Keelin ​Colourist </t>
-  </si>
-  <si>
     <t>Luca Shea-Green Actor</t>
   </si>
   <si>
@@ -174,22 +144,10 @@
     <t xml:space="preserve">Seb Nowell Camera Assistant </t>
   </si>
   <si>
-    <t>Adam Laschinger – Field recordist</t>
-  </si>
-  <si>
     <t xml:space="preserve">Robert Dingle, Producer - Ballad of Peckham Rye </t>
   </si>
   <si>
-    <t>Stephen Lee – Field recordist</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ilona Sagar DoP and Director </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ilona Sagar Writter and Editor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simon Parris, Head of Programme, South London Gallery, </t>
   </si>
   <si>
     <t>Pioneer Centre Resident</t>
@@ -208,10 +166,6 @@
 at the Pioneer Health Centre</t>
   </si>
   <si>
-    <t>Christopher Trotter 
-(member of the Pioneer Health Foundation).</t>
-  </si>
-  <si>
     <t>Self-Service</t>
   </si>
   <si>
@@ -220,12 +174,6 @@
   </si>
   <si>
     <t>Glasgow International 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCA Glasgow </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gallery of Modern Art (GoMA)  </t>
   </si>
   <si>
     <t>Alberta Whittle</t>
@@ -262,6 +210,317 @@
   </si>
   <si>
     <t xml:space="preserve">Ilona Sagar Writer and Editor </t>
+  </si>
+  <si>
+    <t>linked</t>
+  </si>
+  <si>
+    <t>Wellcome Library Archives</t>
+  </si>
+  <si>
+    <t>Michael Ogunseye Actor</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>gradient</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
+    <t>Simon Parris, Head of Programme, South London Gallery</t>
+  </si>
+  <si>
+    <t>Christopher Trotter 
+(member of the Pioneer Health Foundation)</t>
+  </si>
+  <si>
+    <t>Lesley Hall, Historian and archivist Wellcome Library</t>
+  </si>
+  <si>
+    <t>Mike Keelin Colourist</t>
+  </si>
+  <si>
+    <t>Dr Lisa Curtice</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>The Health and Social Care Alliance Scotland, Research Fellow in Health Policy University of Strathclyde, Pioneer Health Foundation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laura Wilson </t>
+  </si>
+  <si>
+    <t>Artist and Young People's Programme Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tommie Introna </t>
+  </si>
+  <si>
+    <t>Young People's Programme Coordinator</t>
+  </si>
+  <si>
+    <t>Simon Parris</t>
+  </si>
+  <si>
+    <t>Head of Programme, South London Gallery</t>
+  </si>
+  <si>
+    <t>Kirsty Hendry</t>
+  </si>
+  <si>
+    <t>Co-author of Self-Service, Artist and Curator</t>
+  </si>
+  <si>
+    <t>Prof. Paul Fletcher</t>
+  </si>
+  <si>
+    <t>Bernard Wolfe Professor of Health Neuroscience, University of Cambridge</t>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t>Kelly Diederen</t>
+  </si>
+  <si>
+    <t>Postdoctoral Research Associate</t>
+  </si>
+  <si>
+    <t>Hisham Ziauddeen</t>
+  </si>
+  <si>
+    <t>Senior Clinical Research Associate</t>
+  </si>
+  <si>
+    <t>Dr Felicity Thomas</t>
+  </si>
+  <si>
+    <t>Director of the Wellcome Centre for Cultures &amp; Environments of Health, WHO Collaborating Centre for Culture and Health, University of Exeter</t>
+  </si>
+  <si>
+    <t>Angela Saward Archivist</t>
+  </si>
+  <si>
+    <t>Research Development Specialist, Moving Image &amp; Sound</t>
+  </si>
+  <si>
+    <t>Ross Macfarlane</t>
+  </si>
+  <si>
+    <t>Research Engagement Officer, Wellcome Library</t>
+  </si>
+  <si>
+    <t>Lesley Hall</t>
+  </si>
+  <si>
+    <t>Historian and archivist Wellcome Library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIBA Archive </t>
+  </si>
+  <si>
+    <t>Tom Bell</t>
+  </si>
+  <si>
+    <t>Mowma Projects (LIDAR), Pioneer Centre Resident</t>
+  </si>
+  <si>
+    <t>James Hardy</t>
+  </si>
+  <si>
+    <t>Live Fit Pioneer Centre Resident</t>
+  </si>
+  <si>
+    <t>James Hardy 
+Live Fit Pioneer Centre Resident</t>
+  </si>
+  <si>
+    <t>Tom Bell Mowma Projects 
+(LIDAR)  Pioneer Centre Resident</t>
+  </si>
+  <si>
+    <t>Tom Nowell</t>
+  </si>
+  <si>
+    <t>Tom Nowell Lighting and Camera in collaboration with Ilona Sagar</t>
+  </si>
+  <si>
+    <t>Seth Scott</t>
+  </si>
+  <si>
+    <t>Sound Design</t>
+  </si>
+  <si>
+    <t>Mike Keelin</t>
+  </si>
+  <si>
+    <t>Colourist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amy Newton </t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>Michael Ogunseye</t>
+  </si>
+  <si>
+    <t>Luca Shea-Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louis Suc </t>
+  </si>
+  <si>
+    <t>Barty Shepherd</t>
+  </si>
+  <si>
+    <t>Seb Nowell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera Assistant </t>
+  </si>
+  <si>
+    <t>Adam Laschinger</t>
+  </si>
+  <si>
+    <t>Field Recordist</t>
+  </si>
+  <si>
+    <t>Adam Laschinger - Field Recordist</t>
+  </si>
+  <si>
+    <t>Stephen Lee - Field Recordist</t>
+  </si>
+  <si>
+    <t>Robert Dingle</t>
+  </si>
+  <si>
+    <t>Producer, Ballad of Peckham Rye</t>
+  </si>
+  <si>
+    <t>Stephen Lee</t>
+  </si>
+  <si>
+    <t>Ilona Sagar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DoP and Director </t>
+  </si>
+  <si>
+    <t>Writer and Editor</t>
+  </si>
+  <si>
+    <t>Luke Frost</t>
+  </si>
+  <si>
+    <t>Illustrator, Graphic Designer and Printmaker</t>
+  </si>
+  <si>
+    <t>Jack Czauderna</t>
+  </si>
+  <si>
+    <t>Chair Pioneer Health Foundation</t>
+  </si>
+  <si>
+    <t>Henrietta Trotter</t>
+  </si>
+  <si>
+    <t>Christopher Trotter</t>
+  </si>
+  <si>
+    <t>Member of the Pioneer Health Foundation</t>
+  </si>
+  <si>
+    <t>Student Biologist at the Pioneer Health Centre</t>
+  </si>
+  <si>
+    <t>John Curtice</t>
+  </si>
+  <si>
+    <t>Political Scientist and BBC Journalist</t>
+  </si>
+  <si>
+    <t>Charles Curtice</t>
+  </si>
+  <si>
+    <t>IoPPN Genomics &amp; Biomarker Core Facility, Kings College London</t>
+  </si>
+  <si>
+    <t>CCA Glasgow</t>
+  </si>
+  <si>
+    <t>Gallery of Modern Art (GoMA)</t>
+  </si>
+  <si>
+    <t>Dr. Elsa Richardson</t>
+  </si>
+  <si>
+    <t>Historian, Chancellor's Fellow, University of Strathclyde</t>
+  </si>
+  <si>
+    <t>Anna Clover</t>
+  </si>
+  <si>
+    <t>Research Fellow, University of Glasgow</t>
+  </si>
+  <si>
+    <t>Ilona Sagar Writer and Editor</t>
+  </si>
+  <si>
+    <t>RIBA Archive</t>
+  </si>
+  <si>
+    <t>Seth Scott Sound Design</t>
+  </si>
+  <si>
+    <t>Amy Newton Actor</t>
+  </si>
+  <si>
+    <t>Louis Suc Actor</t>
+  </si>
+  <si>
+    <t>Seb Nowell Camera Assistant</t>
+  </si>
+  <si>
+    <t>Robert Dingle, Producer - Ballad of Peckham Rye</t>
+  </si>
+  <si>
+    <t>Ilona Sagar DoP and Director</t>
+  </si>
+  <si>
+    <t>Prof. Paul Fletcher, 
+Bernard Wolfe Professor 
+of Health Neuroscience
+ University of Cambridge</t>
+  </si>
+  <si>
+    <t>Luke Frost illustrator, 
+graphic designer and printmaker</t>
+  </si>
+  <si>
+    <t>Jack Czauderna 
+Chair Pioneer Health Foundation</t>
+  </si>
+  <si>
+    <t>Laura Wilson, Artist and Young People's Programme Manager</t>
+  </si>
+  <si>
+    <t>Tommie Introna Young People's Programme Coordinator</t>
+  </si>
+  <si>
+    <t>Anna Clover Research Fellow University of Glasgow</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>Lighting and Camera in collaboration with Ilona Sagar</t>
   </si>
 </sst>
 </file>
@@ -285,15 +544,99 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EA9DC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE69A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B084"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF61FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -301,15 +644,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8322CDB-25C4-5444-B944-F0725C38DC11}">
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -637,7 +1056,7 @@
     <col min="2" max="2" width="62.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,805 +1064,1763 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="12" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" s="2" t="s">
+    <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="B56" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="119" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56" s="2" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="2"/>
-    </row>
-    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>12</v>
-      </c>
-      <c r="B66" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>12</v>
-      </c>
-      <c r="B67" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>33</v>
+      </c>
+      <c r="B78" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>33</v>
+      </c>
+      <c r="B79" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>33</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>33</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>33</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B89" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>43</v>
       </c>
-      <c r="B71" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>49</v>
-      </c>
-      <c r="B72" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>49</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>49</v>
-      </c>
-      <c r="B74" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>49</v>
-      </c>
-      <c r="B75" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>49</v>
-      </c>
-      <c r="B76" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>49</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>49</v>
-      </c>
-      <c r="B78" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>49</v>
-      </c>
-      <c r="B79" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>49</v>
-      </c>
-      <c r="B80" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>49</v>
-      </c>
-      <c r="B81" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>49</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>49</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>49</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>49</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>49</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>49</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>49</v>
-      </c>
-      <c r="B88" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>49</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="B90" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>61</v>
-      </c>
-      <c r="B91" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>62</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="B92" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B93" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B94" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B95" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B96" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B97" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>62</v>
-      </c>
-      <c r="B98" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C56" xr:uid="{A8322CDB-25C4-5444-B944-F0725C38DC11}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D721A325-FFE8-414B-B2EB-8286847F0276}">
+  <dimension ref="A1:F58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.33203125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="5">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="5">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="5">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5">
+        <v>20</v>
+      </c>
+      <c r="E15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="5">
+        <v>20</v>
+      </c>
+      <c r="E16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="4">
+        <v>4</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="4">
+        <v>6</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="4">
+        <v>3</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="4">
+        <v>3</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="4">
+        <v>7</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="4">
+        <v>7</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="4">
+        <v>7</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="4">
+        <v>8</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="4">
+        <v>8</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="4">
+        <v>8</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="4">
+        <v>8</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="4">
+        <v>8</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="4">
+        <v>7</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="4">
+        <v>7</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="4">
+        <v>7</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="4">
+        <v>7</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="4">
+        <v>7</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="4">
+        <v>7</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="4">
+        <v>3</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A43" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="4">
+        <v>4</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A44" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" s="4">
+        <v>4</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" s="4">
+        <v>4</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="4">
+        <v>20</v>
+      </c>
+      <c r="E46" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="4">
+        <v>5</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A48" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" s="4">
+        <v>18</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="4">
+        <v>20</v>
+      </c>
+      <c r="E49" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="4">
+        <v>20</v>
+      </c>
+      <c r="E50" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="4">
+        <v>20</v>
+      </c>
+      <c r="E51" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="4">
+        <v>20</v>
+      </c>
+      <c r="E52" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="4">
+        <v>20</v>
+      </c>
+      <c r="E53" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="4">
+        <v>20</v>
+      </c>
+      <c r="E54" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="4">
+        <v>20</v>
+      </c>
+      <c r="E55" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A56" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D56" s="4">
+        <v>20</v>
+      </c>
+      <c r="E56" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57" s="4">
+        <v>20</v>
+      </c>
+      <c r="E57" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D58" s="4">
+        <v>7</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F58" xr:uid="{D721A325-FFE8-414B-B2EB-8286847F0276}"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schilder/Desktop/Ilona_thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF431D82-B20C-AB4C-8ABB-688AF5B23C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788D2CE7-24EF-7D4F-8DE9-B6E47B3061A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2180" yWindow="500" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{3843ECAF-FC15-3B44-AD26-4A902B2E57C4}"/>
   </bookViews>
@@ -1872,7 +1872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D721A325-FFE8-414B-B2EB-8286847F0276}">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schilder/Desktop/Ilona_thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788D2CE7-24EF-7D4F-8DE9-B6E47B3061A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D55E75-BE2E-0546-9E36-0818AA9A9A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2180" yWindow="500" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{3843ECAF-FC15-3B44-AD26-4A902B2E57C4}"/>
   </bookViews>
@@ -663,23 +663,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -704,9 +700,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1872,950 +1865,950 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D721A325-FFE8-414B-B2EB-8286847F0276}">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="57" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="4">
+      <c r="C3" s="5"/>
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
         <v>3</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
         <v>4</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>4</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4">
+      <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
         <v>0</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
         <v>5</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>5</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>5</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>5</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
         <v>20</v>
       </c>
-      <c r="E15" s="4" t="b">
+      <c r="E15" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>20</v>
       </c>
-      <c r="E16" s="4" t="b">
+      <c r="E16" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
         <v>0</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="b">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>1</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>1</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>0</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>2</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>2</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>4</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="4">
-        <v>6</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3">
+        <v>6</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>3</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>3</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>7</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4" t="b">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>7</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4" t="b">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>7</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4" t="b">
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>8</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>8</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>8</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>8</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>8</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>7</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4" t="b">
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <v>7</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <v>7</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <v>7</v>
       </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <v>7</v>
       </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4" t="b">
+      <c r="E40" s="3"/>
+      <c r="F40" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="3">
         <v>7</v>
       </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4" t="b">
+      <c r="E41" s="3"/>
+      <c r="F41" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="3">
         <v>3</v>
       </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="3">
         <v>4</v>
       </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4" t="b">
+      <c r="E43" s="3"/>
+      <c r="F43" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3">
         <v>4</v>
       </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="3">
         <v>4</v>
       </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="3">
         <v>20</v>
       </c>
-      <c r="E46" s="4" t="b">
+      <c r="E46" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F46" s="4"/>
+      <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="4">
+      <c r="C47" s="3"/>
+      <c r="D47" s="3">
         <v>5</v>
       </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="3">
         <v>18</v>
       </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="4">
+      <c r="C49" s="3"/>
+      <c r="D49" s="3">
         <v>20</v>
       </c>
-      <c r="E49" s="4" t="b">
+      <c r="E49" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F49" s="4"/>
+      <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="4">
+      <c r="C50" s="3"/>
+      <c r="D50" s="3">
         <v>20</v>
       </c>
-      <c r="E50" s="4" t="b">
+      <c r="E50" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F50" s="4"/>
+      <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="4">
+      <c r="C51" s="3"/>
+      <c r="D51" s="3">
         <v>20</v>
       </c>
-      <c r="E51" s="4" t="b">
+      <c r="E51" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F51" s="4"/>
+      <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="4">
+      <c r="C52" s="3"/>
+      <c r="D52" s="3">
         <v>20</v>
       </c>
-      <c r="E52" s="4" t="b">
+      <c r="E52" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F52" s="4"/>
+      <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="4">
+      <c r="C53" s="3"/>
+      <c r="D53" s="3">
         <v>20</v>
       </c>
-      <c r="E53" s="4" t="b">
+      <c r="E53" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F53" s="4"/>
+      <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="4">
+      <c r="C54" s="3"/>
+      <c r="D54" s="3">
         <v>20</v>
       </c>
-      <c r="E54" s="4" t="b">
+      <c r="E54" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F54" s="4"/>
+      <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="4">
+      <c r="C55" s="3"/>
+      <c r="D55" s="3">
         <v>20</v>
       </c>
-      <c r="E55" s="4" t="b">
+      <c r="E55" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F55" s="4" t="b">
+      <c r="F55" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="3">
         <v>20</v>
       </c>
-      <c r="E56" s="4" t="b">
+      <c r="E56" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F56" s="4"/>
+      <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="3">
         <v>20</v>
       </c>
-      <c r="E57" s="4" t="b">
+      <c r="E57" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F57" s="4"/>
+      <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="3">
         <v>7</v>
       </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4" t="b">
+      <c r="E58" s="3"/>
+      <c r="F58" s="3" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schilder/Desktop/Ilona_thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D55E75-BE2E-0546-9E36-0818AA9A9A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E32A11-7FD0-B143-9EB1-6EB83ABB8552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2180" yWindow="500" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{3843ECAF-FC15-3B44-AD26-4A902B2E57C4}"/>
   </bookViews>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schilder/Desktop/Ilona_thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E32A11-7FD0-B143-9EB1-6EB83ABB8552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936033D9-B93F-5E4D-B5B8-87E4A1839383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="500" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{3843ECAF-FC15-3B44-AD26-4A902B2E57C4}"/>
+    <workbookView xWindow="12120" yWindow="1000" windowWidth="21400" windowHeight="17520" activeTab="1" xr2:uid="{3843ECAF-FC15-3B44-AD26-4A902B2E57C4}"/>
   </bookViews>
   <sheets>
     <sheet name="edges" sheetId="1" r:id="rId1"/>
     <sheet name="nodes" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">edges!$A$1:$C$56</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">nodes!$A$1:$F$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">edges!$A$1:$C$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">nodes!$A$1:$F$55</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="143">
   <si>
     <t>from</t>
   </si>
@@ -147,9 +147,6 @@
     <t xml:space="preserve">Robert Dingle, Producer - Ballad of Peckham Rye </t>
   </si>
   <si>
-    <t xml:space="preserve">Ilona Sagar DoP and Director </t>
-  </si>
-  <si>
     <t>Pioneer Centre Resident</t>
   </si>
   <si>
@@ -209,9 +206,6 @@
     <t xml:space="preserve">Wellcome Library Archives </t>
   </si>
   <si>
-    <t xml:space="preserve">Ilona Sagar Writer and Editor </t>
-  </si>
-  <si>
     <t>linked</t>
   </si>
   <si>
@@ -410,12 +404,6 @@
     <t>Ilona Sagar</t>
   </si>
   <si>
-    <t xml:space="preserve">DoP and Director </t>
-  </si>
-  <si>
-    <t>Writer and Editor</t>
-  </si>
-  <si>
     <t>Luke Frost</t>
   </si>
   <si>
@@ -470,9 +458,6 @@
     <t>Research Fellow, University of Glasgow</t>
   </si>
   <si>
-    <t>Ilona Sagar Writer and Editor</t>
-  </si>
-  <si>
     <t>RIBA Archive</t>
   </si>
   <si>
@@ -489,9 +474,6 @@
   </si>
   <si>
     <t>Robert Dingle, Producer - Ballad of Peckham Rye</t>
-  </si>
-  <si>
-    <t>Ilona Sagar DoP and Director</t>
   </si>
   <si>
     <t>Prof. Paul Fletcher, 
@@ -521,13 +503,16 @@
   </si>
   <si>
     <t>Lighting and Camera in collaboration with Ilona Sagar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Writer and Editor, DoP and Director </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -543,8 +528,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -635,6 +627,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -663,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -722,6 +720,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1037,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8322CDB-25C4-5444-B944-F0725C38DC11}">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A113" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A161" sqref="A117:XFD161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1057,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1065,7 +1066,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -1153,7 +1154,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -1188,7 +1189,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1196,7 +1197,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1204,7 +1205,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1220,7 +1221,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1228,7 +1229,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1236,7 +1237,7 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1244,7 +1245,7 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1252,7 +1253,7 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1268,7 +1269,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1284,7 +1285,7 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1292,7 +1293,7 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1300,7 +1301,7 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1308,23 +1309,23 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
-      <c r="B30" t="s">
-        <v>139</v>
+      <c r="B30" s="18" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>6</v>
       </c>
-      <c r="B31" t="s">
-        <v>132</v>
+      <c r="B31" s="18" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -1335,20 +1336,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>12</v>
+    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>6</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>51</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -1356,7 +1357,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -1364,135 +1365,135 @@
         <v>12</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="2" t="s">
+    <row r="43" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="2" t="s">
+    <row r="44" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="2" t="s">
+    <row r="45" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
     <row r="46" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>29</v>
+      <c r="A46" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>3</v>
-      </c>
       <c r="B49" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>3</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>3</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>3</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -1500,7 +1501,7 @@
         <v>3</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -1508,47 +1509,47 @@
         <v>3</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>3</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>2</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>2</v>
       </c>
-      <c r="B59" t="s">
-        <v>4</v>
+      <c r="B59" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1556,7 +1557,7 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1564,15 +1565,15 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>2</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>7</v>
+      <c r="B62" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1580,293 +1581,445 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>144</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>33</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B73" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>33</v>
-      </c>
-      <c r="B74" t="s">
-        <v>126</v>
+        <v>32</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B75" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>33</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>141</v>
+        <v>32</v>
+      </c>
+      <c r="B76" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B77" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>33</v>
-      </c>
-      <c r="B78" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B79" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B80" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>32</v>
+      </c>
+      <c r="B82" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>32</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>33</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>33</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>33</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>32</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>33</v>
-      </c>
       <c r="B86" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>33</v>
-      </c>
-      <c r="B87" t="s">
-        <v>3</v>
+        <v>32</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>32</v>
       </c>
       <c r="B89" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>43</v>
-      </c>
-      <c r="B90" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>44</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>142</v>
+        <v>32</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B91" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>44</v>
-      </c>
-      <c r="B93" t="s">
-        <v>134</v>
+        <v>43</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B94" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B95" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B96" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>44</v>
-      </c>
-      <c r="B97" t="s">
-        <v>137</v>
+        <v>43</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>43</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>43</v>
+      </c>
+      <c r="B99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A100" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A101" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A102" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A103" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A104" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B104" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A105" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B105" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A106" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A107" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B107" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A108" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B108" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A109" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A110" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B110" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A111" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A112" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A113" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A114" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A115" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A116" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C56" xr:uid="{A8322CDB-25C4-5444-B944-F0725C38DC11}"/>
+  <autoFilter ref="A1:C58" xr:uid="{A8322CDB-25C4-5444-B944-F0725C38DC11}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D721A325-FFE8-414B-B2EB-8286847F0276}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1878,22 +2031,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1910,337 +2063,337 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>16</v>
+      <c r="A4" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>45</v>
+      <c r="A5" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="3"/>
+      <c r="F5" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="D6" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3"/>
+    <row r="7" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>20</v>
+      <c r="A8" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D8" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="3"/>
+    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3"/>
+    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>4</v>
+      <c r="A11" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>8</v>
+      <c r="A12" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>63</v>
+    <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="D13" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>65</v>
+    <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="D14" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>33</v>
+      <c r="A15" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3">
-        <v>20</v>
-      </c>
-      <c r="E15" s="3" t="b">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>41</v>
+      <c r="A16" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D16" s="3">
-        <v>20</v>
-      </c>
-      <c r="E16" s="3" t="b">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="3"/>
+    <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>11</v>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="D18" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>72</v>
-      </c>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3"/>
       <c r="D19" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>14</v>
+    <row r="20" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D20" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>15</v>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>17</v>
+    <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="D22" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>18</v>
+      <c r="A23" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="D23" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D24" s="3">
         <v>4</v>
@@ -2249,212 +2402,200 @@
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
-        <v>83</v>
+      <c r="A25" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>85</v>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="D26" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>87</v>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="D27" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
-        <v>91</v>
+      <c r="A28" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="D28" s="3">
+        <v>5</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3">
+        <v>6</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="3">
         <v>7</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="3">
-        <v>7</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="3">
-        <v>7</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" s="3">
-        <v>8</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
-        <v>49</v>
+      <c r="A32" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D32" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
-        <v>23</v>
+      <c r="A33" s="18" t="s">
+        <v>54</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D33" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
-        <v>24</v>
+      <c r="A34" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D34" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
-        <v>25</v>
+      <c r="A35" s="18" t="s">
+        <v>104</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D35" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D36" s="3">
         <v>7</v>
       </c>
       <c r="E36" s="3"/>
-      <c r="F36" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D37" s="3">
         <v>7</v>
@@ -2464,13 +2605,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="D38" s="3">
         <v>7</v>
@@ -2479,132 +2620,128 @@
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
-        <v>107</v>
+      <c r="A39" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D39" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
-        <v>28</v>
+      <c r="A40" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D40" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E40" s="3"/>
-      <c r="F40" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="18" t="s">
-        <v>46</v>
+      <c r="A41" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D41" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>115</v>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="D42" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>117</v>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="D43" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E43" s="3"/>
-      <c r="F43" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A44" s="15" t="s">
-        <v>32</v>
+      <c r="A44" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>121</v>
       </c>
       <c r="D44" s="3">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="15" t="s">
-        <v>54</v>
+      <c r="A45" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="D45" s="3">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E45" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D46" s="3">
         <v>20</v>
@@ -2615,41 +2752,43 @@
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="10" t="s">
-        <v>5</v>
+      <c r="A47" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E47" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A48" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>125</v>
-      </c>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="3"/>
       <c r="D48" s="3">
-        <v>18</v>
-      </c>
-      <c r="E48" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E48" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="s">
-        <v>35</v>
+      <c r="A49" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3">
@@ -2662,10 +2801,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3">
@@ -2678,10 +2817,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3">
@@ -2694,10 +2833,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3">
@@ -2710,10 +2849,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3">
@@ -2724,14 +2863,16 @@
       </c>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C54" s="3"/>
+    <row r="54" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="D54" s="3">
         <v>20</v>
       </c>
@@ -2742,78 +2883,28 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C55" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="D55" s="3">
         <v>20</v>
       </c>
       <c r="E55" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F55" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D56" s="3">
-        <v>20</v>
-      </c>
-      <c r="E56" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D57" s="3">
-        <v>20</v>
-      </c>
-      <c r="E57" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F57" s="3"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D58" s="3">
-        <v>7</v>
-      </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="F55" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F58" xr:uid="{D721A325-FFE8-414B-B2EB-8286847F0276}"/>
+  <autoFilter ref="A1:F55" xr:uid="{D721A325-FFE8-414B-B2EB-8286847F0276}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F55">
+      <sortCondition ref="D2:D55"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schilder/Desktop/Ilona_thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936033D9-B93F-5E4D-B5B8-87E4A1839383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C060C57-514A-784A-828F-560762317C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12120" yWindow="1000" windowWidth="21400" windowHeight="17520" activeTab="1" xr2:uid="{3843ECAF-FC15-3B44-AD26-4A902B2E57C4}"/>
   </bookViews>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schilder/Desktop/Ilona_thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C060C57-514A-784A-828F-560762317C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C6BD1A-1C14-B840-9917-8B1C3C5AB764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12120" yWindow="1000" windowWidth="21400" windowHeight="17520" activeTab="1" xr2:uid="{3843ECAF-FC15-3B44-AD26-4A902B2E57C4}"/>
+    <workbookView xWindow="5240" yWindow="1000" windowWidth="28280" windowHeight="17180" activeTab="1" xr2:uid="{3843ECAF-FC15-3B44-AD26-4A902B2E57C4}"/>
   </bookViews>
   <sheets>
     <sheet name="edges" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">edges!$A$1:$C$58</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">nodes!$A$1:$F$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">nodes!$A$1:$F$54</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -661,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -689,9 +689,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1316,7 +1313,7 @@
       <c r="A30" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1324,7 +1321,7 @@
       <c r="A31" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1852,7 +1849,7 @@
       <c r="A97" t="s">
         <v>43</v>
       </c>
-      <c r="B97" s="21" t="s">
+      <c r="B97" s="20" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1860,7 +1857,7 @@
       <c r="A98" t="s">
         <v>43</v>
       </c>
-      <c r="B98" s="21" t="s">
+      <c r="B98" s="20" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1873,15 +1870,15 @@
       </c>
     </row>
     <row r="100" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A100" s="15" t="s">
+      <c r="A100" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B100" s="15" t="s">
+      <c r="B100" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A101" s="15" t="s">
+      <c r="A101" s="14" t="s">
         <v>53</v>
       </c>
       <c r="B101" t="s">
@@ -1889,23 +1886,23 @@
       </c>
     </row>
     <row r="102" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A102" s="13" t="s">
+      <c r="A102" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B102" s="13" t="s">
+      <c r="B102" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A103" s="13" t="s">
+      <c r="A103" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B103" s="13" t="s">
+      <c r="B103" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A104" s="12" t="s">
+      <c r="A104" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B104" t="s">
@@ -1913,7 +1910,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A105" s="12" t="s">
+      <c r="A105" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B105" t="s">
@@ -1921,7 +1918,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A106" s="12" t="s">
+      <c r="A106" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B106" s="2" t="s">
@@ -1929,7 +1926,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A107" s="12" t="s">
+      <c r="A107" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B107" t="s">
@@ -1937,7 +1934,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A108" s="12" t="s">
+      <c r="A108" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B108" t="s">
@@ -1945,7 +1942,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A109" s="12" t="s">
+      <c r="A109" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -1953,7 +1950,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A110" s="12" t="s">
+      <c r="A110" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B110" t="s">
@@ -1961,7 +1958,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A111" s="12" t="s">
+      <c r="A111" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -1969,7 +1966,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A112" s="12" t="s">
+      <c r="A112" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -1977,7 +1974,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A113" s="12" t="s">
+      <c r="A113" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -1985,7 +1982,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A114" s="12" t="s">
+      <c r="A114" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -1993,7 +1990,7 @@
       </c>
     </row>
     <row r="115" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A115" s="12" t="s">
+      <c r="A115" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B115" s="2" t="s">
@@ -2001,7 +1998,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A116" s="12" t="s">
+      <c r="A116" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -2018,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D721A325-FFE8-414B-B2EB-8286847F0276}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2138,7 +2135,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -2154,7 +2151,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -2170,7 +2167,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -2214,7 +2211,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -2230,7 +2227,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2260,7 +2257,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -2276,7 +2273,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>86</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2292,7 +2289,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -2338,7 +2335,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>53</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -2354,7 +2351,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -2370,7 +2367,7 @@
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -2386,7 +2383,7 @@
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -2478,7 +2475,7 @@
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="15" t="s">
         <v>81</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -2492,7 +2489,7 @@
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="17" t="s">
         <v>89</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -2508,7 +2505,7 @@
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -2524,7 +2521,7 @@
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -2540,7 +2537,7 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -2556,7 +2553,7 @@
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="17" t="s">
         <v>104</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -2572,7 +2569,7 @@
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -2588,7 +2585,7 @@
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="17" t="s">
         <v>105</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -2604,7 +2601,7 @@
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="17" t="s">
         <v>109</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -2620,7 +2617,7 @@
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -2636,7 +2633,7 @@
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="18" t="s">
         <v>47</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -2652,7 +2649,7 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -2668,7 +2665,7 @@
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -2684,7 +2681,7 @@
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -2700,7 +2697,7 @@
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -2716,14 +2713,14 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="12" t="s">
-        <v>40</v>
+      <c r="A45" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="D45" s="3">
         <v>20</v>
@@ -2733,16 +2730,14 @@
       </c>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>119</v>
-      </c>
+    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="3"/>
       <c r="D46" s="3">
         <v>20</v>
       </c>
@@ -2751,12 +2746,12 @@
       </c>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3">
@@ -2767,12 +2762,12 @@
       </c>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>122</v>
+    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3">
@@ -2783,12 +2778,12 @@
       </c>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>123</v>
+    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3">
@@ -2799,12 +2794,12 @@
       </c>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>35</v>
+    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3">
@@ -2815,12 +2810,12 @@
       </c>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>36</v>
+    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3">
@@ -2831,12 +2826,12 @@
       </c>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>37</v>
+    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3">
@@ -2847,14 +2842,16 @@
       </c>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="3"/>
+    <row r="53" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A53" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="D53" s="3">
         <v>20</v>
       </c>
@@ -2863,15 +2860,15 @@
       </c>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>125</v>
+    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="D54" s="3">
         <v>20</v>
@@ -2881,15 +2878,15 @@
       </c>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>127</v>
+    <row r="55" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A55" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="D55" s="3">
         <v>20</v>
@@ -2900,9 +2897,9 @@
       <c r="F55" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F55" xr:uid="{D721A325-FFE8-414B-B2EB-8286847F0276}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F55">
-      <sortCondition ref="D2:D55"/>
+  <autoFilter ref="A1:F54" xr:uid="{D721A325-FFE8-414B-B2EB-8286847F0276}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F54">
+      <sortCondition ref="D2:D54"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schilder/Desktop/Ilona_thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C6BD1A-1C14-B840-9917-8B1C3C5AB764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB8D387-C28B-A648-8B3D-EC8A6491E67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5240" yWindow="1000" windowWidth="28280" windowHeight="17180" activeTab="1" xr2:uid="{3843ECAF-FC15-3B44-AD26-4A902B2E57C4}"/>
   </bookViews>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schilder/Desktop/Ilona_thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB8D387-C28B-A648-8B3D-EC8A6491E67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76CA449-437D-2B4B-8A13-D827F440B2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5240" yWindow="1000" windowWidth="28280" windowHeight="17180" activeTab="1" xr2:uid="{3843ECAF-FC15-3B44-AD26-4A902B2E57C4}"/>
+    <workbookView xWindow="2440" yWindow="1000" windowWidth="28280" windowHeight="17180" activeTab="1" xr2:uid="{3843ECAF-FC15-3B44-AD26-4A902B2E57C4}"/>
   </bookViews>
   <sheets>
     <sheet name="edges" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">edges!$A$1:$C$58</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">nodes!$A$1:$F$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">nodes!$A$1:$G$54</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="144">
   <si>
     <t>from</t>
   </si>
@@ -200,9 +200,6 @@
     <t>Deep Structure</t>
   </si>
   <si>
-    <t xml:space="preserve">Deep Structure </t>
-  </si>
-  <si>
     <t xml:space="preserve">Wellcome Library Archives </t>
   </si>
   <si>
@@ -213,9 +210,6 @@
   </si>
   <si>
     <t>Michael Ogunseye Actor</t>
-  </si>
-  <si>
-    <t>show</t>
   </si>
   <si>
     <t>gradient</t>
@@ -506,6 +500,15 @@
   </si>
   <si>
     <t xml:space="preserve">Writer and Editor, DoP and Director </t>
+  </si>
+  <si>
+    <t>mult</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>subcluster</t>
   </si>
 </sst>
 </file>
@@ -634,7 +637,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -657,11 +660,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -719,6 +733,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1035,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8322CDB-25C4-5444-B944-F0725C38DC11}">
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A161" sqref="A117:XFD161"/>
+    <sheetView topLeftCell="A87" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1047,7 +1064,7 @@
     <col min="2" max="2" width="62.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1055,21 +1072,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1080,7 +1100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1091,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1102,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1113,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1124,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1135,7 +1155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1146,18 +1166,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1165,7 +1185,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1173,7 +1193,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1181,28 +1201,28 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1218,7 +1238,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1226,7 +1246,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1234,7 +1254,7 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1242,7 +1262,7 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1250,7 +1270,7 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1266,7 +1286,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1282,7 +1302,7 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1290,7 +1310,7 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1298,7 +1318,7 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1306,7 +1326,7 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1314,7 +1334,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1322,7 +1342,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -1343,7 +1363,7 @@
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>5</v>
@@ -1354,7 +1374,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -1386,7 +1406,7 @@
         <v>16</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -1415,7 +1435,7 @@
     </row>
     <row r="43" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>19</v>
@@ -1423,7 +1443,7 @@
     </row>
     <row r="44" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>18</v>
@@ -1431,7 +1451,7 @@
     </row>
     <row r="45" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>17</v>
@@ -1442,7 +1462,7 @@
         <v>28</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -1450,7 +1470,7 @@
         <v>28</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -1458,7 +1478,7 @@
         <v>28</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -1466,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -1490,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -1506,7 +1526,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -1514,7 +1534,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -1578,7 +1598,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -1594,7 +1614,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1642,12 +1662,12 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B72" t="s">
         <v>2</v>
@@ -1682,7 +1702,7 @@
         <v>32</v>
       </c>
       <c r="B76" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -1690,7 +1710,7 @@
         <v>32</v>
       </c>
       <c r="B77" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -1698,7 +1718,7 @@
         <v>32</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1762,7 +1782,7 @@
         <v>32</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -1778,7 +1798,7 @@
         <v>32</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -1794,7 +1814,7 @@
         <v>32</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -1815,77 +1835,77 @@
     </row>
     <row r="93" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B94" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B95" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B96" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B99" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B101" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
         <v>11</v>
       </c>
@@ -1893,7 +1913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
         <v>11</v>
       </c>
@@ -1901,108 +1921,141 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B104" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B105" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="D106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B107" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="D107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B108" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="D108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="D109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B110" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="D110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="D111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="D112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="D113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="D114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="D115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>36</v>
+      </c>
+      <c r="D116" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2013,10 +2066,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D721A325-FFE8-414B-B2EB-8286847F0276}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2026,27 +2079,33 @@
     <col min="3" max="3" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2059,8 +2118,12 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="3"/>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2073,8 +2136,12 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="3"/>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2087,8 +2154,12 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="3"/>
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
@@ -2100,27 +2171,30 @@
         <v>10</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D6" s="3">
         <v>9</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -2133,56 +2207,60 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
@@ -2195,13 +2273,14 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3">
@@ -2209,40 +2288,43 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" s="3">
         <v>2</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>28</v>
       </c>
@@ -2255,56 +2337,60 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D16" s="3">
         <v>3</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D17" s="3">
         <v>3</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>3</v>
       </c>
@@ -2317,88 +2403,94 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="D20" s="3">
         <v>4</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D21" s="3">
         <v>4</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D22" s="3">
         <v>4</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D23" s="3">
         <v>4</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D24" s="3">
         <v>4</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>4</v>
       </c>
@@ -2411,56 +2503,60 @@
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D26" s="3">
         <v>5</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D27" s="3">
         <v>5</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D28" s="3">
         <v>5</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>5</v>
       </c>
@@ -2473,13 +2569,14 @@
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3">
@@ -2487,298 +2584,325 @@
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D31" s="3">
         <v>7</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D32" s="3">
         <v>7</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D33" s="3">
         <v>7</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D34" s="3">
         <v>7</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D35" s="3">
         <v>7</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D36" s="3">
         <v>7</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D37" s="3">
         <v>7</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D38" s="3">
         <v>7</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D39" s="3">
         <v>8</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D40" s="3">
         <v>8</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D41" s="3">
         <v>8</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D42" s="3">
         <v>8</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D43" s="3">
         <v>8</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D44" s="3">
         <v>18</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>119</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="3"/>
       <c r="D45" s="3">
         <v>20</v>
       </c>
-      <c r="E45" s="3" t="b">
+      <c r="E45" s="3">
         <v>1</v>
       </c>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="F45" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3">
         <v>20</v>
       </c>
-      <c r="E46" s="3" t="b">
+      <c r="E46" s="3">
         <v>1</v>
       </c>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="F46" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3">
         <v>20</v>
       </c>
-      <c r="E47" s="3" t="b">
+      <c r="E47" s="3">
         <v>1</v>
       </c>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="F47" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C48" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="D48" s="3">
         <v>20</v>
       </c>
-      <c r="E48" s="3" t="b">
+      <c r="E48" s="3">
+        <v>2</v>
+      </c>
+      <c r="F48" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>35</v>
       </c>
@@ -2789,12 +2913,15 @@
       <c r="D49" s="3">
         <v>20</v>
       </c>
-      <c r="E49" s="3" t="b">
+      <c r="E49" s="3">
+        <v>2</v>
+      </c>
+      <c r="F49" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
         <v>36</v>
       </c>
@@ -2805,12 +2932,15 @@
       <c r="D50" s="3">
         <v>20</v>
       </c>
-      <c r="E50" s="3" t="b">
+      <c r="E50" s="3">
+        <v>2</v>
+      </c>
+      <c r="F50" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
         <v>37</v>
       </c>
@@ -2821,12 +2951,15 @@
       <c r="D51" s="3">
         <v>20</v>
       </c>
-      <c r="E51" s="3" t="b">
+      <c r="E51" s="3">
+        <v>2</v>
+      </c>
+      <c r="F51" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
         <v>38</v>
       </c>
@@ -2837,68 +2970,80 @@
       <c r="D52" s="3">
         <v>20</v>
       </c>
-      <c r="E52" s="3" t="b">
+      <c r="E52" s="3">
+        <v>2</v>
+      </c>
+      <c r="F52" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D53" s="3">
         <v>20</v>
       </c>
-      <c r="E53" s="3" t="b">
+      <c r="E53" s="3">
+        <v>2</v>
+      </c>
+      <c r="F53" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D54" s="3">
         <v>20</v>
       </c>
-      <c r="E54" s="3" t="b">
+      <c r="E54" s="3">
+        <v>2</v>
+      </c>
+      <c r="F54" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D55" s="3">
         <v>20</v>
       </c>
-      <c r="E55" s="3" t="b">
+      <c r="E55" s="3">
+        <v>2</v>
+      </c>
+      <c r="F55" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F54" xr:uid="{D721A325-FFE8-414B-B2EB-8286847F0276}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F54">
+  <autoFilter ref="A1:G54" xr:uid="{D721A325-FFE8-414B-B2EB-8286847F0276}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G54">
       <sortCondition ref="D2:D54"/>
     </sortState>
   </autoFilter>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schilder/Desktop/Ilona_thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76CA449-437D-2B4B-8A13-D827F440B2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33E67CE-B36E-F34D-94AD-C8328E28BCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="1000" windowWidth="28280" windowHeight="17180" activeTab="1" xr2:uid="{3843ECAF-FC15-3B44-AD26-4A902B2E57C4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35080" windowHeight="18520" activeTab="1" xr2:uid="{3843ECAF-FC15-3B44-AD26-4A902B2E57C4}"/>
   </bookViews>
   <sheets>
     <sheet name="edges" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="262">
   <si>
     <t>from</t>
   </si>
@@ -78,12 +78,6 @@
     <t xml:space="preserve">Self-Service </t>
   </si>
   <si>
-    <t xml:space="preserve">Prof. Paul Fletcher, 
-Bernard Wolfe Professor 
-of Health Neuroscience
- University of Cambridge </t>
-  </si>
-  <si>
     <t>Department of Neurology
 The Behaviour and Health Research Unit 
 University of Cambridge</t>
@@ -97,418 +91,779 @@
 Senior Clinical Research Associate</t>
   </si>
   <si>
-    <t>Dr Felicity Thomas
+    <t>Wellcome Collection</t>
+  </si>
+  <si>
+    <t>Angela Saward Archivist
+Research Development Specialist 
+(Moving Image &amp; Sound)</t>
+  </si>
+  <si>
+    <t>Ross Macfarlane 
+Research Engagement Officer 
+Wellcome Library</t>
+  </si>
+  <si>
+    <t>Lesley Hall, Historian and
+archivist Wellcome Library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amy Newton Actor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seth Scott Sound Design </t>
+  </si>
+  <si>
+    <t>Luca Shea-Green Actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louis Suc Actor </t>
+  </si>
+  <si>
+    <t>Barty Shepherd Actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seb Nowell Camera Assistant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Dingle, Producer - Ballad of Peckham Rye </t>
+  </si>
+  <si>
+    <t>Pioneer Centre Resident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luke Frost illustrator, 
+graphic designer and printmaker </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jack Czauderna 
+Chair Pioneer Health Foundation </t>
+  </si>
+  <si>
+    <t>Henrietta Trotter 
+worked as a student biologist 
+at the Pioneer Health Centre</t>
+  </si>
+  <si>
+    <t>Self-Service</t>
+  </si>
+  <si>
+    <t>John Curtice 
+political scientist and BBC journalist</t>
+  </si>
+  <si>
+    <t>Glasgow International 2018</t>
+  </si>
+  <si>
+    <t>Alberta Whittle</t>
+  </si>
+  <si>
+    <t>Gary Zhexi Zhang</t>
+  </si>
+  <si>
+    <t>Emma Balkind</t>
+  </si>
+  <si>
+    <t>Clara Crivellaro &amp; Alex Taylor</t>
+  </si>
+  <si>
+    <t>Kirsty Hendry (co-author of Self-Service)
+Artist and Curator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna Clover Research Fellow University of Glasgow </t>
+  </si>
+  <si>
+    <t>Deep Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wellcome Library Archives </t>
+  </si>
+  <si>
+    <t>linked</t>
+  </si>
+  <si>
+    <t>Wellcome Library Archives</t>
+  </si>
+  <si>
+    <t>Michael Ogunseye Actor</t>
+  </si>
+  <si>
+    <t>gradient</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
+    <t>Simon Parris, Head of Programme, South London Gallery</t>
+  </si>
+  <si>
+    <t>Christopher Trotter 
+(member of the Pioneer Health Foundation)</t>
+  </si>
+  <si>
+    <t>Lesley Hall, Historian and archivist Wellcome Library</t>
+  </si>
+  <si>
+    <t>Mike Keelin Colourist</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>The Health and Social Care Alliance Scotland, Research Fellow in Health Policy University of Strathclyde, Pioneer Health Foundation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laura Wilson </t>
+  </si>
+  <si>
+    <t>Artist and Young People's Programme Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tommie Introna </t>
+  </si>
+  <si>
+    <t>Young People's Programme Coordinator</t>
+  </si>
+  <si>
+    <t>Simon Parris</t>
+  </si>
+  <si>
+    <t>Head of Programme, South London Gallery</t>
+  </si>
+  <si>
+    <t>Kirsty Hendry</t>
+  </si>
+  <si>
+    <t>Co-author of Self-Service, Artist and Curator</t>
+  </si>
+  <si>
+    <t>Prof. Paul Fletcher</t>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t>Kelly Diederen</t>
+  </si>
+  <si>
+    <t>Postdoctoral Research Associate</t>
+  </si>
+  <si>
+    <t>Hisham Ziauddeen</t>
+  </si>
+  <si>
+    <t>Senior Clinical Research Associate</t>
+  </si>
+  <si>
+    <t>Director of the Wellcome Centre for Cultures &amp; Environments of Health, WHO Collaborating Centre for Culture and Health, University of Exeter</t>
+  </si>
+  <si>
+    <t>Angela Saward Archivist</t>
+  </si>
+  <si>
+    <t>Research Development Specialist, Moving Image &amp; Sound</t>
+  </si>
+  <si>
+    <t>Ross Macfarlane</t>
+  </si>
+  <si>
+    <t>Research Engagement Officer, Wellcome Library</t>
+  </si>
+  <si>
+    <t>Lesley Hall</t>
+  </si>
+  <si>
+    <t>Historian and archivist Wellcome Library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIBA Archive </t>
+  </si>
+  <si>
+    <t>Tom Bell</t>
+  </si>
+  <si>
+    <t>Mowma Projects (LIDAR), Pioneer Centre Resident</t>
+  </si>
+  <si>
+    <t>James Hardy</t>
+  </si>
+  <si>
+    <t>Live Fit Pioneer Centre Resident</t>
+  </si>
+  <si>
+    <t>James Hardy 
+Live Fit Pioneer Centre Resident</t>
+  </si>
+  <si>
+    <t>Tom Bell Mowma Projects 
+(LIDAR)  Pioneer Centre Resident</t>
+  </si>
+  <si>
+    <t>Tom Nowell</t>
+  </si>
+  <si>
+    <t>Tom Nowell Lighting and Camera in collaboration with Ilona Sagar</t>
+  </si>
+  <si>
+    <t>Seth Scott</t>
+  </si>
+  <si>
+    <t>Sound Design</t>
+  </si>
+  <si>
+    <t>Mike Keelin</t>
+  </si>
+  <si>
+    <t>Colourist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amy Newton </t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>Michael Ogunseye</t>
+  </si>
+  <si>
+    <t>Luca Shea-Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louis Suc </t>
+  </si>
+  <si>
+    <t>Barty Shepherd</t>
+  </si>
+  <si>
+    <t>Seb Nowell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera Assistant </t>
+  </si>
+  <si>
+    <t>Adam Laschinger</t>
+  </si>
+  <si>
+    <t>Field Recordist</t>
+  </si>
+  <si>
+    <t>Adam Laschinger - Field Recordist</t>
+  </si>
+  <si>
+    <t>Stephen Lee - Field Recordist</t>
+  </si>
+  <si>
+    <t>Robert Dingle</t>
+  </si>
+  <si>
+    <t>Producer, Ballad of Peckham Rye</t>
+  </si>
+  <si>
+    <t>Stephen Lee</t>
+  </si>
+  <si>
+    <t>Ilona Sagar</t>
+  </si>
+  <si>
+    <t>Luke Frost</t>
+  </si>
+  <si>
+    <t>Illustrator, Graphic Designer and Printmaker</t>
+  </si>
+  <si>
+    <t>Jack Czauderna</t>
+  </si>
+  <si>
+    <t>Chair Pioneer Health Foundation</t>
+  </si>
+  <si>
+    <t>Henrietta Trotter</t>
+  </si>
+  <si>
+    <t>Christopher Trotter</t>
+  </si>
+  <si>
+    <t>Member of the Pioneer Health Foundation</t>
+  </si>
+  <si>
+    <t>Student Biologist at the Pioneer Health Centre</t>
+  </si>
+  <si>
+    <t>John Curtice</t>
+  </si>
+  <si>
+    <t>Political Scientist and BBC Journalist</t>
+  </si>
+  <si>
+    <t>Charles Curtice</t>
+  </si>
+  <si>
+    <t>IoPPN Genomics &amp; Biomarker Core Facility, Kings College London</t>
+  </si>
+  <si>
+    <t>CCA Glasgow</t>
+  </si>
+  <si>
+    <t>Gallery of Modern Art (GoMA)</t>
+  </si>
+  <si>
+    <t>Dr. Elsa Richardson</t>
+  </si>
+  <si>
+    <t>Historian, Chancellor's Fellow, University of Strathclyde</t>
+  </si>
+  <si>
+    <t>Anna Clover</t>
+  </si>
+  <si>
+    <t>Research Fellow, University of Glasgow</t>
+  </si>
+  <si>
+    <t>RIBA Archive</t>
+  </si>
+  <si>
+    <t>Seth Scott Sound Design</t>
+  </si>
+  <si>
+    <t>Amy Newton Actor</t>
+  </si>
+  <si>
+    <t>Louis Suc Actor</t>
+  </si>
+  <si>
+    <t>Seb Nowell Camera Assistant</t>
+  </si>
+  <si>
+    <t>Robert Dingle, Producer - Ballad of Peckham Rye</t>
+  </si>
+  <si>
+    <t>Luke Frost illustrator, 
+graphic designer and printmaker</t>
+  </si>
+  <si>
+    <t>Jack Czauderna 
+Chair Pioneer Health Foundation</t>
+  </si>
+  <si>
+    <t>Laura Wilson, Artist and Young People's Programme Manager</t>
+  </si>
+  <si>
+    <t>Tommie Introna Young People's Programme Coordinator</t>
+  </si>
+  <si>
+    <t>Anna Clover Research Fellow University of Glasgow</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>Lighting and Camera in collaboration with Ilona Sagar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Writer and Editor, DoP and Director </t>
+  </si>
+  <si>
+    <t>mult</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>subcluster</t>
+  </si>
+  <si>
+    <t>David Crossland</t>
+  </si>
+  <si>
+    <t>Mark Pearce</t>
+  </si>
+  <si>
+    <t>Craig Rihoy, Sound Recordist</t>
+  </si>
+  <si>
+    <t>Former Residents of Park Hill</t>
+  </si>
+  <si>
+    <t>Howard Humphries</t>
+  </si>
+  <si>
+    <t>Joanne Marsden</t>
+  </si>
+  <si>
+    <t>Kate Reardon</t>
+  </si>
+  <si>
+    <t>Mandy Kent</t>
+  </si>
+  <si>
+    <t>Sharon Mawson</t>
+  </si>
+  <si>
+    <t>Lynn Smith</t>
+  </si>
+  <si>
+    <t>Laura Clarke, Curator and Producer</t>
+  </si>
+  <si>
+    <t>Lauren Chandler, Actor</t>
+  </si>
+  <si>
+    <t>Vivienne Bell, Actor</t>
+  </si>
+  <si>
+    <t>Arup Archives</t>
+  </si>
+  <si>
+    <t>Local Studies Library</t>
+  </si>
+  <si>
+    <t>Sheffield Archives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Sheffield  </t>
+  </si>
+  <si>
+    <t>Mark Dormer, Manager</t>
+  </si>
+  <si>
+    <t>Damien Gray, Camera Assistant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep Structure </t>
+  </si>
+  <si>
+    <t>Ed Cavanagh, Works Manager</t>
+  </si>
+  <si>
+    <t>Theo Hanein, Research Associate in Materials Chemistry</t>
+  </si>
+  <si>
+    <t>University of Sheffield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam Vaughan, Technician </t>
+  </si>
+  <si>
+    <t>Dan Fleetwood, CGI Animator</t>
+  </si>
+  <si>
+    <t>Ben Morris, Runner</t>
+  </si>
+  <si>
+    <t>Martha Wragg, Runner</t>
+  </si>
+  <si>
+    <t>Jim Brouwer, AV Technician</t>
+  </si>
+  <si>
+    <t>Georgia Clipsham, Runner</t>
+  </si>
+  <si>
+    <t>Rachael Duke, Production Manager</t>
+  </si>
+  <si>
+    <t>University College London</t>
+  </si>
+  <si>
+    <t>Andrew Carberry, Runner</t>
+  </si>
+  <si>
+    <t>Daniel Geddes, Postdoctoral Research Associate, Department of Materials Science and Engineering</t>
+  </si>
+  <si>
+    <t>Elle Stocks, Assistant Curator</t>
+  </si>
+  <si>
+    <t>S1 ArtSpace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nick Bax, Director, Human Studio </t>
+  </si>
+  <si>
+    <t>David Bickie, Hawkins Brown (drawings)</t>
+  </si>
+  <si>
+    <t>Richard Syddall, Almuno (drawings)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greg Hardie, Project manager </t>
+  </si>
+  <si>
+    <t>Christopher Gibbs, Principal structural engineer Arup</t>
+  </si>
+  <si>
+    <t>Breedon Hope Cement Works</t>
+  </si>
+  <si>
+    <t>Alex Stagg, Camera Assistant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Materials Science and Engineering, University of Sheffield  </t>
+  </si>
+  <si>
+    <t>Data Bodies, Social Objects</t>
+  </si>
+  <si>
+    <t>Soft power, care and the commons</t>
+  </si>
+  <si>
+    <t>Jack Czauderna 
+Chair Pioneer Health Foundation and former GP Darnall GP surgery Sheffield (equal pay collective) and Darnall Wellbeing, a community health and wellbeing group</t>
+  </si>
+  <si>
+    <t>Dan Fleetwood</t>
+  </si>
+  <si>
+    <t>CGI Animator</t>
+  </si>
+  <si>
+    <t>Craig Rihoy</t>
+  </si>
+  <si>
+    <t>Sound Recordist</t>
+  </si>
+  <si>
+    <t>Curator and Producer</t>
+  </si>
+  <si>
+    <t>Laura Clarke</t>
+  </si>
+  <si>
+    <t>Lauren Chandler</t>
+  </si>
+  <si>
+    <t>Vivienne Bell</t>
+  </si>
+  <si>
+    <t>Mark Dormer</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Breedon Hope</t>
+  </si>
+  <si>
+    <t>Cement Works</t>
+  </si>
+  <si>
+    <t>Works Manager</t>
+  </si>
+  <si>
+    <t>Ed Cavanagh</t>
+  </si>
+  <si>
+    <t>Daniel Geddes</t>
+  </si>
+  <si>
+    <t>Postdoctoral Research Associate, Department of Materials Science and Engineering</t>
+  </si>
+  <si>
+    <t>Damien Gray</t>
+  </si>
+  <si>
+    <t>Camera Assistant</t>
+  </si>
+  <si>
+    <t>Greg Hardie, Project manager</t>
+  </si>
+  <si>
+    <t>Project manager</t>
+  </si>
+  <si>
+    <t>Greg Hardie</t>
+  </si>
+  <si>
+    <t>Christopher Gibbs</t>
+  </si>
+  <si>
+    <t>Principal structural engineer, Arup</t>
+  </si>
+  <si>
+    <t>Richard Syddall</t>
+  </si>
+  <si>
+    <t>Almuno (drawings)</t>
+  </si>
+  <si>
+    <t>Maggie Tyson</t>
+  </si>
+  <si>
+    <t>Tim Knebel, Archivists</t>
+  </si>
+  <si>
+    <t>Tim Knebel</t>
+  </si>
+  <si>
+    <t>David Bickie</t>
+  </si>
+  <si>
+    <t>Hawkins Brown (drawings)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Director, Human Studio </t>
+  </si>
+  <si>
+    <t>Theo Hanein</t>
+  </si>
+  <si>
+    <t>Research Associate in Materials Chemistry</t>
+  </si>
+  <si>
+    <t>Ben Morris</t>
+  </si>
+  <si>
+    <t>Runner</t>
+  </si>
+  <si>
+    <t>Martha Wragg</t>
+  </si>
+  <si>
+    <t>John Provis</t>
+  </si>
+  <si>
+    <t>AV Technician</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam Vaughan </t>
+  </si>
+  <si>
+    <t>Jim Brouwer</t>
+  </si>
+  <si>
+    <t>Technician</t>
+  </si>
+  <si>
+    <t>Eleni Stavrou, Runner</t>
+  </si>
+  <si>
+    <t>Eleni Stavrou</t>
+  </si>
+  <si>
+    <t>Assistant Curator</t>
+  </si>
+  <si>
+    <t>Elle Stocks</t>
+  </si>
+  <si>
+    <t>Georgia Clipsham</t>
+  </si>
+  <si>
+    <t>Andrew Carberry</t>
+  </si>
+  <si>
+    <t>Laura Vaughan</t>
+  </si>
+  <si>
+    <t>Alex Taylor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sociologist, The Centre for Human Computer Interaction Design, City University College London </t>
+  </si>
+  <si>
+    <t>Rachael Duke</t>
+  </si>
+  <si>
+    <t>Production Manager</t>
+  </si>
+  <si>
+    <t>Alex Stagg</t>
+  </si>
+  <si>
+    <t>Social and Cultural Historian, University of Lincoln</t>
+  </si>
+  <si>
+    <t>Chair Pioneer Health Foundation and former GP Darnall GP surgery Sheffield (equal pay collective) and Darnall Wellbeing, a community health and wellbeing group</t>
+  </si>
+  <si>
+    <t>Senior Lecturer in Architecture at Sheffield Hallam University, director of the UKs first Social Enterprise architecture practice, Studio Polpo</t>
+  </si>
+  <si>
+    <t>Archivists</t>
+  </si>
+  <si>
+    <t>Archivists and Librarian</t>
+  </si>
+  <si>
+    <t>Maggie Tyson, Archivists and Librarian</t>
+  </si>
+  <si>
+    <t>Human Studio</t>
+  </si>
+  <si>
+    <t>Adam Vaughan, Technician</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nick Bax, Director </t>
+  </si>
+  <si>
+    <t>Walking Tour with Dr. Helen Smith, Prof. John Provis &amp; Ilona Sagar</t>
+  </si>
+  <si>
+    <t>John Provis, Prof. of Cement Materials Science and Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. Paul Fletcher, 
+Bernard Wolfe Prof. 
+of Health Neuroscience
+ University of Cambridge </t>
+  </si>
+  <si>
+    <t>Prof. Paul Fletcher, 
+Bernard Wolfe Prof. 
+of Health Neuroscience
+ University of Cambridge</t>
+  </si>
+  <si>
+    <t>Laura Vaughan, Prof. of Urban Form and Society and the Director of the Space Syntax Laboratory, The Bartlett School of Architecture</t>
+  </si>
+  <si>
+    <t>Dr. Helen Smith, social and cultural historian, University of Lincoln</t>
+  </si>
+  <si>
+    <t>Dr. Helen Smith</t>
+  </si>
+  <si>
+    <t>Dr. Julia Udall, Senior Lecturer in Architecture at Sheffield Hallam University, director of the UKs first Social Enterprise architecture practice, Studio Polpo</t>
+  </si>
+  <si>
+    <t>Dr. Julia Udall</t>
+  </si>
+  <si>
+    <t>Dr. Felicity Thomas
 Director of the Wellcome Centre for Cultures and Environments of Health
 WHO Collaborating Centre for Culture and Health 
 University of Exeter</t>
   </si>
   <si>
-    <t>Wellcome Collection</t>
-  </si>
-  <si>
-    <t>Angela Saward Archivist
-Research Development Specialist 
-(Moving Image &amp; Sound)</t>
-  </si>
-  <si>
-    <t>Ross Macfarlane 
-Research Engagement Officer 
-Wellcome Library</t>
-  </si>
-  <si>
-    <t>Lesley Hall, Historian and
-archivist Wellcome Library</t>
-  </si>
-  <si>
-    <t>Dr Lisa Curtice 
+    <t>Dr. Lisa Curtice 
 The Health and Social Care Alliance Scotland 
  Research Fellow in Health Policy University of Strathclyde 
 Pioneer Health Foundation</t>
   </si>
   <si>
-    <t xml:space="preserve">Amy Newton Actor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seth Scott Sound Design </t>
-  </si>
-  <si>
-    <t>Luca Shea-Green Actor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Louis Suc Actor </t>
-  </si>
-  <si>
-    <t>Barty Shepherd Actor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seb Nowell Camera Assistant </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robert Dingle, Producer - Ballad of Peckham Rye </t>
-  </si>
-  <si>
-    <t>Pioneer Centre Resident</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luke Frost illustrator, 
-graphic designer and printmaker </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jack Czauderna 
-Chair Pioneer Health Foundation </t>
-  </si>
-  <si>
-    <t>Henrietta Trotter 
-worked as a student biologist 
-at the Pioneer Health Centre</t>
-  </si>
-  <si>
-    <t>Self-Service</t>
-  </si>
-  <si>
-    <t>John Curtice 
-political scientist and BBC journalist</t>
-  </si>
-  <si>
-    <t>Glasgow International 2018</t>
-  </si>
-  <si>
-    <t>Alberta Whittle</t>
-  </si>
-  <si>
-    <t>Gary Zhexi Zhang</t>
-  </si>
-  <si>
-    <t>Emma Balkind</t>
-  </si>
-  <si>
-    <t>Clara Crivellaro &amp; Alex Taylor</t>
-  </si>
-  <si>
-    <t>Dr Elsa Richardson 
+    <t>Dr. Elsa Richardson 
 Historian 
 Chancellor's Fellow University of Strathclyde</t>
   </si>
   <si>
-    <t>Kirsty Hendry (co-author of Self-Service)
-Artist and Curator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anna Clover Research Fellow University of Glasgow </t>
-  </si>
-  <si>
-    <t>Deep Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wellcome Library Archives </t>
-  </si>
-  <si>
-    <t>linked</t>
-  </si>
-  <si>
-    <t>Wellcome Library Archives</t>
-  </si>
-  <si>
-    <t>Michael Ogunseye Actor</t>
-  </si>
-  <si>
-    <t>gradient</t>
-  </si>
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
-    <t>Simon Parris, Head of Programme, South London Gallery</t>
-  </si>
-  <si>
-    <t>Christopher Trotter 
-(member of the Pioneer Health Foundation)</t>
-  </si>
-  <si>
-    <t>Lesley Hall, Historian and archivist Wellcome Library</t>
-  </si>
-  <si>
-    <t>Mike Keelin Colourist</t>
-  </si>
-  <si>
-    <t>Dr Lisa Curtice</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>The Health and Social Care Alliance Scotland, Research Fellow in Health Policy University of Strathclyde, Pioneer Health Foundation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laura Wilson </t>
-  </si>
-  <si>
-    <t>Artist and Young People's Programme Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tommie Introna </t>
-  </si>
-  <si>
-    <t>Young People's Programme Coordinator</t>
-  </si>
-  <si>
-    <t>Simon Parris</t>
-  </si>
-  <si>
-    <t>Head of Programme, South London Gallery</t>
-  </si>
-  <si>
-    <t>Kirsty Hendry</t>
-  </si>
-  <si>
-    <t>Co-author of Self-Service, Artist and Curator</t>
-  </si>
-  <si>
-    <t>Prof. Paul Fletcher</t>
-  </si>
-  <si>
-    <t>Bernard Wolfe Professor of Health Neuroscience, University of Cambridge</t>
-  </si>
-  <si>
-    <t>entity</t>
-  </si>
-  <si>
-    <t>Kelly Diederen</t>
-  </si>
-  <si>
-    <t>Postdoctoral Research Associate</t>
-  </si>
-  <si>
-    <t>Hisham Ziauddeen</t>
-  </si>
-  <si>
-    <t>Senior Clinical Research Associate</t>
-  </si>
-  <si>
-    <t>Dr Felicity Thomas</t>
-  </si>
-  <si>
-    <t>Director of the Wellcome Centre for Cultures &amp; Environments of Health, WHO Collaborating Centre for Culture and Health, University of Exeter</t>
-  </si>
-  <si>
-    <t>Angela Saward Archivist</t>
-  </si>
-  <si>
-    <t>Research Development Specialist, Moving Image &amp; Sound</t>
-  </si>
-  <si>
-    <t>Ross Macfarlane</t>
-  </si>
-  <si>
-    <t>Research Engagement Officer, Wellcome Library</t>
-  </si>
-  <si>
-    <t>Lesley Hall</t>
-  </si>
-  <si>
-    <t>Historian and archivist Wellcome Library</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RIBA Archive </t>
-  </si>
-  <si>
-    <t>Tom Bell</t>
-  </si>
-  <si>
-    <t>Mowma Projects (LIDAR), Pioneer Centre Resident</t>
-  </si>
-  <si>
-    <t>James Hardy</t>
-  </si>
-  <si>
-    <t>Live Fit Pioneer Centre Resident</t>
-  </si>
-  <si>
-    <t>James Hardy 
-Live Fit Pioneer Centre Resident</t>
-  </si>
-  <si>
-    <t>Tom Bell Mowma Projects 
-(LIDAR)  Pioneer Centre Resident</t>
-  </si>
-  <si>
-    <t>Tom Nowell</t>
-  </si>
-  <si>
-    <t>Tom Nowell Lighting and Camera in collaboration with Ilona Sagar</t>
-  </si>
-  <si>
-    <t>Seth Scott</t>
-  </si>
-  <si>
-    <t>Sound Design</t>
-  </si>
-  <si>
-    <t>Mike Keelin</t>
-  </si>
-  <si>
-    <t>Colourist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amy Newton </t>
-  </si>
-  <si>
-    <t>Actor</t>
-  </si>
-  <si>
-    <t>Michael Ogunseye</t>
-  </si>
-  <si>
-    <t>Luca Shea-Green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Louis Suc </t>
-  </si>
-  <si>
-    <t>Barty Shepherd</t>
-  </si>
-  <si>
-    <t>Seb Nowell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camera Assistant </t>
-  </si>
-  <si>
-    <t>Adam Laschinger</t>
-  </si>
-  <si>
-    <t>Field Recordist</t>
-  </si>
-  <si>
-    <t>Adam Laschinger - Field Recordist</t>
-  </si>
-  <si>
-    <t>Stephen Lee - Field Recordist</t>
-  </si>
-  <si>
-    <t>Robert Dingle</t>
-  </si>
-  <si>
-    <t>Producer, Ballad of Peckham Rye</t>
-  </si>
-  <si>
-    <t>Stephen Lee</t>
-  </si>
-  <si>
-    <t>Ilona Sagar</t>
-  </si>
-  <si>
-    <t>Luke Frost</t>
-  </si>
-  <si>
-    <t>Illustrator, Graphic Designer and Printmaker</t>
-  </si>
-  <si>
-    <t>Jack Czauderna</t>
-  </si>
-  <si>
-    <t>Chair Pioneer Health Foundation</t>
-  </si>
-  <si>
-    <t>Henrietta Trotter</t>
-  </si>
-  <si>
-    <t>Christopher Trotter</t>
-  </si>
-  <si>
-    <t>Member of the Pioneer Health Foundation</t>
-  </si>
-  <si>
-    <t>Student Biologist at the Pioneer Health Centre</t>
-  </si>
-  <si>
-    <t>John Curtice</t>
-  </si>
-  <si>
-    <t>Political Scientist and BBC Journalist</t>
-  </si>
-  <si>
-    <t>Charles Curtice</t>
-  </si>
-  <si>
-    <t>IoPPN Genomics &amp; Biomarker Core Facility, Kings College London</t>
-  </si>
-  <si>
-    <t>CCA Glasgow</t>
-  </si>
-  <si>
-    <t>Gallery of Modern Art (GoMA)</t>
-  </si>
-  <si>
-    <t>Dr. Elsa Richardson</t>
-  </si>
-  <si>
-    <t>Historian, Chancellor's Fellow, University of Strathclyde</t>
-  </si>
-  <si>
-    <t>Anna Clover</t>
-  </si>
-  <si>
-    <t>Research Fellow, University of Glasgow</t>
-  </si>
-  <si>
-    <t>RIBA Archive</t>
-  </si>
-  <si>
-    <t>Seth Scott Sound Design</t>
-  </si>
-  <si>
-    <t>Amy Newton Actor</t>
-  </si>
-  <si>
-    <t>Louis Suc Actor</t>
-  </si>
-  <si>
-    <t>Seb Nowell Camera Assistant</t>
-  </si>
-  <si>
-    <t>Robert Dingle, Producer - Ballad of Peckham Rye</t>
-  </si>
-  <si>
-    <t>Prof. Paul Fletcher, 
-Bernard Wolfe Professor 
-of Health Neuroscience
- University of Cambridge</t>
-  </si>
-  <si>
-    <t>Luke Frost illustrator, 
-graphic designer and printmaker</t>
-  </si>
-  <si>
-    <t>Jack Czauderna 
-Chair Pioneer Health Foundation</t>
-  </si>
-  <si>
-    <t>Laura Wilson, Artist and Young People's Programme Manager</t>
-  </si>
-  <si>
-    <t>Tommie Introna Young People's Programme Coordinator</t>
-  </si>
-  <si>
-    <t>Anna Clover Research Fellow University of Glasgow</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>Lighting and Camera in collaboration with Ilona Sagar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Writer and Editor, DoP and Director </t>
-  </si>
-  <si>
-    <t>mult</t>
-  </si>
-  <si>
-    <t>hidden</t>
-  </si>
-  <si>
-    <t>subcluster</t>
+    <t>Dr. Felicity Thomas</t>
+  </si>
+  <si>
+    <t>Dr. Lisa Curtice</t>
+  </si>
+  <si>
+    <t>Bernard Wolfe Prof. of Health Neuroscience, University of Cambridge</t>
+  </si>
+  <si>
+    <t>Prof. of Cement Materials Science and Engineering</t>
+  </si>
+  <si>
+    <t>Prof. of Urban Form and Society and the Director of the Space Syntax Laboratory, The Bartlett School of Architecture</t>
+  </si>
+  <si>
+    <t>Alex Taylor, Sociologist, The Centre for Human Computer Interaction Design, City University College London</t>
   </si>
 </sst>
 </file>
@@ -675,7 +1030,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -735,6 +1090,16 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1052,15 +1417,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8322CDB-25C4-5444-B944-F0725C38DC11}">
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D197"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView topLeftCell="A9" zoomScale="137" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="51.33203125" customWidth="1"/>
     <col min="2" max="2" width="62.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1072,10 +1437,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1083,7 +1448,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -1105,7 +1470,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>246</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -1116,7 +1481,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -1127,7 +1492,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -1138,7 +1503,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -1149,7 +1514,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -1160,7 +1525,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -1171,7 +1536,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -1182,7 +1547,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1190,7 +1555,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1198,7 +1563,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1206,7 +1571,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1214,7 +1579,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1222,7 +1587,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1238,7 +1603,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1246,7 +1611,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1254,7 +1619,7 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1262,7 +1627,7 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1270,7 +1635,7 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1278,7 +1643,7 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1286,7 +1651,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1294,7 +1659,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1302,7 +1667,7 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1310,7 +1675,7 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1318,7 +1683,7 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1326,7 +1691,7 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1334,7 +1699,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1342,7 +1707,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -1350,7 +1715,7 @@
         <v>6</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>20</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -1363,7 +1728,7 @@
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>5</v>
@@ -1371,122 +1736,122 @@
     </row>
     <row r="35" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>132</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -1494,7 +1859,7 @@
         <v>3</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>20</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -1502,7 +1867,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -1510,7 +1875,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -1518,7 +1883,7 @@
         <v>3</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -1526,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -1534,7 +1899,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -1547,10 +1912,10 @@
     </row>
     <row r="57" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>20</v>
+        <v>254</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -1598,7 +1963,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -1614,7 +1979,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1662,12 +2027,12 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B72" t="s">
         <v>2</v>
@@ -1675,7 +2040,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -1683,127 +2048,127 @@
     </row>
     <row r="74" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B76" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B77" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>29</v>
+      </c>
+      <c r="B79" t="s">
         <v>32</v>
-      </c>
-      <c r="B79" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B80" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B81" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B82" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>39</v>
+        <v>255</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>20</v>
+        <v>254</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
@@ -1811,95 +2176,95 @@
     </row>
     <row r="90" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B92" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B94" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B95" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B96" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B99" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B101" t="s">
         <v>3</v>
@@ -1907,42 +2272,42 @@
     </row>
     <row r="102" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
-        <v>11</v>
+        <v>246</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
-        <v>11</v>
+        <v>246</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B104" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B105" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D106" t="b">
         <v>1</v>
@@ -1950,10 +2315,10 @@
     </row>
     <row r="107" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B107" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D107" t="b">
         <v>1</v>
@@ -1961,10 +2326,10 @@
     </row>
     <row r="108" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B108" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D108" t="b">
         <v>1</v>
@@ -1972,10 +2337,10 @@
     </row>
     <row r="109" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>39</v>
+        <v>255</v>
       </c>
       <c r="D109" t="b">
         <v>1</v>
@@ -1983,10 +2348,10 @@
     </row>
     <row r="110" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B110" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D110" t="b">
         <v>1</v>
@@ -1994,10 +2359,10 @@
     </row>
     <row r="111" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D111" t="b">
         <v>1</v>
@@ -2005,10 +2370,10 @@
     </row>
     <row r="112" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>20</v>
+        <v>254</v>
       </c>
       <c r="D112" t="b">
         <v>1</v>
@@ -2016,10 +2381,10 @@
     </row>
     <row r="113" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D113" t="b">
         <v>1</v>
@@ -2027,10 +2392,10 @@
     </row>
     <row r="114" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D114" t="b">
         <v>1</v>
@@ -2038,10 +2403,10 @@
     </row>
     <row r="115" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D115" t="b">
         <v>1</v>
@@ -2049,27 +2414,674 @@
     </row>
     <row r="116" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D116" t="b">
         <v>1</v>
       </c>
     </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>136</v>
+      </c>
+      <c r="B117" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>136</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>139</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>137</v>
+      </c>
+      <c r="B120" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>137</v>
+      </c>
+      <c r="B121" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>160</v>
+      </c>
+      <c r="B122" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>160</v>
+      </c>
+      <c r="B123" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>138</v>
+      </c>
+      <c r="B124" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>140</v>
+      </c>
+      <c r="B125" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>140</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>141</v>
+      </c>
+      <c r="B127" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>141</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>142</v>
+      </c>
+      <c r="B129" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>142</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>143</v>
+      </c>
+      <c r="B131" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>143</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>144</v>
+      </c>
+      <c r="B133" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>144</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>145</v>
+      </c>
+      <c r="B135" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>145</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>146</v>
+      </c>
+      <c r="B137" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>147</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>148</v>
+      </c>
+      <c r="B139" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>153</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>153</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>176</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>156</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>156</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>178</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>168</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>168</v>
+      </c>
+      <c r="B147" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>154</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>174</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>174</v>
+      </c>
+      <c r="B150" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>175</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>175</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>149</v>
+      </c>
+      <c r="B153" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>173</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>150</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>240</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>240</v>
+      </c>
+      <c r="B157" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>208</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>208</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>172</v>
+      </c>
+      <c r="B161" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>171</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>171</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>241</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>157</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>157</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>158</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>161</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>162</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>245</v>
+      </c>
+      <c r="B170" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>245</v>
+      </c>
+      <c r="B171" s="23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>163</v>
+      </c>
+      <c r="B172" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>242</v>
+      </c>
+      <c r="B173" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>223</v>
+      </c>
+      <c r="B174" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>169</v>
+      </c>
+      <c r="B175" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>169</v>
+      </c>
+      <c r="B176" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>164</v>
+      </c>
+      <c r="B177" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>167</v>
+      </c>
+      <c r="B178" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>248</v>
+      </c>
+      <c r="B179" s="23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>248</v>
+      </c>
+      <c r="B180" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>261</v>
+      </c>
+      <c r="B181" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>165</v>
+      </c>
+      <c r="B182" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>170</v>
+      </c>
+      <c r="B183" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>146</v>
+      </c>
+      <c r="B184" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>177</v>
+      </c>
+      <c r="B185" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>249</v>
+      </c>
+      <c r="B186" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>249</v>
+      </c>
+      <c r="B187" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>245</v>
+      </c>
+      <c r="B188" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>248</v>
+      </c>
+      <c r="B189" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>261</v>
+      </c>
+      <c r="B190" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>100</v>
+      </c>
+      <c r="B191" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>100</v>
+      </c>
+      <c r="B192" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>141</v>
+      </c>
+      <c r="B193" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>140</v>
+      </c>
+      <c r="B194" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B195" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B196" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>100</v>
+      </c>
+      <c r="B197" t="s">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C58" xr:uid="{A8322CDB-25C4-5444-B944-F0725C38DC11}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D721A325-FFE8-414B-B2EB-8286847F0276}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2081,28 +3093,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2125,10 +3137,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3">
@@ -2161,10 +3173,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3">
@@ -2179,13 +3191,13 @@
     </row>
     <row r="6" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>71</v>
+        <v>256</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D6" s="3">
         <v>9</v>
@@ -2196,10 +3208,10 @@
     </row>
     <row r="7" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="3">
@@ -2211,13 +3223,13 @@
     </row>
     <row r="8" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>11</v>
+        <v>246</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>65</v>
+        <v>258</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -2228,13 +3240,13 @@
     </row>
     <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -2245,13 +3257,13 @@
     </row>
     <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -2262,10 +3274,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3">
@@ -2277,10 +3289,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3">
@@ -2292,13 +3304,13 @@
     </row>
     <row r="13" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
@@ -2309,13 +3321,13 @@
     </row>
     <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D14" s="3">
         <v>2</v>
@@ -2326,10 +3338,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3">
@@ -2341,13 +3353,13 @@
     </row>
     <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D16" s="3">
         <v>3</v>
@@ -2358,13 +3370,13 @@
     </row>
     <row r="17" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D17" s="3">
         <v>3</v>
@@ -2375,13 +3387,13 @@
     </row>
     <row r="18" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
@@ -2407,13 +3419,13 @@
     </row>
     <row r="20" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>20</v>
+        <v>254</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>53</v>
+        <v>257</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D20" s="3">
         <v>4</v>
@@ -2424,13 +3436,13 @@
     </row>
     <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D21" s="3">
         <v>4</v>
@@ -2441,13 +3453,13 @@
     </row>
     <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D22" s="3">
         <v>4</v>
@@ -2458,13 +3470,13 @@
     </row>
     <row r="23" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D23" s="3">
         <v>4</v>
@@ -2475,13 +3487,13 @@
     </row>
     <row r="24" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D24" s="3">
         <v>4</v>
@@ -2510,10 +3522,10 @@
         <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D26" s="3">
         <v>5</v>
@@ -2527,10 +3539,10 @@
         <v>9</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D27" s="3">
         <v>5</v>
@@ -2541,13 +3553,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D28" s="3">
         <v>5</v>
@@ -2573,10 +3585,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3">
@@ -2588,13 +3600,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D31" s="3">
         <v>7</v>
@@ -2605,13 +3617,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D32" s="3">
         <v>7</v>
@@ -2622,13 +3634,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D33" s="3">
         <v>7</v>
@@ -2639,13 +3651,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D34" s="3">
         <v>7</v>
@@ -2656,13 +3668,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D35" s="3">
         <v>7</v>
@@ -2673,13 +3685,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D36" s="3">
         <v>7</v>
@@ -2690,13 +3702,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D37" s="3">
         <v>7</v>
@@ -2707,13 +3719,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D38" s="3">
         <v>7</v>
@@ -2724,13 +3736,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D39" s="3">
         <v>8</v>
@@ -2741,13 +3753,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D40" s="3">
         <v>8</v>
@@ -2758,13 +3770,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D41" s="3">
         <v>8</v>
@@ -2775,13 +3787,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D42" s="3">
         <v>8</v>
@@ -2792,13 +3804,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D43" s="3">
         <v>8</v>
@@ -2812,10 +3824,10 @@
         <v>7</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D44" s="3">
         <v>18</v>
@@ -2826,10 +3838,10 @@
     </row>
     <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3">
@@ -2845,10 +3857,10 @@
     </row>
     <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3">
@@ -2864,10 +3876,10 @@
     </row>
     <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3">
@@ -2883,13 +3895,13 @@
     </row>
     <row r="48" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D48" s="3">
         <v>20</v>
@@ -2904,10 +3916,10 @@
     </row>
     <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3">
@@ -2923,10 +3935,10 @@
     </row>
     <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3">
@@ -2942,10 +3954,10 @@
     </row>
     <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3">
@@ -2961,10 +3973,10 @@
     </row>
     <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3">
@@ -2980,13 +3992,13 @@
     </row>
     <row r="53" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>39</v>
+        <v>255</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D53" s="3">
         <v>20</v>
@@ -3001,13 +4013,13 @@
     </row>
     <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D54" s="3">
         <v>20</v>
@@ -3022,13 +4034,13 @@
     </row>
     <row r="55" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D55" s="3">
         <v>20</v>
@@ -3041,12 +4053,703 @@
       </c>
       <c r="G55" s="3"/>
     </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>160</v>
+      </c>
+      <c r="B59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" t="s">
+        <v>183</v>
+      </c>
+      <c r="D59" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>138</v>
+      </c>
+      <c r="B60" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" t="s">
+        <v>185</v>
+      </c>
+      <c r="D60" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>140</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D61" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D62" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>142</v>
+      </c>
+      <c r="B63" t="s">
+        <v>142</v>
+      </c>
+      <c r="D63" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>143</v>
+      </c>
+      <c r="B64" t="s">
+        <v>143</v>
+      </c>
+      <c r="D64" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>144</v>
+      </c>
+      <c r="B65" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" t="s">
+        <v>186</v>
+      </c>
+      <c r="D66" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" t="s">
+        <v>187</v>
+      </c>
+      <c r="D67" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>148</v>
+      </c>
+      <c r="B69" t="s">
+        <v>189</v>
+      </c>
+      <c r="C69" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" t="s">
+        <v>190</v>
+      </c>
+      <c r="C70" t="s">
+        <v>191</v>
+      </c>
+      <c r="D70" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>176</v>
+      </c>
+      <c r="B71" t="s">
+        <v>192</v>
+      </c>
+      <c r="C71" t="s">
+        <v>193</v>
+      </c>
+      <c r="D71" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>156</v>
+      </c>
+      <c r="B72" t="s">
+        <v>195</v>
+      </c>
+      <c r="C72" t="s">
+        <v>194</v>
+      </c>
+      <c r="D72" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>178</v>
+      </c>
+      <c r="B73" t="s">
+        <v>178</v>
+      </c>
+      <c r="D73" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>168</v>
+      </c>
+      <c r="B74" t="s">
+        <v>196</v>
+      </c>
+      <c r="C74" t="s">
+        <v>197</v>
+      </c>
+      <c r="D74" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>154</v>
+      </c>
+      <c r="B75" t="s">
+        <v>198</v>
+      </c>
+      <c r="C75" t="s">
+        <v>199</v>
+      </c>
+      <c r="D75" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>200</v>
+      </c>
+      <c r="B76" t="s">
+        <v>202</v>
+      </c>
+      <c r="C76" t="s">
+        <v>201</v>
+      </c>
+      <c r="D76" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>175</v>
+      </c>
+      <c r="B77" t="s">
+        <v>203</v>
+      </c>
+      <c r="C77" t="s">
+        <v>204</v>
+      </c>
+      <c r="D77" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" t="s">
+        <v>149</v>
+      </c>
+      <c r="D78" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>173</v>
+      </c>
+      <c r="B79" t="s">
+        <v>205</v>
+      </c>
+      <c r="C79" t="s">
+        <v>206</v>
+      </c>
+      <c r="D79" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>150</v>
+      </c>
+      <c r="B80" t="s">
+        <v>150</v>
+      </c>
+      <c r="D80" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>240</v>
+      </c>
+      <c r="B81" t="s">
+        <v>207</v>
+      </c>
+      <c r="C81" t="s">
+        <v>239</v>
+      </c>
+      <c r="D81" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D82" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>208</v>
+      </c>
+      <c r="B83" t="s">
+        <v>209</v>
+      </c>
+      <c r="C83" t="s">
+        <v>238</v>
+      </c>
+      <c r="D83" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>172</v>
+      </c>
+      <c r="B84" t="s">
+        <v>210</v>
+      </c>
+      <c r="C84" t="s">
+        <v>211</v>
+      </c>
+      <c r="D84" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85" t="s">
+        <v>243</v>
+      </c>
+      <c r="C85" t="s">
+        <v>212</v>
+      </c>
+      <c r="D85" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>241</v>
+      </c>
+      <c r="B86" t="s">
+        <v>241</v>
+      </c>
+      <c r="D86" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>157</v>
+      </c>
+      <c r="B87" t="s">
+        <v>213</v>
+      </c>
+      <c r="C87" t="s">
+        <v>214</v>
+      </c>
+      <c r="D87" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>152</v>
+      </c>
+      <c r="B88" t="s">
+        <v>152</v>
+      </c>
+      <c r="D88" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>161</v>
+      </c>
+      <c r="B89" t="s">
+        <v>215</v>
+      </c>
+      <c r="C89" t="s">
+        <v>216</v>
+      </c>
+      <c r="D89" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>162</v>
+      </c>
+      <c r="B90" t="s">
+        <v>217</v>
+      </c>
+      <c r="C90" t="s">
+        <v>216</v>
+      </c>
+      <c r="D90" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>245</v>
+      </c>
+      <c r="B91" t="s">
+        <v>218</v>
+      </c>
+      <c r="C91" t="s">
+        <v>259</v>
+      </c>
+      <c r="D91" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>163</v>
+      </c>
+      <c r="B92" t="s">
+        <v>221</v>
+      </c>
+      <c r="C92" t="s">
+        <v>219</v>
+      </c>
+      <c r="D92" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>159</v>
+      </c>
+      <c r="B93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C93" t="s">
+        <v>222</v>
+      </c>
+      <c r="D93" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>223</v>
+      </c>
+      <c r="B94" t="s">
+        <v>224</v>
+      </c>
+      <c r="C94" t="s">
+        <v>216</v>
+      </c>
+      <c r="D94" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>169</v>
+      </c>
+      <c r="B95" t="s">
+        <v>226</v>
+      </c>
+      <c r="C95" t="s">
+        <v>225</v>
+      </c>
+      <c r="D95" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>164</v>
+      </c>
+      <c r="B96" t="s">
+        <v>227</v>
+      </c>
+      <c r="C96" t="s">
+        <v>216</v>
+      </c>
+      <c r="D96" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>167</v>
+      </c>
+      <c r="B97" t="s">
+        <v>228</v>
+      </c>
+      <c r="C97" t="s">
+        <v>216</v>
+      </c>
+      <c r="D97" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>248</v>
+      </c>
+      <c r="B98" t="s">
+        <v>229</v>
+      </c>
+      <c r="C98" t="s">
+        <v>260</v>
+      </c>
+      <c r="D98" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>261</v>
+      </c>
+      <c r="B99" t="s">
+        <v>230</v>
+      </c>
+      <c r="C99" t="s">
+        <v>231</v>
+      </c>
+      <c r="D99" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>165</v>
+      </c>
+      <c r="B100" t="s">
+        <v>232</v>
+      </c>
+      <c r="C100" t="s">
+        <v>233</v>
+      </c>
+      <c r="D100" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>170</v>
+      </c>
+      <c r="B101" t="s">
+        <v>170</v>
+      </c>
+      <c r="D101" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>177</v>
+      </c>
+      <c r="B102" t="s">
+        <v>234</v>
+      </c>
+      <c r="C102" t="s">
+        <v>199</v>
+      </c>
+      <c r="D102" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>249</v>
+      </c>
+      <c r="B103" t="s">
+        <v>250</v>
+      </c>
+      <c r="C103" t="s">
+        <v>235</v>
+      </c>
+      <c r="D103" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C104" t="s">
+        <v>236</v>
+      </c>
+      <c r="D104" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C105" t="s">
+        <v>237</v>
+      </c>
+      <c r="D105" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>244</v>
+      </c>
+      <c r="B106" t="s">
+        <v>244</v>
+      </c>
+      <c r="D106" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>179</v>
+      </c>
+      <c r="B107" t="s">
+        <v>179</v>
+      </c>
+      <c r="D107" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>180</v>
+      </c>
+      <c r="B108" t="s">
+        <v>180</v>
+      </c>
+      <c r="D108" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>166</v>
+      </c>
+      <c r="B109" t="s">
+        <v>166</v>
+      </c>
+      <c r="D109" s="21">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G54" xr:uid="{D721A325-FFE8-414B-B2EB-8286847F0276}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G54">
-      <sortCondition ref="D2:D54"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schilder/Desktop/Ilona_thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33E67CE-B36E-F34D-94AD-C8328E28BCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678DAD37-8727-9746-B68E-7BC8CB29B1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35080" windowHeight="18520" activeTab="1" xr2:uid="{3843ECAF-FC15-3B44-AD26-4A902B2E57C4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{3843ECAF-FC15-3B44-AD26-4A902B2E57C4}"/>
   </bookViews>
   <sheets>
     <sheet name="edges" sheetId="1" r:id="rId1"/>
     <sheet name="nodes" sheetId="2" r:id="rId2"/>
+    <sheet name="dup_nodes" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">edges!$A$1:$C$58</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">nodes!$A$1:$G$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">nodes!$A$1:$J$112</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="259">
   <si>
     <t>from</t>
   </si>
@@ -104,10 +105,6 @@
 Wellcome Library</t>
   </si>
   <si>
-    <t>Lesley Hall, Historian and
-archivist Wellcome Library</t>
-  </si>
-  <si>
     <t xml:space="preserve">Amy Newton Actor </t>
   </si>
   <si>
@@ -134,10 +131,6 @@
   <si>
     <t xml:space="preserve">Luke Frost illustrator, 
 graphic designer and printmaker </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jack Czauderna 
-Chair Pioneer Health Foundation </t>
   </si>
   <si>
     <t>Henrietta Trotter 
@@ -202,9 +195,6 @@
 (member of the Pioneer Health Foundation)</t>
   </si>
   <si>
-    <t>Lesley Hall, Historian and archivist Wellcome Library</t>
-  </si>
-  <si>
     <t>Mike Keelin Colourist</t>
   </si>
   <si>
@@ -375,9 +365,6 @@
     <t>Jack Czauderna</t>
   </si>
   <si>
-    <t>Chair Pioneer Health Foundation</t>
-  </si>
-  <si>
     <t>Henrietta Trotter</t>
   </si>
   <si>
@@ -442,10 +429,6 @@
 graphic designer and printmaker</t>
   </si>
   <si>
-    <t>Jack Czauderna 
-Chair Pioneer Health Foundation</t>
-  </si>
-  <si>
     <t>Laura Wilson, Artist and Young People's Programme Manager</t>
   </si>
   <si>
@@ -461,9 +444,6 @@
     <t>Lighting and Camera in collaboration with Ilona Sagar</t>
   </si>
   <si>
-    <t xml:space="preserve">Writer and Editor, DoP and Director </t>
-  </si>
-  <si>
     <t>mult</t>
   </si>
   <si>
@@ -515,15 +495,9 @@
     <t>Arup Archives</t>
   </si>
   <si>
-    <t>Local Studies Library</t>
-  </si>
-  <si>
     <t>Sheffield Archives</t>
   </si>
   <si>
-    <t xml:space="preserve">University of Sheffield  </t>
-  </si>
-  <si>
     <t>Mark Dormer, Manager</t>
   </si>
   <si>
@@ -539,9 +513,6 @@
     <t>Theo Hanein, Research Associate in Materials Chemistry</t>
   </si>
   <si>
-    <t>University of Sheffield</t>
-  </si>
-  <si>
     <t xml:space="preserve">Adam Vaughan, Technician </t>
   </si>
   <si>
@@ -563,9 +534,6 @@
     <t>Rachael Duke, Production Manager</t>
   </si>
   <si>
-    <t>University College London</t>
-  </si>
-  <si>
     <t>Andrew Carberry, Runner</t>
   </si>
   <si>
@@ -581,16 +549,7 @@
     <t xml:space="preserve">Nick Bax, Director, Human Studio </t>
   </si>
   <si>
-    <t>David Bickie, Hawkins Brown (drawings)</t>
-  </si>
-  <si>
-    <t>Richard Syddall, Almuno (drawings)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greg Hardie, Project manager </t>
-  </si>
-  <si>
-    <t>Christopher Gibbs, Principal structural engineer Arup</t>
+    <t>Maggie Tyson, Archivists and librarian</t>
   </si>
   <si>
     <t>Breedon Hope Cement Works</t>
@@ -612,196 +571,106 @@
 Chair Pioneer Health Foundation and former GP Darnall GP surgery Sheffield (equal pay collective) and Darnall Wellbeing, a community health and wellbeing group</t>
   </si>
   <si>
+    <t>Space Syntax Laboratory, The Bartlett School of Architecture, University College London</t>
+  </si>
+  <si>
+    <t>Sheffield Local Studies Library</t>
+  </si>
+  <si>
+    <t>Pises Isarangkool Na Ayudthaya, Space Syntax analysis</t>
+  </si>
+  <si>
+    <t>Lauren Chandler</t>
+  </si>
+  <si>
+    <t>Vivienne Bell</t>
+  </si>
+  <si>
+    <t>Craig Rihoy</t>
+  </si>
+  <si>
+    <t>Sound Recordist</t>
+  </si>
+  <si>
+    <t>Ben Morris</t>
+  </si>
+  <si>
+    <t>Runner</t>
+  </si>
+  <si>
+    <t>Martha Wragg</t>
+  </si>
+  <si>
+    <t>Eleni Stavrou</t>
+  </si>
+  <si>
+    <t>Georgia Clipsham</t>
+  </si>
+  <si>
+    <t>Eleni Stavrou, Runner</t>
+  </si>
+  <si>
+    <t>Andrew Carberry</t>
+  </si>
+  <si>
+    <t>Alex Stagg</t>
+  </si>
+  <si>
+    <t>Camera Assistant</t>
+  </si>
+  <si>
+    <t>Rachael Duke</t>
+  </si>
+  <si>
+    <t>Production Manager</t>
+  </si>
+  <si>
+    <t>Laura Clarke</t>
+  </si>
+  <si>
+    <t>Curator and Producer</t>
+  </si>
+  <si>
+    <t>Elle Stocks</t>
+  </si>
+  <si>
+    <t>Assistant Curator</t>
+  </si>
+  <si>
+    <t>Jim Brouwer</t>
+  </si>
+  <si>
+    <t>AV Technician</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam Vaughan </t>
+  </si>
+  <si>
+    <t>Technician</t>
+  </si>
+  <si>
     <t>Dan Fleetwood</t>
   </si>
   <si>
     <t>CGI Animator</t>
   </si>
   <si>
-    <t>Craig Rihoy</t>
-  </si>
-  <si>
-    <t>Sound Recordist</t>
-  </si>
-  <si>
-    <t>Curator and Producer</t>
-  </si>
-  <si>
-    <t>Laura Clarke</t>
-  </si>
-  <si>
-    <t>Lauren Chandler</t>
-  </si>
-  <si>
-    <t>Vivienne Bell</t>
-  </si>
-  <si>
-    <t>Mark Dormer</t>
-  </si>
-  <si>
-    <t>Manager</t>
-  </si>
-  <si>
-    <t>Breedon Hope</t>
-  </si>
-  <si>
-    <t>Cement Works</t>
-  </si>
-  <si>
-    <t>Works Manager</t>
-  </si>
-  <si>
-    <t>Ed Cavanagh</t>
-  </si>
-  <si>
-    <t>Daniel Geddes</t>
-  </si>
-  <si>
-    <t>Postdoctoral Research Associate, Department of Materials Science and Engineering</t>
-  </si>
-  <si>
-    <t>Damien Gray</t>
-  </si>
-  <si>
-    <t>Camera Assistant</t>
-  </si>
-  <si>
-    <t>Greg Hardie, Project manager</t>
-  </si>
-  <si>
-    <t>Project manager</t>
-  </si>
-  <si>
-    <t>Greg Hardie</t>
-  </si>
-  <si>
-    <t>Christopher Gibbs</t>
-  </si>
-  <si>
-    <t>Principal structural engineer, Arup</t>
-  </si>
-  <si>
-    <t>Richard Syddall</t>
-  </si>
-  <si>
-    <t>Almuno (drawings)</t>
-  </si>
-  <si>
-    <t>Maggie Tyson</t>
-  </si>
-  <si>
-    <t>Tim Knebel, Archivists</t>
-  </si>
-  <si>
-    <t>Tim Knebel</t>
-  </si>
-  <si>
-    <t>David Bickie</t>
-  </si>
-  <si>
-    <t>Hawkins Brown (drawings)</t>
+    <t>Nick Bax</t>
   </si>
   <si>
     <t xml:space="preserve">Director, Human Studio </t>
   </si>
   <si>
+    <t>Human Studio</t>
+  </si>
+  <si>
     <t>Theo Hanein</t>
   </si>
   <si>
     <t>Research Associate in Materials Chemistry</t>
   </si>
   <si>
-    <t>Ben Morris</t>
-  </si>
-  <si>
-    <t>Runner</t>
-  </si>
-  <si>
-    <t>Martha Wragg</t>
-  </si>
-  <si>
     <t>John Provis</t>
-  </si>
-  <si>
-    <t>AV Technician</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adam Vaughan </t>
-  </si>
-  <si>
-    <t>Jim Brouwer</t>
-  </si>
-  <si>
-    <t>Technician</t>
-  </si>
-  <si>
-    <t>Eleni Stavrou, Runner</t>
-  </si>
-  <si>
-    <t>Eleni Stavrou</t>
-  </si>
-  <si>
-    <t>Assistant Curator</t>
-  </si>
-  <si>
-    <t>Elle Stocks</t>
-  </si>
-  <si>
-    <t>Georgia Clipsham</t>
-  </si>
-  <si>
-    <t>Andrew Carberry</t>
-  </si>
-  <si>
-    <t>Laura Vaughan</t>
-  </si>
-  <si>
-    <t>Alex Taylor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sociologist, The Centre for Human Computer Interaction Design, City University College London </t>
-  </si>
-  <si>
-    <t>Rachael Duke</t>
-  </si>
-  <si>
-    <t>Production Manager</t>
-  </si>
-  <si>
-    <t>Alex Stagg</t>
-  </si>
-  <si>
-    <t>Social and Cultural Historian, University of Lincoln</t>
-  </si>
-  <si>
-    <t>Chair Pioneer Health Foundation and former GP Darnall GP surgery Sheffield (equal pay collective) and Darnall Wellbeing, a community health and wellbeing group</t>
-  </si>
-  <si>
-    <t>Senior Lecturer in Architecture at Sheffield Hallam University, director of the UKs first Social Enterprise architecture practice, Studio Polpo</t>
-  </si>
-  <si>
-    <t>Archivists</t>
-  </si>
-  <si>
-    <t>Archivists and Librarian</t>
-  </si>
-  <si>
-    <t>Maggie Tyson, Archivists and Librarian</t>
-  </si>
-  <si>
-    <t>Human Studio</t>
-  </si>
-  <si>
-    <t>Adam Vaughan, Technician</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nick Bax, Director </t>
-  </si>
-  <si>
-    <t>Walking Tour with Dr. Helen Smith, Prof. John Provis &amp; Ilona Sagar</t>
-  </si>
-  <si>
-    <t>John Provis, Prof. of Cement Materials Science and Engineering</t>
   </si>
   <si>
     <t xml:space="preserve">Prof. Paul Fletcher, 
@@ -816,19 +685,40 @@
  University of Cambridge</t>
   </si>
   <si>
+    <t>John Provis, Prof. of Cement Materials Science and Engineering</t>
+  </si>
+  <si>
     <t>Laura Vaughan, Prof. of Urban Form and Society and the Director of the Space Syntax Laboratory, The Bartlett School of Architecture</t>
   </si>
   <si>
-    <t>Dr. Helen Smith, social and cultural historian, University of Lincoln</t>
-  </si>
-  <si>
-    <t>Dr. Helen Smith</t>
-  </si>
-  <si>
-    <t>Dr. Julia Udall, Senior Lecturer in Architecture at Sheffield Hallam University, director of the UKs first Social Enterprise architecture practice, Studio Polpo</t>
-  </si>
-  <si>
-    <t>Dr. Julia Udall</t>
+    <t>Bernard Wolfe Prof. of Health Neuroscience, University of Cambridge</t>
+  </si>
+  <si>
+    <t>Prof. of Cement Materials Science and Engineering</t>
+  </si>
+  <si>
+    <t>Daniel Geddes</t>
+  </si>
+  <si>
+    <t>Postdoctoral Research Associate, Department of Materials Science and Engineering</t>
+  </si>
+  <si>
+    <t>Laura Vaughan</t>
+  </si>
+  <si>
+    <t>Prof. of Urban Form and Society and the Director of the Space Syntax Laboratory, The Bartlett School of Architecture</t>
+  </si>
+  <si>
+    <t>Pises Isarangkool Na Ayudthaya</t>
+  </si>
+  <si>
+    <t>Space Syntax analysis</t>
+  </si>
+  <si>
+    <t>Chair Pioneer Health Foundation and former GP Darnall GP surgery Sheffield (equal pay collective) and Darnall Wellbeing, a community health and wellbeing group</t>
+  </si>
+  <si>
+    <t>Senior Lecturer in Architecture at Sheffield Hallam University, director of the UKs first Social Enterprise architecture practice, Studio Polpo</t>
   </si>
   <si>
     <t>Dr. Felicity Thomas
@@ -848,22 +738,121 @@
 Chancellor's Fellow University of Strathclyde</t>
   </si>
   <si>
+    <t>Dr. Helen Smith, social and cultural historian, University of Lincoln</t>
+  </si>
+  <si>
+    <t>Walking Tour with Dr. Helen Smith, Prof. John Provis &amp; Ilona Sagar</t>
+  </si>
+  <si>
+    <t>Dr. Julia Udall, Senior Lecturer in Architecture at Sheffield Hallam University, director of the UKs first Social Enterprise architecture practice, Studio Polpo</t>
+  </si>
+  <si>
     <t>Dr. Felicity Thomas</t>
   </si>
   <si>
     <t>Dr. Lisa Curtice</t>
   </si>
   <si>
-    <t>Bernard Wolfe Prof. of Health Neuroscience, University of Cambridge</t>
-  </si>
-  <si>
-    <t>Prof. of Cement Materials Science and Engineering</t>
-  </si>
-  <si>
-    <t>Prof. of Urban Form and Society and the Director of the Space Syntax Laboratory, The Bartlett School of Architecture</t>
-  </si>
-  <si>
-    <t>Alex Taylor, Sociologist, The Centre for Human Computer Interaction Design, City University College London</t>
+    <t>Dr. Julia Udall</t>
+  </si>
+  <si>
+    <t>Alex Taylor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex Taylor, Sociologist, The Centre for Human Computer Interaction Design, City University College London </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sociologist, The Centre for Human Computer Interaction Design, City University College London </t>
+  </si>
+  <si>
+    <t>Dr. Helen Smit</t>
+  </si>
+  <si>
+    <t>social and cultural historian, University of Lincoln</t>
+  </si>
+  <si>
+    <t>Tim Knebel, Archivists</t>
+  </si>
+  <si>
+    <t>Tim Knebel</t>
+  </si>
+  <si>
+    <t>Archivists</t>
+  </si>
+  <si>
+    <t>Maggie Tyson</t>
+  </si>
+  <si>
+    <t>Archivists and librarian</t>
+  </si>
+  <si>
+    <t>Christopher Gibbs</t>
+  </si>
+  <si>
+    <t>Christopher Gibbs, Principal Structural Engineer, Arup</t>
+  </si>
+  <si>
+    <t>Principal Structural Engineer, Arup</t>
+  </si>
+  <si>
+    <t>Greg Hardie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greg Hardie, Project Manager </t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>Mark Dormer</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Ed Cavanag</t>
+  </si>
+  <si>
+    <t>Works Manager</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>Writer and Editor, DoP and Director</t>
+  </si>
+  <si>
+    <t>Department of Materials Science and Engineering, University of Sheffield</t>
+  </si>
+  <si>
+    <t>Damien Gray</t>
+  </si>
+  <si>
+    <t>Richard Syddall</t>
+  </si>
+  <si>
+    <t>Richard Syddall, Drawings, Almuno</t>
+  </si>
+  <si>
+    <t>Drawings, Almuno</t>
+  </si>
+  <si>
+    <t>David Bickie</t>
+  </si>
+  <si>
+    <t>David Bickie, Drawings, Hawkins Brown</t>
+  </si>
+  <si>
+    <t>Drawings, Hawkins Brown</t>
+  </si>
+  <si>
+    <t>subcluster_name</t>
+  </si>
+  <si>
+    <t>cluster_name</t>
+  </si>
+  <si>
+    <t>Lesley Hall, Historian and Archivist, Wellcome Library</t>
   </si>
 </sst>
 </file>
@@ -894,7 +883,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -991,8 +980,62 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1026,11 +1069,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1093,14 +1149,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1419,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8322CDB-25C4-5444-B944-F0725C38DC11}">
   <dimension ref="A1:D197"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="137" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="137" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1437,10 +1551,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1448,7 +1562,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -1470,7 +1584,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -1514,7 +1628,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -1536,7 +1650,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -1558,12 +1672,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1571,7 +1685,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1579,7 +1693,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1587,7 +1701,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1603,7 +1717,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1611,7 +1725,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1619,7 +1733,7 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1627,7 +1741,7 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1635,7 +1749,7 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1643,7 +1757,7 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1651,7 +1765,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1659,7 +1773,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1667,7 +1781,7 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1675,7 +1789,7 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1683,7 +1797,7 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1691,7 +1805,7 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1699,7 +1813,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1707,7 +1821,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -1715,7 +1829,7 @@
         <v>6</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -1728,7 +1842,7 @@
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>5</v>
@@ -1739,7 +1853,7 @@
         <v>11</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -1771,7 +1885,7 @@
         <v>14</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -1790,25 +1904,25 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>17</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>16</v>
@@ -1816,7 +1930,7 @@
     </row>
     <row r="45" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>15</v>
@@ -1824,34 +1938,34 @@
     </row>
     <row r="46" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>181</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -1859,7 +1973,7 @@
         <v>3</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -1867,7 +1981,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -1875,7 +1989,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -1883,7 +1997,7 @@
         <v>3</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -1891,7 +2005,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -1899,7 +2013,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -1910,12 +2024,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -1963,7 +2077,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -1979,7 +2093,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -2027,12 +2141,12 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B72" t="s">
         <v>2</v>
@@ -2040,7 +2154,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -2048,127 +2162,127 @@
     </row>
     <row r="74" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" t="s">
         <v>29</v>
-      </c>
-      <c r="B75" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B77" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B79" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B80" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B82" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
@@ -2176,138 +2290,141 @@
     </row>
     <row r="90" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B91" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B92" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B94" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B95" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B96" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>38</v>
-      </c>
-      <c r="B98" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>38</v>
-      </c>
-      <c r="B99" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="B98" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A99" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A101" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B101" t="s">
-        <v>3</v>
+        <v>258</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A101" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A103" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="B103" s="12" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A103" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B103" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B104" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B105" t="s">
-        <v>114</v>
+        <v>34</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D105" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>125</v>
+        <v>34</v>
+      </c>
+      <c r="B106" t="s">
+        <v>30</v>
       </c>
       <c r="D106" t="b">
         <v>1</v>
@@ -2315,7 +2432,7 @@
     </row>
     <row r="107" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B107" t="s">
         <v>32</v>
@@ -2326,10 +2443,10 @@
     </row>
     <row r="108" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B108" t="s">
         <v>34</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="D108" t="b">
         <v>1</v>
@@ -2337,10 +2454,10 @@
     </row>
     <row r="109" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>255</v>
+        <v>34</v>
+      </c>
+      <c r="B109" t="s">
+        <v>33</v>
       </c>
       <c r="D109" t="b">
         <v>1</v>
@@ -2348,32 +2465,32 @@
     </row>
     <row r="110" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B110" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D110" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>30</v>
+        <v>218</v>
       </c>
       <c r="D111" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>254</v>
+        <v>124</v>
       </c>
       <c r="D112" t="b">
         <v>1</v>
@@ -2381,10 +2498,10 @@
     </row>
     <row r="113" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="D113" t="b">
         <v>1</v>
@@ -2392,10 +2509,10 @@
     </row>
     <row r="114" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D114" t="b">
         <v>1</v>
@@ -2403,685 +2520,684 @@
     </row>
     <row r="115" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D115" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A116" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D116" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>130</v>
+      </c>
+      <c r="B116" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>136</v>
-      </c>
-      <c r="B117" t="s">
-        <v>139</v>
+        <v>130</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>139</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>38</v>
+        <v>131</v>
+      </c>
+      <c r="B119" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B120" t="s">
-        <v>139</v>
+        <v>36</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="B121" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B122" t="s">
-        <v>38</v>
+        <v>199</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="B123" t="s">
-        <v>241</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>134</v>
+      </c>
+      <c r="B124" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>134</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>135</v>
+      </c>
+      <c r="B126" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>135</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>136</v>
+      </c>
+      <c r="B128" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>136</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>137</v>
+      </c>
+      <c r="B130" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>138</v>
       </c>
-      <c r="B124" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+      <c r="B132" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>138</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>139</v>
+      </c>
+      <c r="B134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>139</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>140</v>
       </c>
-      <c r="B125" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>140</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+      <c r="B136" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>141</v>
       </c>
-      <c r="B127" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>141</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+      <c r="B137" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>142</v>
       </c>
-      <c r="B129" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>142</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>143</v>
-      </c>
-      <c r="B131" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>143</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>144</v>
-      </c>
-      <c r="B133" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>144</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+      <c r="B138" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>145</v>
       </c>
-      <c r="B135" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>145</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>146</v>
-      </c>
-      <c r="B137" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>147</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>148</v>
-      </c>
-      <c r="B139" t="s">
-        <v>38</v>
+      <c r="B139" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>176</v>
+        <v>36</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>176</v>
+        <v>36</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>168</v>
-      </c>
-      <c r="B146" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B146" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>168</v>
-      </c>
-      <c r="B147" t="s">
-        <v>38</v>
+        <v>146</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>154</v>
+        <v>240</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>174</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="B149" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>174</v>
-      </c>
-      <c r="B150" t="s">
-        <v>149</v>
+        <v>237</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>175</v>
+        <v>237</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>175</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+      <c r="B152" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>149</v>
-      </c>
-      <c r="B153" t="s">
-        <v>38</v>
+        <v>251</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>240</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>240</v>
-      </c>
-      <c r="B157" t="s">
-        <v>150</v>
+        <v>162</v>
+      </c>
+      <c r="B156" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A158" s="2" t="s">
-        <v>151</v>
+      <c r="A158" t="s">
+        <v>231</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>208</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+      <c r="B160" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>172</v>
-      </c>
-      <c r="B161" t="s">
-        <v>38</v>
+        <v>161</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>241</v>
+        <v>36</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>38</v>
+        <v>248</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>157</v>
+        <v>248</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>158</v>
+        <v>36</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>162</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+      <c r="B169" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>245</v>
-      </c>
-      <c r="B170" s="23" t="s">
-        <v>38</v>
+        <v>205</v>
+      </c>
+      <c r="B170" s="22" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>245</v>
-      </c>
-      <c r="B171" s="23" t="s">
-        <v>158</v>
+        <v>154</v>
+      </c>
+      <c r="B171" s="22" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>163</v>
-      </c>
-      <c r="B172" s="23" t="s">
-        <v>38</v>
+        <v>150</v>
+      </c>
+      <c r="B172" s="22" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>242</v>
-      </c>
-      <c r="B173" s="23" t="s">
-        <v>38</v>
+        <v>181</v>
+      </c>
+      <c r="B173" s="22" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>223</v>
-      </c>
-      <c r="B174" s="23" t="s">
-        <v>38</v>
+        <v>159</v>
+      </c>
+      <c r="B174" s="22" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>169</v>
-      </c>
-      <c r="B175" s="23" t="s">
-        <v>38</v>
+        <v>159</v>
+      </c>
+      <c r="B175" s="22" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>169</v>
-      </c>
-      <c r="B176" s="23" t="s">
-        <v>170</v>
+        <v>155</v>
+      </c>
+      <c r="B176" s="22" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>164</v>
-      </c>
-      <c r="B177" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+      <c r="B177" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>167</v>
-      </c>
-      <c r="B178" s="23" t="s">
-        <v>38</v>
+        <v>206</v>
+      </c>
+      <c r="B178" s="22" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>248</v>
-      </c>
-      <c r="B179" s="23" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="B179" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>248</v>
-      </c>
-      <c r="B180" s="23" t="s">
-        <v>38</v>
+        <v>227</v>
+      </c>
+      <c r="B180" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>261</v>
+        <v>156</v>
       </c>
       <c r="B181" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B182" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="B183" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="B184" t="s">
-        <v>170</v>
+        <v>36</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>177</v>
+        <v>220</v>
       </c>
       <c r="B185" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="B186" t="s">
-        <v>38</v>
+        <v>221</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
       <c r="B187" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="B188" t="s">
-        <v>244</v>
+        <v>166</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="B189" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>261</v>
+        <v>97</v>
       </c>
       <c r="B190" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B191" t="s">
-        <v>179</v>
+        <v>36</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
+        <v>135</v>
+      </c>
+      <c r="B192" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>134</v>
+      </c>
+      <c r="B193" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B192" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>141</v>
-      </c>
-      <c r="B193" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>140</v>
-      </c>
       <c r="B194" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>181</v>
+        <v>222</v>
       </c>
       <c r="B195" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A196" s="2" t="s">
-        <v>251</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>97</v>
       </c>
       <c r="B196" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>100</v>
-      </c>
-      <c r="B197" t="s">
-        <v>180</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D197" s="23"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C58" xr:uid="{A8322CDB-25C4-5444-B944-F0725C38DC11}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D721A325-FFE8-414B-B2EB-8286847F0276}">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A14" zoomScale="112" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3089,35 +3205,43 @@
     <col min="1" max="1" width="57" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="45.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>135</v>
+        <v>257</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -3128,381 +3252,515 @@
       <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>246</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3">
         <v>0</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>246</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>246</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="3"/>
+    <row r="5" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3">
         <v>10</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="3">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="3">
         <v>2</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="3">
         <v>2</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="3">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="3">
-        <v>2</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="3">
-        <v>2</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="3">
-        <v>3</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="3">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3">
-        <v>4</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="3">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="3">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>104</v>
       </c>
       <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3">
         <v>4</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="3">
         <v>4</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>107</v>
-      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3"/>
       <c r="D24" s="3">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F24" s="3">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>4</v>
       </c>
@@ -3511,64 +3769,96 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="3">
         <v>5</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="3">
         <v>5</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="3">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="3">
         <v>5</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="3">
-        <v>5</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>5</v>
       </c>
@@ -3577,1179 +3867,1979 @@
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="3">
         <v>5</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3">
-        <v>6</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="3">
+        <v>6</v>
+      </c>
       <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="3">
+        <v>7</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="3">
+        <v>7</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="C33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="3">
         <v>7</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="s">
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="3">
+        <v>7</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="3">
+        <v>7</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="3">
+        <v>7</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="3">
+        <v>7</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="3">
+        <v>7</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="3">
+        <v>8</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="3">
+        <v>8</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="3">
-        <v>7</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="B41" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="3">
-        <v>7</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="3">
-        <v>7</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="3">
-        <v>7</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" s="3">
-        <v>7</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="3">
-        <v>7</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D38" s="3">
-        <v>7</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="3">
+        <v>8</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="3">
+      <c r="C42" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="3">
         <v>8</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="3" t="s">
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="3">
+      <c r="C43" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="3">
         <v>8</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" s="3">
-        <v>8</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" s="3">
-        <v>8</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" s="3">
-        <v>8</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D44" s="3">
-        <v>18</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="3">
+        <v>9</v>
+      </c>
       <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3">
-        <v>20</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1</v>
-      </c>
-      <c r="F45" s="3" t="b">
+        <v>2</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" s="3">
         <v>1</v>
       </c>
       <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H45" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3">
-        <v>20</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3" t="b">
+        <v>2</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="3">
         <v>1</v>
       </c>
       <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H46" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3">
-        <v>20</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1</v>
-      </c>
-      <c r="F47" s="3" t="b">
+        <v>2</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="3">
         <v>1</v>
       </c>
       <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="H47" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="3">
+        <v>2</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D48" s="3">
-        <v>20</v>
-      </c>
-      <c r="E48" s="3">
-        <v>2</v>
-      </c>
-      <c r="F48" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="s">
-        <v>32</v>
-      </c>
       <c r="B49" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3">
-        <v>20</v>
-      </c>
-      <c r="E49" s="3">
         <v>2</v>
       </c>
-      <c r="F49" s="3" t="b">
-        <v>1</v>
+      <c r="E49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="3">
+        <v>2</v>
       </c>
       <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H49" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3">
-        <v>20</v>
-      </c>
-      <c r="E50" s="3">
         <v>2</v>
       </c>
-      <c r="F50" s="3" t="b">
-        <v>1</v>
+      <c r="E50" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" s="3">
+        <v>2</v>
       </c>
       <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H50" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3">
-        <v>20</v>
-      </c>
-      <c r="E51" s="3">
         <v>2</v>
       </c>
-      <c r="F51" s="3" t="b">
-        <v>1</v>
+      <c r="E51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="3">
+        <v>2</v>
       </c>
       <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H51" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3">
-        <v>20</v>
-      </c>
-      <c r="E52" s="3">
         <v>2</v>
       </c>
-      <c r="F52" s="3" t="b">
-        <v>1</v>
+      <c r="E52" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2</v>
       </c>
       <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="H52" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" s="3">
+        <v>2</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" s="3">
+        <v>2</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="3">
+        <v>2</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A55" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="3">
+        <v>2</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="3">
+        <v>2</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B56" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D56" s="3">
+        <v>3</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="B57" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D57" s="3">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="B58" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D53" s="3">
-        <v>20</v>
-      </c>
-      <c r="E53" s="3">
+      <c r="D58" s="3">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" s="3">
         <v>2</v>
       </c>
-      <c r="F53" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D54" s="3">
-        <v>20</v>
-      </c>
-      <c r="E54" s="3">
-        <v>2</v>
-      </c>
-      <c r="F54" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A55" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D55" s="3">
-        <v>20</v>
-      </c>
-      <c r="E55" s="3">
-        <v>2</v>
-      </c>
-      <c r="F55" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="G58" s="3"/>
+      <c r="H58" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="24"/>
+      <c r="D59" s="3">
+        <v>3</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F59" s="44">
+        <v>3</v>
+      </c>
+      <c r="G59" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" s="24"/>
+      <c r="D60" s="3">
+        <v>3</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" s="44">
+        <v>3</v>
+      </c>
+      <c r="G60" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="24"/>
+      <c r="D61" s="3">
+        <v>3</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" s="44">
+        <v>3</v>
+      </c>
+      <c r="G61" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="24"/>
+      <c r="D62" s="3">
+        <v>3</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F62" s="44">
+        <v>3</v>
+      </c>
+      <c r="G62" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="24"/>
+      <c r="D63" s="3">
+        <v>3</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F63" s="44">
+        <v>3</v>
+      </c>
+      <c r="G63" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="24"/>
+      <c r="D64" s="3">
+        <v>3</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F64" s="44">
+        <v>3</v>
+      </c>
+      <c r="G64" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" s="24"/>
+      <c r="D65" s="3">
+        <v>3</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F65" s="44">
+        <v>3</v>
+      </c>
+      <c r="G65" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" s="24"/>
+      <c r="D66" s="3">
+        <v>3</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F66" s="44">
+        <v>3</v>
+      </c>
+      <c r="G66" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B67" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="D56" s="21">
+      <c r="C67" s="24"/>
+      <c r="D67" s="3">
+        <v>3</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F67" s="44">
+        <v>3</v>
+      </c>
+      <c r="G67" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D68" s="3">
+        <v>3</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F68" s="44">
+        <v>4</v>
+      </c>
+      <c r="G68" s="43"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D69" s="3">
+        <v>3</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F69" s="44">
+        <v>4</v>
+      </c>
+      <c r="G69" s="43"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="D70" s="3">
+        <v>3</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F70" s="44">
+        <v>4</v>
+      </c>
+      <c r="G70" s="43"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D71" s="3">
+        <v>3</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F71" s="44">
+        <v>4</v>
+      </c>
+      <c r="G71" s="43"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D72" s="3">
+        <v>3</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F72" s="44">
+        <v>4</v>
+      </c>
+      <c r="G72" s="43"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D73" s="3">
+        <v>3</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F73" s="44">
+        <v>4</v>
+      </c>
+      <c r="G73" s="43"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D74" s="3">
+        <v>3</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F74" s="44">
+        <v>4</v>
+      </c>
+      <c r="G74" s="43"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D75" s="3">
+        <v>3</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F75" s="44">
+        <v>4</v>
+      </c>
+      <c r="G75" s="43"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="D76" s="3">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F76" s="44">
+        <v>4</v>
+      </c>
+      <c r="G76" s="43"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B77" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="D77" s="3">
+        <v>3</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F77" s="44">
+        <v>4</v>
+      </c>
+      <c r="G77" s="43"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78" s="26"/>
+      <c r="D78" s="3">
+        <v>3</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F78" s="44">
+        <v>5</v>
+      </c>
+      <c r="G78" s="26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D79" s="3">
+        <v>3</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F79" s="44">
+        <v>5</v>
+      </c>
+      <c r="G79" s="26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="D80" s="3">
+        <v>3</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F80" s="44">
+        <v>5</v>
+      </c>
+      <c r="G80" s="27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="D81" s="3">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F81" s="44">
+        <v>5</v>
+      </c>
+      <c r="G81" s="27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C82" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="D82" s="3">
+        <v>3</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F82" s="44">
+        <v>5</v>
+      </c>
+      <c r="G82" s="27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B83" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="C83" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="D83" s="3">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F83" s="44">
+        <v>5</v>
+      </c>
+      <c r="G83" s="28" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="B84" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C84" s="28"/>
+      <c r="D84" s="3">
+        <v>3</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F84" s="44">
+        <v>5</v>
+      </c>
+      <c r="G84" s="29" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B85" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C85" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D85" s="3">
+        <v>3</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F85" s="44">
+        <v>5</v>
+      </c>
+      <c r="G85" s="29" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A86" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B86" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="C86" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="D86" s="3">
+        <v>3</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F86" s="44">
+        <v>6</v>
+      </c>
+      <c r="G86" s="31" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A87" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="B87" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C87" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="D87" s="3">
+        <v>3</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F87" s="44">
+        <v>6</v>
+      </c>
+      <c r="G87" s="32" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A88" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="B88" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="C88" s="30"/>
+      <c r="D88" s="3">
+        <v>3</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F88" s="44">
+        <v>6</v>
+      </c>
+      <c r="G88" s="31" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A89" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B89" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="C89" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="D89" s="3">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F89" s="44">
+        <v>6</v>
+      </c>
+      <c r="G89" s="31" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A90" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B90" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="C90" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="D90" s="3">
+        <v>3</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F90" s="44">
+        <v>7</v>
+      </c>
+      <c r="G90" s="34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A91" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B91" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C91" s="33"/>
+      <c r="D91" s="3">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F91" s="44">
+        <v>7</v>
+      </c>
+      <c r="G91" s="34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A92" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="B92" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="C92" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="D92" s="3">
+        <v>3</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F92" s="44">
+        <v>7</v>
+      </c>
+      <c r="G92" s="35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="B93" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C93" s="37"/>
+      <c r="D93" s="3">
+        <v>3</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F93">
+        <v>8</v>
+      </c>
+      <c r="G93" s="37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A94" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="B94" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="C94" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="D94" s="3">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F94">
+        <v>8</v>
+      </c>
+      <c r="G94" s="37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="B95" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C95" s="37"/>
+      <c r="D95" s="3">
+        <v>3</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F95">
+        <v>8</v>
+      </c>
+      <c r="G95" s="37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="B96" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C96" s="37"/>
+      <c r="D96" s="3">
+        <v>3</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F96">
+        <v>8</v>
+      </c>
+      <c r="G96" s="37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="B97" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="C97" s="38"/>
+      <c r="D97" s="3">
+        <v>3</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F97">
+        <v>9</v>
+      </c>
+      <c r="G97" s="38" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="B98" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="C98" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="D98" s="3">
+        <v>3</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F98">
+        <v>9</v>
+      </c>
+      <c r="G98" s="38" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="B99" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="C99" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="D99" s="3">
+        <v>3</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F99">
+        <v>9</v>
+      </c>
+      <c r="G99" s="38" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="B100" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="C100" s="39"/>
+      <c r="D100" s="3">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F100">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="B57" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="D57" s="21">
+      <c r="G100" s="39" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="B101" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="C101" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="D101" s="3">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F101">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>137</v>
-      </c>
-      <c r="B58" t="s">
-        <v>137</v>
-      </c>
-      <c r="D58" s="25">
+      <c r="G101" s="39" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="B102" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="C102" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="D102" s="3">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F102">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>160</v>
-      </c>
-      <c r="B59" t="s">
-        <v>182</v>
-      </c>
-      <c r="C59" t="s">
-        <v>183</v>
-      </c>
-      <c r="D59" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>138</v>
-      </c>
-      <c r="B60" t="s">
-        <v>184</v>
-      </c>
-      <c r="C60" t="s">
-        <v>185</v>
-      </c>
-      <c r="D60" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>140</v>
-      </c>
-      <c r="B61" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="D61" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>141</v>
-      </c>
-      <c r="B62" t="s">
-        <v>141</v>
-      </c>
-      <c r="D62" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>142</v>
-      </c>
-      <c r="B63" t="s">
-        <v>142</v>
-      </c>
-      <c r="D63" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="G102" s="39" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A103" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="B103" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="C103" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="D103" s="3">
+        <v>3</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F103">
+        <v>11</v>
+      </c>
+      <c r="G103" s="41" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="B104" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="C104" s="40"/>
+      <c r="D104" s="3">
+        <v>3</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F104">
+        <v>11</v>
+      </c>
+      <c r="G104" s="40" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="B105" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="C105" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="D105" s="3">
+        <v>3</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F105">
+        <v>12</v>
+      </c>
+      <c r="G105" s="42" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B106" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="C106" s="42"/>
+      <c r="D106" s="3">
+        <v>3</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F106">
+        <v>12</v>
+      </c>
+      <c r="G106" s="42" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="B107" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="C107" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="D107" s="3">
+        <v>3</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F107">
+        <v>13</v>
+      </c>
+      <c r="G107" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="B64" t="s">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="B108" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="C108" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="D108" s="3">
+        <v>3</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F108">
+        <v>13</v>
+      </c>
+      <c r="G108" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="D64" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>144</v>
-      </c>
-      <c r="B65" t="s">
-        <v>144</v>
-      </c>
-      <c r="D65" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B109" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C109" s="30"/>
+      <c r="D109" s="3">
+        <v>3</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F109">
+        <v>13</v>
+      </c>
+      <c r="G109" s="30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A110" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="B66" t="s">
-        <v>145</v>
-      </c>
-      <c r="C66" t="s">
-        <v>186</v>
-      </c>
-      <c r="D66" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>146</v>
-      </c>
-      <c r="B67" t="s">
-        <v>187</v>
-      </c>
-      <c r="D67" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>147</v>
-      </c>
-      <c r="B68" t="s">
-        <v>188</v>
-      </c>
-      <c r="C68" t="s">
-        <v>86</v>
-      </c>
-      <c r="D68" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="B110" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="C110" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="D110" s="3">
+        <v>3</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F110">
+        <v>14</v>
+      </c>
+      <c r="G110" s="35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A111" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B111" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="C111" s="33"/>
+      <c r="D111" s="3">
+        <v>3</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F111">
+        <v>14</v>
+      </c>
+      <c r="G111" s="35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A112" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="B69" t="s">
-        <v>189</v>
-      </c>
-      <c r="C69" t="s">
-        <v>86</v>
-      </c>
-      <c r="D69" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>153</v>
-      </c>
-      <c r="B70" t="s">
-        <v>190</v>
-      </c>
-      <c r="C70" t="s">
-        <v>191</v>
-      </c>
-      <c r="D70" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>176</v>
-      </c>
-      <c r="B71" t="s">
-        <v>192</v>
-      </c>
-      <c r="C71" t="s">
-        <v>193</v>
-      </c>
-      <c r="D71" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>156</v>
-      </c>
-      <c r="B72" t="s">
-        <v>195</v>
-      </c>
-      <c r="C72" t="s">
-        <v>194</v>
-      </c>
-      <c r="D72" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>178</v>
-      </c>
-      <c r="B73" t="s">
-        <v>178</v>
-      </c>
-      <c r="D73" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>168</v>
-      </c>
-      <c r="B74" t="s">
-        <v>196</v>
-      </c>
-      <c r="C74" t="s">
-        <v>197</v>
-      </c>
-      <c r="D74" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>154</v>
-      </c>
-      <c r="B75" t="s">
-        <v>198</v>
-      </c>
-      <c r="C75" t="s">
-        <v>199</v>
-      </c>
-      <c r="D75" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>200</v>
-      </c>
-      <c r="B76" t="s">
-        <v>202</v>
-      </c>
-      <c r="C76" t="s">
-        <v>201</v>
-      </c>
-      <c r="D76" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>175</v>
-      </c>
-      <c r="B77" t="s">
-        <v>203</v>
-      </c>
-      <c r="C77" t="s">
-        <v>204</v>
-      </c>
-      <c r="D77" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>149</v>
-      </c>
-      <c r="B78" t="s">
-        <v>149</v>
-      </c>
-      <c r="D78" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>173</v>
-      </c>
-      <c r="B79" t="s">
-        <v>205</v>
-      </c>
-      <c r="C79" t="s">
-        <v>206</v>
-      </c>
-      <c r="D79" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>150</v>
-      </c>
-      <c r="B80" t="s">
-        <v>150</v>
-      </c>
-      <c r="D80" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>240</v>
-      </c>
-      <c r="B81" t="s">
-        <v>207</v>
-      </c>
-      <c r="C81" t="s">
-        <v>239</v>
-      </c>
-      <c r="D81" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D82" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>208</v>
-      </c>
-      <c r="B83" t="s">
-        <v>209</v>
-      </c>
-      <c r="C83" t="s">
-        <v>238</v>
-      </c>
-      <c r="D83" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>172</v>
-      </c>
-      <c r="B84" t="s">
-        <v>210</v>
-      </c>
-      <c r="C84" t="s">
-        <v>211</v>
-      </c>
-      <c r="D84" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>171</v>
-      </c>
-      <c r="B85" t="s">
-        <v>243</v>
-      </c>
-      <c r="C85" t="s">
-        <v>212</v>
-      </c>
-      <c r="D85" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>241</v>
-      </c>
-      <c r="B86" t="s">
-        <v>241</v>
-      </c>
-      <c r="D86" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>157</v>
-      </c>
-      <c r="B87" t="s">
-        <v>213</v>
-      </c>
-      <c r="C87" t="s">
-        <v>214</v>
-      </c>
-      <c r="D87" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>152</v>
-      </c>
-      <c r="B88" t="s">
-        <v>152</v>
-      </c>
-      <c r="D88" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>161</v>
-      </c>
-      <c r="B89" t="s">
-        <v>215</v>
-      </c>
-      <c r="C89" t="s">
-        <v>216</v>
-      </c>
-      <c r="D89" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>162</v>
-      </c>
-      <c r="B90" t="s">
-        <v>217</v>
-      </c>
-      <c r="C90" t="s">
-        <v>216</v>
-      </c>
-      <c r="D90" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="B112" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C112" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="B91" t="s">
-        <v>218</v>
-      </c>
-      <c r="C91" t="s">
-        <v>259</v>
-      </c>
-      <c r="D91" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="D112" s="3">
+        <v>3</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F112">
+        <v>14</v>
+      </c>
+      <c r="G112" s="35" t="s">
         <v>163</v>
-      </c>
-      <c r="B92" t="s">
-        <v>221</v>
-      </c>
-      <c r="C92" t="s">
-        <v>219</v>
-      </c>
-      <c r="D92" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>159</v>
-      </c>
-      <c r="B93" t="s">
-        <v>220</v>
-      </c>
-      <c r="C93" t="s">
-        <v>222</v>
-      </c>
-      <c r="D93" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>223</v>
-      </c>
-      <c r="B94" t="s">
-        <v>224</v>
-      </c>
-      <c r="C94" t="s">
-        <v>216</v>
-      </c>
-      <c r="D94" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>169</v>
-      </c>
-      <c r="B95" t="s">
-        <v>226</v>
-      </c>
-      <c r="C95" t="s">
-        <v>225</v>
-      </c>
-      <c r="D95" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>164</v>
-      </c>
-      <c r="B96" t="s">
-        <v>227</v>
-      </c>
-      <c r="C96" t="s">
-        <v>216</v>
-      </c>
-      <c r="D96" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>167</v>
-      </c>
-      <c r="B97" t="s">
-        <v>228</v>
-      </c>
-      <c r="C97" t="s">
-        <v>216</v>
-      </c>
-      <c r="D97" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>248</v>
-      </c>
-      <c r="B98" t="s">
-        <v>229</v>
-      </c>
-      <c r="C98" t="s">
-        <v>260</v>
-      </c>
-      <c r="D98" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>261</v>
-      </c>
-      <c r="B99" t="s">
-        <v>230</v>
-      </c>
-      <c r="C99" t="s">
-        <v>231</v>
-      </c>
-      <c r="D99" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>165</v>
-      </c>
-      <c r="B100" t="s">
-        <v>232</v>
-      </c>
-      <c r="C100" t="s">
-        <v>233</v>
-      </c>
-      <c r="D100" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>170</v>
-      </c>
-      <c r="B101" t="s">
-        <v>170</v>
-      </c>
-      <c r="D101" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>177</v>
-      </c>
-      <c r="B102" t="s">
-        <v>234</v>
-      </c>
-      <c r="C102" t="s">
-        <v>199</v>
-      </c>
-      <c r="D102" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>249</v>
-      </c>
-      <c r="B103" t="s">
-        <v>250</v>
-      </c>
-      <c r="C103" t="s">
-        <v>235</v>
-      </c>
-      <c r="D103" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C104" t="s">
-        <v>236</v>
-      </c>
-      <c r="D104" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C105" t="s">
-        <v>237</v>
-      </c>
-      <c r="D105" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>244</v>
-      </c>
-      <c r="B106" t="s">
-        <v>244</v>
-      </c>
-      <c r="D106" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>179</v>
-      </c>
-      <c r="B107" t="s">
-        <v>179</v>
-      </c>
-      <c r="D107" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>180</v>
-      </c>
-      <c r="B108" t="s">
-        <v>180</v>
-      </c>
-      <c r="D108" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>166</v>
-      </c>
-      <c r="B109" t="s">
-        <v>166</v>
-      </c>
-      <c r="D109" s="21">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722EB0FF-1C38-5740-8B65-B7696B1AF154}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="49">
+        <v>3</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="50">
+        <v>8</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schilder/Desktop/Ilona_thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678DAD37-8727-9746-B68E-7BC8CB29B1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EB6597-039A-194F-A366-CDD5DD522322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{3843ECAF-FC15-3B44-AD26-4A902B2E57C4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{3843ECAF-FC15-3B44-AD26-4A902B2E57C4}"/>
   </bookViews>
   <sheets>
     <sheet name="edges" sheetId="1" r:id="rId1"/>
@@ -79,11 +79,6 @@
     <t xml:space="preserve">Self-Service </t>
   </si>
   <si>
-    <t>Department of Neurology
-The Behaviour and Health Research Unit 
-University of Cambridge</t>
-  </si>
-  <si>
     <t>Kelly Diederen 
 Postdoctoral Research Associate</t>
   </si>
@@ -853,6 +848,11 @@
   </si>
   <si>
     <t>Lesley Hall, Historian and Archivist, Wellcome Library</t>
+  </si>
+  <si>
+    <t>Department of Neurology,
+The Behaviour and Health Research Unit,
+University of Cambridge</t>
   </si>
 </sst>
 </file>
@@ -1533,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8322CDB-25C4-5444-B944-F0725C38DC11}">
   <dimension ref="A1:D197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="137" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView topLeftCell="A34" zoomScale="137" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1551,10 +1551,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1562,7 +1562,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -1595,7 +1595,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>258</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -1639,7 +1639,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -1661,7 +1661,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1669,7 +1669,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1677,7 +1677,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1685,7 +1685,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1693,7 +1693,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1701,7 +1701,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1717,7 +1717,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1725,7 +1725,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1733,7 +1733,7 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1741,7 +1741,7 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1749,7 +1749,7 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1757,7 +1757,7 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1765,7 +1765,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1773,7 +1773,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1781,7 +1781,7 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1789,7 +1789,7 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1797,7 +1797,7 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1805,7 +1805,7 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1813,7 +1813,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1821,7 +1821,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -1829,7 +1829,7 @@
         <v>6</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -1842,7 +1842,7 @@
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>5</v>
@@ -1850,114 +1850,114 @@
     </row>
     <row r="35" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="2" t="s">
+    </row>
+    <row r="37" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="2" t="s">
+    <row r="38" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -1965,7 +1965,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -1973,7 +1973,7 @@
         <v>3</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -1981,7 +1981,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -1989,7 +1989,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -1997,7 +1997,7 @@
         <v>3</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2005,7 +2005,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2013,7 +2013,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2026,10 +2026,10 @@
     </row>
     <row r="57" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2077,7 +2077,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -2093,7 +2093,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -2141,12 +2141,12 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B72" t="s">
         <v>2</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -2162,127 +2162,127 @@
     </row>
     <row r="74" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>26</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
@@ -2290,87 +2290,87 @@
     </row>
     <row r="90" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B91" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B94" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B95" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B98" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B100" t="s">
         <v>3</v>
@@ -2378,42 +2378,42 @@
     </row>
     <row r="101" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A101" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B103" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D105" t="b">
         <v>1</v>
@@ -2421,10 +2421,10 @@
     </row>
     <row r="106" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D106" t="b">
         <v>1</v>
@@ -2432,10 +2432,10 @@
     </row>
     <row r="107" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D107" t="b">
         <v>1</v>
@@ -2443,10 +2443,10 @@
     </row>
     <row r="108" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D108" t="b">
         <v>1</v>
@@ -2454,10 +2454,10 @@
     </row>
     <row r="109" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D109" t="b">
         <v>1</v>
@@ -2465,10 +2465,10 @@
     </row>
     <row r="110" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D110" t="b">
         <v>1</v>
@@ -2476,10 +2476,10 @@
     </row>
     <row r="111" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D111" t="b">
         <v>1</v>
@@ -2487,10 +2487,10 @@
     </row>
     <row r="112" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D112" t="b">
         <v>1</v>
@@ -2498,10 +2498,10 @@
     </row>
     <row r="113" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D113" t="b">
         <v>1</v>
@@ -2509,10 +2509,10 @@
     </row>
     <row r="114" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D114" t="b">
         <v>1</v>
@@ -2520,10 +2520,10 @@
     </row>
     <row r="115" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D115" t="b">
         <v>1</v>
@@ -2531,658 +2531,658 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B116" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B119" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B122" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B124" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B126" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B128" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B132" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B134" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B149" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B156" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B160" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B169" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B170" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B171" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B172" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B173" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B174" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>158</v>
+      </c>
+      <c r="B175" s="22" t="s">
         <v>159</v>
-      </c>
-      <c r="B175" s="22" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B176" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B177" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B178" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B179" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B180" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B181" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B182" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B183" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B184" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B185" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>219</v>
+      </c>
+      <c r="B186" t="s">
         <v>220</v>
-      </c>
-      <c r="B186" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B187" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B188" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B189" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B190" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B191" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B192" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B193" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B194" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B195" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B196" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D197" s="23"/>
     </row>
@@ -3196,8 +3196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D721A325-FFE8-414B-B2EB-8286847F0276}">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="112" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3211,34 +3211,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -3265,17 +3265,17 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -3287,17 +3287,17 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -3309,13 +3309,13 @@
     </row>
     <row r="5" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -3332,10 +3332,10 @@
     </row>
     <row r="6" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>258</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>258</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="3">
@@ -3353,13 +3353,13 @@
     </row>
     <row r="7" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -3376,13 +3376,13 @@
     </row>
     <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -3399,13 +3399,13 @@
     </row>
     <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -3422,10 +3422,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
@@ -3443,10 +3443,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3">
@@ -3464,13 +3464,13 @@
     </row>
     <row r="12" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -3487,13 +3487,13 @@
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -3510,10 +3510,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3">
@@ -3531,13 +3531,13 @@
     </row>
     <row r="15" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -3554,13 +3554,13 @@
     </row>
     <row r="16" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -3577,13 +3577,13 @@
     </row>
     <row r="17" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -3621,13 +3621,13 @@
     </row>
     <row r="19" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -3644,13 +3644,13 @@
     </row>
     <row r="20" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -3667,13 +3667,13 @@
     </row>
     <row r="21" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -3690,13 +3690,13 @@
     </row>
     <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -3713,13 +3713,13 @@
     </row>
     <row r="23" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -3746,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F24" s="3">
         <v>5</v>
@@ -3788,10 +3788,10 @@
         <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
@@ -3813,10 +3813,10 @@
         <v>9</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -3835,13 +3835,13 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -3883,10 +3883,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3">
@@ -3904,13 +3904,13 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -3926,13 +3926,13 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -3949,13 +3949,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
@@ -3972,13 +3972,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -3995,13 +3995,13 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -4018,13 +4018,13 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
@@ -4041,13 +4041,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
@@ -4064,13 +4064,13 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -4087,13 +4087,13 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
@@ -4110,13 +4110,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
@@ -4133,13 +4133,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D41" s="3">
         <v>1</v>
@@ -4156,13 +4156,13 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D42" s="3">
         <v>1</v>
@@ -4179,13 +4179,13 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D43" s="3">
         <v>1</v>
@@ -4205,10 +4205,10 @@
         <v>7</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="D44" s="3">
         <v>1</v>
@@ -4225,17 +4225,17 @@
     </row>
     <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3">
         <v>2</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F45" s="3">
         <v>1</v>
@@ -4248,17 +4248,17 @@
     </row>
     <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3">
         <v>2</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F46" s="3">
         <v>1</v>
@@ -4271,17 +4271,17 @@
     </row>
     <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3">
         <v>2</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F47" s="3">
         <v>1</v>
@@ -4294,19 +4294,19 @@
     </row>
     <row r="48" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="D48" s="3">
         <v>2</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F48" s="3">
         <v>2</v>
@@ -4319,17 +4319,17 @@
     </row>
     <row r="49" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3">
         <v>2</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F49" s="3">
         <v>2</v>
@@ -4342,17 +4342,17 @@
     </row>
     <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3">
         <v>2</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F50" s="3">
         <v>2</v>
@@ -4365,17 +4365,17 @@
     </row>
     <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3">
         <v>2</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F51" s="3">
         <v>2</v>
@@ -4388,17 +4388,17 @@
     </row>
     <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3">
         <v>2</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F52" s="3">
         <v>2</v>
@@ -4411,19 +4411,19 @@
     </row>
     <row r="53" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="D53" s="3">
         <v>2</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F53" s="3">
         <v>2</v>
@@ -4436,19 +4436,19 @@
     </row>
     <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="D54" s="3">
         <v>2</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F54" s="3">
         <v>2</v>
@@ -4461,19 +4461,19 @@
     </row>
     <row r="55" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B55" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="D55" s="3">
         <v>2</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F55" s="3">
         <v>2</v>
@@ -4486,19 +4486,19 @@
     </row>
     <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B56" s="45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D56" s="3">
         <v>3</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -4509,19 +4509,19 @@
     </row>
     <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="B57" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B57" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>252</v>
-      </c>
       <c r="D57" s="3">
         <v>3</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -4532,19 +4532,19 @@
     </row>
     <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="B58" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B58" s="45" t="s">
-        <v>253</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>255</v>
-      </c>
       <c r="D58" s="3">
         <v>3</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F58" s="3">
         <v>2</v>
@@ -4557,208 +4557,208 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C59" s="24"/>
       <c r="D59" s="3">
         <v>3</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F59" s="44">
         <v>3</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C60" s="24"/>
       <c r="D60" s="3">
         <v>3</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F60" s="44">
         <v>3</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C61" s="24"/>
       <c r="D61" s="3">
         <v>3</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F61" s="44">
         <v>3</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C62" s="24"/>
       <c r="D62" s="3">
         <v>3</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F62" s="44">
         <v>3</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C63" s="24"/>
       <c r="D63" s="3">
         <v>3</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F63" s="44">
         <v>3</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C64" s="24"/>
       <c r="D64" s="3">
         <v>3</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F64" s="44">
         <v>3</v>
       </c>
       <c r="G64" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="24"/>
       <c r="D65" s="3">
         <v>3</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F65" s="44">
         <v>3</v>
       </c>
       <c r="G65" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C66" s="24"/>
       <c r="D66" s="3">
         <v>3</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F66" s="44">
         <v>3</v>
       </c>
       <c r="G66" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C67" s="24"/>
       <c r="D67" s="3">
         <v>3</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F67" s="44">
         <v>3</v>
       </c>
       <c r="G67" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D68" s="3">
         <v>3</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F68" s="44">
         <v>4</v>
@@ -4767,19 +4767,19 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D69" s="3">
         <v>3</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F69" s="44">
         <v>4</v>
@@ -4788,19 +4788,19 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B70" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C70" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="C70" s="25" t="s">
-        <v>175</v>
-      </c>
       <c r="D70" s="3">
         <v>3</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F70" s="44">
         <v>4</v>
@@ -4809,19 +4809,19 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B71" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="C71" s="25" t="s">
-        <v>177</v>
-      </c>
       <c r="D71" s="3">
         <v>3</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F71" s="44">
         <v>4</v>
@@ -4830,19 +4830,19 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D72" s="3">
         <v>3</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F72" s="44">
         <v>4</v>
@@ -4851,19 +4851,19 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D73" s="3">
         <v>3</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F73" s="44">
         <v>4</v>
@@ -4872,19 +4872,19 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D74" s="3">
         <v>3</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F74" s="44">
         <v>4</v>
@@ -4893,19 +4893,19 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D75" s="3">
         <v>3</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F75" s="44">
         <v>4</v>
@@ -4914,19 +4914,19 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B76" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C76" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="C76" s="25" t="s">
-        <v>184</v>
-      </c>
       <c r="D76" s="3">
         <v>3</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F76" s="44">
         <v>4</v>
@@ -4935,19 +4935,19 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B77" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C77" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="C77" s="25" t="s">
-        <v>186</v>
-      </c>
       <c r="D77" s="3">
         <v>3</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F77" s="44">
         <v>4</v>
@@ -4956,781 +4956,781 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C78" s="26"/>
       <c r="D78" s="3">
         <v>3</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F78" s="44">
         <v>5</v>
       </c>
       <c r="G78" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B79" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="C79" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="C79" s="26" t="s">
-        <v>188</v>
-      </c>
       <c r="D79" s="3">
         <v>3</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F79" s="44">
         <v>5</v>
       </c>
       <c r="G79" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B80" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C80" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="C80" s="26" t="s">
-        <v>190</v>
-      </c>
       <c r="D80" s="3">
         <v>3</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F80" s="44">
         <v>5</v>
       </c>
       <c r="G80" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B81" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C81" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="C81" s="26" t="s">
-        <v>192</v>
-      </c>
       <c r="D81" s="3">
         <v>3</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F81" s="44">
         <v>5</v>
       </c>
       <c r="G81" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B82" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C82" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="C82" s="26" t="s">
-        <v>194</v>
-      </c>
       <c r="D82" s="3">
         <v>3</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F82" s="44">
         <v>5</v>
       </c>
       <c r="G82" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B83" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C83" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="C83" s="28" t="s">
-        <v>196</v>
-      </c>
       <c r="D83" s="3">
         <v>3</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F83" s="44">
         <v>5</v>
       </c>
       <c r="G83" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B84" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C84" s="28"/>
       <c r="D84" s="3">
         <v>3</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F84" s="44">
         <v>5</v>
       </c>
       <c r="G84" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B85" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="C85" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="C85" s="28" t="s">
-        <v>198</v>
-      </c>
       <c r="D85" s="3">
         <v>3</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F85" s="44">
         <v>5</v>
       </c>
       <c r="G85" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A86" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B86" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="C86" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="C86" s="30" t="s">
-        <v>201</v>
-      </c>
       <c r="D86" s="3">
         <v>3</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F86" s="44">
         <v>6</v>
       </c>
       <c r="G86" s="31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A87" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C87" s="30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D87" s="3">
         <v>3</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F87" s="44">
         <v>6</v>
       </c>
       <c r="G87" s="32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A88" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C88" s="30"/>
       <c r="D88" s="3">
         <v>3</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F88" s="44">
         <v>6</v>
       </c>
       <c r="G88" s="31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A89" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B89" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="C89" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="C89" s="30" t="s">
-        <v>210</v>
-      </c>
       <c r="D89" s="3">
         <v>3</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F89" s="44">
         <v>6</v>
       </c>
       <c r="G89" s="31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A90" s="33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B90" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="C90" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="C90" s="33" t="s">
-        <v>212</v>
-      </c>
       <c r="D90" s="3">
         <v>3</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F90" s="44">
         <v>7</v>
       </c>
       <c r="G90" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A91" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B91" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C91" s="33"/>
       <c r="D91" s="3">
         <v>3</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F91" s="44">
         <v>7</v>
       </c>
       <c r="G91" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A92" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B92" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C92" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="C92" s="33" t="s">
-        <v>214</v>
-      </c>
       <c r="D92" s="3">
         <v>3</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F92" s="44">
         <v>7</v>
       </c>
       <c r="G92" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B93" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C93" s="37"/>
       <c r="D93" s="3">
         <v>3</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F93">
         <v>8</v>
       </c>
       <c r="G93" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A94" s="36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B94" s="36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D94" s="3">
         <v>3</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F94">
         <v>8</v>
       </c>
       <c r="G94" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B95" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C95" s="37"/>
       <c r="D95" s="3">
         <v>3</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F95">
         <v>8</v>
       </c>
       <c r="G95" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B96" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C96" s="37"/>
       <c r="D96" s="3">
         <v>3</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F96">
         <v>8</v>
       </c>
       <c r="G96" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B97" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C97" s="38"/>
       <c r="D97" s="3">
         <v>3</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F97">
         <v>9</v>
       </c>
       <c r="G97" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B98" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="C98" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="C98" s="38" t="s">
-        <v>212</v>
-      </c>
       <c r="D98" s="3">
         <v>3</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F98">
         <v>9</v>
       </c>
       <c r="G98" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="B99" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="C99" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="B99" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="C99" s="38" t="s">
-        <v>228</v>
-      </c>
       <c r="D99" s="3">
         <v>3</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F99">
         <v>9</v>
       </c>
       <c r="G99" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B100" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C100" s="39"/>
       <c r="D100" s="3">
         <v>3</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F100">
         <v>10</v>
       </c>
       <c r="G100" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B101" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="C101" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="C101" s="39" t="s">
-        <v>230</v>
-      </c>
       <c r="D101" s="3">
         <v>3</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F101">
         <v>10</v>
       </c>
       <c r="G101" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B102" s="39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C102" s="39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D102" s="3">
         <v>3</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F102">
         <v>10</v>
       </c>
       <c r="G102" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="B103" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="B103" s="40" t="s">
+      <c r="C103" s="40" t="s">
         <v>232</v>
       </c>
-      <c r="C103" s="40" t="s">
-        <v>233</v>
-      </c>
       <c r="D103" s="3">
         <v>3</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F103">
         <v>11</v>
       </c>
       <c r="G103" s="41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B104" s="40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C104" s="40"/>
       <c r="D104" s="3">
         <v>3</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F104">
         <v>11</v>
       </c>
       <c r="G104" s="40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B105" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="C105" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="C105" s="42" t="s">
-        <v>235</v>
-      </c>
       <c r="D105" s="3">
         <v>3</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F105">
         <v>12</v>
       </c>
       <c r="G105" s="42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B106" s="42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C106" s="42"/>
       <c r="D106" s="3">
         <v>3</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F106">
         <v>12</v>
       </c>
       <c r="G106" s="42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="B107" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="C107" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="B107" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="C107" s="30" t="s">
-        <v>238</v>
-      </c>
       <c r="D107" s="3">
         <v>3</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F107">
         <v>13</v>
       </c>
       <c r="G107" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="B108" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="C108" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="B108" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="C108" s="30" t="s">
-        <v>241</v>
-      </c>
       <c r="D108" s="3">
         <v>3</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F108">
         <v>13</v>
       </c>
       <c r="G108" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B109" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C109" s="30"/>
       <c r="D109" s="3">
         <v>3</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F109">
         <v>13</v>
       </c>
       <c r="G109" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B110" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="C110" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="C110" s="33" t="s">
-        <v>243</v>
-      </c>
       <c r="D110" s="3">
         <v>3</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F110">
         <v>14</v>
       </c>
       <c r="G110" s="35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A111" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B111" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C111" s="33"/>
       <c r="D111" s="3">
         <v>3</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F111">
         <v>14</v>
       </c>
       <c r="G111" s="35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A112" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B112" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="C112" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="C112" s="33" t="s">
-        <v>245</v>
-      </c>
       <c r="D112" s="3">
         <v>3</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F112">
         <v>14</v>
       </c>
       <c r="G112" s="35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -5762,57 +5762,57 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I1" s="52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J1" s="53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D2" s="49">
         <v>3</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="50">
         <v>8</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
@@ -5820,23 +5820,23 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="3">
         <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3">
         <v>9</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schilder/Desktop/Ilona_thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EB6597-039A-194F-A366-CDD5DD522322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6096174-8179-6548-B2DB-987EF0AB344D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{3843ECAF-FC15-3B44-AD26-4A902B2E57C4}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="258">
   <si>
     <t>from</t>
   </si>
@@ -90,11 +90,6 @@
     <t>Wellcome Collection</t>
   </si>
   <si>
-    <t>Angela Saward Archivist
-Research Development Specialist 
-(Moving Image &amp; Sound)</t>
-  </si>
-  <si>
     <t>Ross Macfarlane 
 Research Engagement Officer 
 Wellcome Library</t>
@@ -242,12 +237,6 @@
   </si>
   <si>
     <t>Director of the Wellcome Centre for Cultures &amp; Environments of Health, WHO Collaborating Centre for Culture and Health, University of Exeter</t>
-  </si>
-  <si>
-    <t>Angela Saward Archivist</t>
-  </si>
-  <si>
-    <t>Research Development Specialist, Moving Image &amp; Sound</t>
   </si>
   <si>
     <t>Ross Macfarlane</t>
@@ -853,6 +842,12 @@
     <t>Department of Neurology,
 The Behaviour and Health Research Unit,
 University of Cambridge</t>
+  </si>
+  <si>
+    <t>Angela Saward</t>
+  </si>
+  <si>
+    <t>Archivist, Research Development Specialist, Moving Image &amp; Sound</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1081,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1192,12 +1187,6 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1533,8 +1522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8322CDB-25C4-5444-B944-F0725C38DC11}">
   <dimension ref="A1:D197"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="137" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="A36" zoomScale="137" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1551,10 +1540,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1562,7 +1551,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -1584,7 +1573,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -1595,7 +1584,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -1628,7 +1617,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -1650,18 +1639,18 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1669,7 +1658,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1677,7 +1666,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1685,7 +1674,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1693,7 +1682,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1701,7 +1690,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1717,7 +1706,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1725,7 +1714,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1733,7 +1722,7 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1741,7 +1730,7 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1749,7 +1738,7 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1757,7 +1746,7 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1765,7 +1754,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1773,7 +1762,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1781,7 +1770,7 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1789,7 +1778,7 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1797,7 +1786,7 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1805,7 +1794,7 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1813,7 +1802,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1821,7 +1810,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -1829,7 +1818,7 @@
         <v>6</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -1842,7 +1831,7 @@
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>5</v>
@@ -1850,15 +1839,15 @@
     </row>
     <row r="35" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>11</v>
@@ -1866,7 +1855,7 @@
     </row>
     <row r="37" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>12</v>
@@ -1874,7 +1863,7 @@
     </row>
     <row r="38" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>13</v>
@@ -1885,15 +1874,15 @@
         <v>13</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>14</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -1901,7 +1890,7 @@
         <v>13</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -1909,55 +1898,55 @@
         <v>13</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>14</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -1965,7 +1954,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -1973,7 +1962,7 @@
         <v>3</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -1981,7 +1970,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -1989,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -1997,7 +1986,7 @@
         <v>3</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2005,7 +1994,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2013,7 +2002,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2026,10 +2015,10 @@
     </row>
     <row r="57" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2077,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -2093,7 +2082,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -2141,12 +2130,12 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B72" t="s">
         <v>2</v>
@@ -2154,7 +2143,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -2162,127 +2151,127 @@
     </row>
     <row r="74" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B76" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B77" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
@@ -2290,87 +2279,87 @@
     </row>
     <row r="90" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B94" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B95" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B98" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B100" t="s">
         <v>3</v>
@@ -2378,7 +2367,7 @@
     </row>
     <row r="101" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A101" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B101" s="12" t="s">
         <v>11</v>
@@ -2386,56 +2375,56 @@
     </row>
     <row r="102" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B102" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B103" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B104" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D105" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B106" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D106" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D107" t="b">
         <v>1</v>
@@ -2443,32 +2432,32 @@
     </row>
     <row r="108" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D108" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B109" t="s">
+        <v>31</v>
+      </c>
+      <c r="D109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A110" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D109" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A110" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="B110" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D110" t="b">
         <v>1</v>
@@ -2476,32 +2465,32 @@
     </row>
     <row r="111" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D111" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D112" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D113" t="b">
         <v>1</v>
@@ -2509,21 +2498,21 @@
     </row>
     <row r="114" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D114" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D115" t="b">
         <v>1</v>
@@ -2531,658 +2520,658 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>126</v>
+      </c>
+      <c r="B116" t="s">
         <v>129</v>
-      </c>
-      <c r="B116" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B119" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B121" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B122" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B123" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B126" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B128" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B146" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B149" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B152" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B160" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B169" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B170" s="22" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B171" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B172" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B173" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B174" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B175" s="22" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B176" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B177" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B178" s="22" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B179" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B180" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B181" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B182" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B183" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B184" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B185" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B186" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B187" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B188" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B189" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B190" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B191" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B192" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B193" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B194" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B195" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B196" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D197" s="23"/>
     </row>
@@ -3196,8 +3185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D721A325-FFE8-414B-B2EB-8286847F0276}">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="112" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3211,34 +3200,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="J1" s="21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3253,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -3265,17 +3254,17 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -3287,17 +3276,17 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -3309,13 +3298,13 @@
     </row>
     <row r="5" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -3332,10 +3321,10 @@
     </row>
     <row r="6" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="3">
@@ -3353,13 +3342,13 @@
     </row>
     <row r="7" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -3379,10 +3368,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -3402,10 +3391,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -3443,10 +3432,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3">
@@ -3462,15 +3451,15 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>14</v>
+        <v>256</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>62</v>
+        <v>256</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>63</v>
+        <v>257</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -3487,13 +3476,13 @@
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -3510,10 +3499,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3">
@@ -3531,13 +3520,13 @@
     </row>
     <row r="15" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -3554,13 +3543,13 @@
     </row>
     <row r="16" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -3577,13 +3566,13 @@
     </row>
     <row r="17" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -3621,13 +3610,13 @@
     </row>
     <row r="19" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -3644,13 +3633,13 @@
     </row>
     <row r="20" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -3667,13 +3656,13 @@
     </row>
     <row r="21" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -3690,13 +3679,13 @@
     </row>
     <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -3713,13 +3702,13 @@
     </row>
     <row r="23" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -3746,7 +3735,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F24" s="3">
         <v>5</v>
@@ -3788,10 +3777,10 @@
         <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
@@ -3813,10 +3802,10 @@
         <v>9</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -3835,13 +3824,13 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -3883,10 +3872,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3">
@@ -3904,13 +3893,13 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -3926,13 +3915,13 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -3949,13 +3938,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
@@ -3972,13 +3961,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -3995,13 +3984,13 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -4018,13 +4007,13 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
@@ -4041,13 +4030,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="C37" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
@@ -4064,13 +4053,13 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -4087,13 +4076,13 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
@@ -4110,13 +4099,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
@@ -4133,13 +4122,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D41" s="3">
         <v>1</v>
@@ -4156,13 +4145,13 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D42" s="3">
         <v>1</v>
@@ -4179,13 +4168,13 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D43" s="3">
         <v>1</v>
@@ -4205,10 +4194,10 @@
         <v>7</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D44" s="3">
         <v>1</v>
@@ -4225,17 +4214,17 @@
     </row>
     <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3">
         <v>2</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F45" s="3">
         <v>1</v>
@@ -4248,17 +4237,17 @@
     </row>
     <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3">
         <v>2</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F46" s="3">
         <v>1</v>
@@ -4271,17 +4260,17 @@
     </row>
     <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3">
         <v>2</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F47" s="3">
         <v>1</v>
@@ -4294,19 +4283,19 @@
     </row>
     <row r="48" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D48" s="3">
         <v>2</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F48" s="3">
         <v>2</v>
@@ -4319,17 +4308,17 @@
     </row>
     <row r="49" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3">
         <v>2</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F49" s="3">
         <v>2</v>
@@ -4342,17 +4331,17 @@
     </row>
     <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3">
         <v>2</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F50" s="3">
         <v>2</v>
@@ -4365,17 +4354,17 @@
     </row>
     <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3">
         <v>2</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F51" s="3">
         <v>2</v>
@@ -4388,17 +4377,17 @@
     </row>
     <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3">
         <v>2</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F52" s="3">
         <v>2</v>
@@ -4411,19 +4400,19 @@
     </row>
     <row r="53" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D53" s="3">
         <v>2</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F53" s="3">
         <v>2</v>
@@ -4436,19 +4425,19 @@
     </row>
     <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D54" s="3">
         <v>2</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F54" s="3">
         <v>2</v>
@@ -4461,19 +4450,19 @@
     </row>
     <row r="55" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B55" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="D55" s="3">
         <v>2</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F55" s="3">
         <v>2</v>
@@ -4485,20 +4474,20 @@
       <c r="I55" s="3"/>
     </row>
     <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="B56" s="45" t="s">
-        <v>248</v>
+      <c r="A56" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>245</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D56" s="3">
         <v>3</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -4508,20 +4497,20 @@
       <c r="I56" s="3"/>
     </row>
     <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="B57" s="45" t="s">
-        <v>249</v>
+      <c r="A57" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D57" s="3">
         <v>3</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -4531,20 +4520,20 @@
       <c r="I57" s="3"/>
     </row>
     <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="45" t="s">
-        <v>253</v>
-      </c>
-      <c r="B58" s="45" t="s">
-        <v>252</v>
+      <c r="A58" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D58" s="3">
         <v>3</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F58" s="3">
         <v>2</v>
@@ -4557,1180 +4546,1180 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C59" s="24"/>
       <c r="D59" s="3">
         <v>3</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F59" s="44">
+        <v>34</v>
+      </c>
+      <c r="F59" s="21">
         <v>3</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C60" s="24"/>
       <c r="D60" s="3">
         <v>3</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F60" s="44">
+        <v>34</v>
+      </c>
+      <c r="F60" s="21">
         <v>3</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="24" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C61" s="24"/>
       <c r="D61" s="3">
         <v>3</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F61" s="44">
+        <v>34</v>
+      </c>
+      <c r="F61" s="21">
         <v>3</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C62" s="24"/>
       <c r="D62" s="3">
         <v>3</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F62" s="44">
+        <v>34</v>
+      </c>
+      <c r="F62" s="21">
         <v>3</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C63" s="24"/>
       <c r="D63" s="3">
         <v>3</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F63" s="44">
+        <v>34</v>
+      </c>
+      <c r="F63" s="21">
         <v>3</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C64" s="24"/>
       <c r="D64" s="3">
         <v>3</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F64" s="44">
+        <v>34</v>
+      </c>
+      <c r="F64" s="21">
         <v>3</v>
       </c>
       <c r="G64" s="24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C65" s="24"/>
       <c r="D65" s="3">
         <v>3</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F65" s="44">
+        <v>34</v>
+      </c>
+      <c r="F65" s="21">
         <v>3</v>
       </c>
       <c r="G65" s="24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="24" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C66" s="24"/>
       <c r="D66" s="3">
         <v>3</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F66" s="44">
+        <v>34</v>
+      </c>
+      <c r="F66" s="21">
         <v>3</v>
       </c>
       <c r="G66" s="24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C67" s="24"/>
       <c r="D67" s="3">
         <v>3</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F67" s="44">
+        <v>34</v>
+      </c>
+      <c r="F67" s="21">
         <v>3</v>
       </c>
       <c r="G67" s="24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D68" s="3">
         <v>3</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F68" s="44">
+        <v>34</v>
+      </c>
+      <c r="F68" s="21">
         <v>4</v>
       </c>
       <c r="G68" s="43"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D69" s="3">
         <v>3</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F69" s="44">
+        <v>34</v>
+      </c>
+      <c r="F69" s="21">
         <v>4</v>
       </c>
       <c r="G69" s="43"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="25" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D70" s="3">
         <v>3</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F70" s="44">
+        <v>34</v>
+      </c>
+      <c r="F70" s="21">
         <v>4</v>
       </c>
       <c r="G70" s="43"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="25" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D71" s="3">
         <v>3</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F71" s="44">
+        <v>34</v>
+      </c>
+      <c r="F71" s="21">
         <v>4</v>
       </c>
       <c r="G71" s="43"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="25" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D72" s="3">
         <v>3</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F72" s="44">
+        <v>34</v>
+      </c>
+      <c r="F72" s="21">
         <v>4</v>
       </c>
       <c r="G72" s="43"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="25" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D73" s="3">
         <v>3</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F73" s="44">
+        <v>34</v>
+      </c>
+      <c r="F73" s="21">
         <v>4</v>
       </c>
       <c r="G73" s="43"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D74" s="3">
         <v>3</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F74" s="44">
+        <v>34</v>
+      </c>
+      <c r="F74" s="21">
         <v>4</v>
       </c>
       <c r="G74" s="43"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D75" s="3">
         <v>3</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F75" s="44">
+        <v>34</v>
+      </c>
+      <c r="F75" s="21">
         <v>4</v>
       </c>
       <c r="G75" s="43"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D76" s="3">
         <v>3</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F76" s="44">
+        <v>34</v>
+      </c>
+      <c r="F76" s="21">
         <v>4</v>
       </c>
       <c r="G76" s="43"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D77" s="3">
         <v>3</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F77" s="44">
+        <v>34</v>
+      </c>
+      <c r="F77" s="21">
         <v>4</v>
       </c>
       <c r="G77" s="43"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="26" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C78" s="26"/>
       <c r="D78" s="3">
         <v>3</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F78" s="44">
+        <v>34</v>
+      </c>
+      <c r="F78" s="21">
         <v>5</v>
       </c>
       <c r="G78" s="26" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D79" s="3">
         <v>3</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F79" s="44">
+        <v>34</v>
+      </c>
+      <c r="F79" s="21">
         <v>5</v>
       </c>
       <c r="G79" s="26" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="26" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D80" s="3">
         <v>3</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F80" s="44">
+        <v>34</v>
+      </c>
+      <c r="F80" s="21">
         <v>5</v>
       </c>
       <c r="G80" s="27" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="26" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D81" s="3">
         <v>3</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F81" s="44">
+        <v>34</v>
+      </c>
+      <c r="F81" s="21">
         <v>5</v>
       </c>
       <c r="G81" s="27" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D82" s="3">
         <v>3</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F82" s="44">
+        <v>34</v>
+      </c>
+      <c r="F82" s="21">
         <v>5</v>
       </c>
       <c r="G82" s="27" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="28" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C83" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="D83" s="3">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F83" s="21">
+        <v>5</v>
+      </c>
+      <c r="G83" s="28" t="s">
         <v>195</v>
-      </c>
-      <c r="D83" s="3">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F83" s="44">
-        <v>5</v>
-      </c>
-      <c r="G83" s="28" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="28" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B84" s="28" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C84" s="28"/>
       <c r="D84" s="3">
         <v>3</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F84" s="44">
+        <v>34</v>
+      </c>
+      <c r="F84" s="21">
         <v>5</v>
       </c>
       <c r="G84" s="29" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="28" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B85" s="28" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D85" s="3">
         <v>3</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F85" s="44">
+        <v>34</v>
+      </c>
+      <c r="F85" s="21">
         <v>5</v>
       </c>
       <c r="G85" s="29" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A86" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B86" s="30" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C86" s="30" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D86" s="3">
         <v>3</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F86" s="44">
+        <v>34</v>
+      </c>
+      <c r="F86" s="21">
         <v>6</v>
       </c>
       <c r="G86" s="31" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A87" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="B87" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="C87" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="B87" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="C87" s="30" t="s">
-        <v>207</v>
-      </c>
       <c r="D87" s="3">
         <v>3</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F87" s="44">
+        <v>34</v>
+      </c>
+      <c r="F87" s="21">
         <v>6</v>
       </c>
       <c r="G87" s="32" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A88" s="30" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C88" s="30"/>
       <c r="D88" s="3">
         <v>3</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F88" s="44">
+        <v>34</v>
+      </c>
+      <c r="F88" s="21">
         <v>6</v>
       </c>
       <c r="G88" s="31" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A89" s="30" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C89" s="30" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D89" s="3">
         <v>3</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F89" s="44">
+        <v>34</v>
+      </c>
+      <c r="F89" s="21">
         <v>6</v>
       </c>
       <c r="G89" s="31" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A90" s="33" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B90" s="33" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C90" s="33" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D90" s="3">
         <v>3</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F90" s="44">
+        <v>34</v>
+      </c>
+      <c r="F90" s="21">
         <v>7</v>
       </c>
       <c r="G90" s="34" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A91" s="34" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B91" s="34" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C91" s="33"/>
       <c r="D91" s="3">
         <v>3</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F91" s="44">
+        <v>34</v>
+      </c>
+      <c r="F91" s="21">
         <v>7</v>
       </c>
       <c r="G91" s="34" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A92" s="33" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C92" s="33" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D92" s="3">
         <v>3</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F92" s="44">
+        <v>34</v>
+      </c>
+      <c r="F92" s="21">
         <v>7</v>
       </c>
       <c r="G92" s="35" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="37" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B93" s="37" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C93" s="37"/>
       <c r="D93" s="3">
         <v>3</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F93">
         <v>8</v>
       </c>
       <c r="G93" s="37" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A94" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="B94" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="B94" s="36" t="s">
-        <v>224</v>
-      </c>
       <c r="C94" s="37" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D94" s="3">
         <v>3</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F94">
         <v>8</v>
       </c>
       <c r="G94" s="37" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="37" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B95" s="37" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C95" s="37"/>
       <c r="D95" s="3">
         <v>3</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F95">
         <v>8</v>
       </c>
       <c r="G95" s="37" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="37" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B96" s="37" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C96" s="37"/>
       <c r="D96" s="3">
         <v>3</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F96">
         <v>8</v>
       </c>
       <c r="G96" s="37" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="38" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B97" s="38" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C97" s="38"/>
       <c r="D97" s="3">
         <v>3</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F97">
         <v>9</v>
       </c>
       <c r="G97" s="38" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="38" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B98" s="38" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C98" s="38" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D98" s="3">
         <v>3</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F98">
         <v>9</v>
       </c>
       <c r="G98" s="38" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="38" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B99" s="38" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C99" s="38" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D99" s="3">
         <v>3</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F99">
         <v>9</v>
       </c>
       <c r="G99" s="38" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B100" s="39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C100" s="39"/>
       <c r="D100" s="3">
         <v>3</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F100">
         <v>10</v>
       </c>
       <c r="G100" s="39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="39" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B101" s="39" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C101" s="39" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D101" s="3">
         <v>3</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F101">
         <v>10</v>
       </c>
       <c r="G101" s="39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="B102" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="C102" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="B102" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="C102" s="39" t="s">
-        <v>207</v>
-      </c>
       <c r="D102" s="3">
         <v>3</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F102">
         <v>10</v>
       </c>
       <c r="G102" s="39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="40" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B103" s="40" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C103" s="40" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D103" s="3">
         <v>3</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F103">
         <v>11</v>
       </c>
       <c r="G103" s="41" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="40" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B104" s="40" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C104" s="40"/>
       <c r="D104" s="3">
         <v>3</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F104">
         <v>11</v>
       </c>
       <c r="G104" s="40" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="42" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B105" s="42" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C105" s="42" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D105" s="3">
         <v>3</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F105">
         <v>12</v>
       </c>
       <c r="G105" s="42" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="42" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B106" s="42" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C106" s="42"/>
       <c r="D106" s="3">
         <v>3</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F106">
         <v>12</v>
       </c>
       <c r="G106" s="42" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="30" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B107" s="30" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C107" s="30" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D107" s="3">
         <v>3</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F107">
         <v>13</v>
       </c>
       <c r="G107" s="31" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="30" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C108" s="30" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D108" s="3">
         <v>3</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F108">
         <v>13</v>
       </c>
       <c r="G108" s="30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B109" s="30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C109" s="30"/>
       <c r="D109" s="3">
         <v>3</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F109">
         <v>13</v>
       </c>
       <c r="G109" s="30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" s="33" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B110" s="33" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C110" s="33" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D110" s="3">
         <v>3</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F110">
         <v>14</v>
       </c>
       <c r="G110" s="35" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A111" s="33" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B111" s="33" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C111" s="33"/>
       <c r="D111" s="3">
         <v>3</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F111">
         <v>14</v>
       </c>
       <c r="G111" s="35" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A112" s="33" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B112" s="33" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C112" s="33" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D112" s="3">
         <v>3</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F112">
         <v>14</v>
       </c>
       <c r="G112" s="35" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -5761,82 +5750,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="F1" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="52" t="s">
-        <v>255</v>
-      </c>
-      <c r="H1" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="J1" s="53" t="s">
-        <v>126</v>
+      <c r="J1" s="51" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="D2" s="49">
-        <v>3</v>
-      </c>
-      <c r="E2" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="50">
+      <c r="A2" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="47">
+        <v>3</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="48">
         <v>8</v>
       </c>
-      <c r="G2" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
+      <c r="G2" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="3">
         <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3">
         <v>9</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schilder/Desktop/Ilona_thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6096174-8179-6548-B2DB-987EF0AB344D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC98ECD3-6FA2-BA4C-8C1D-7203B7BBDD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{3843ECAF-FC15-3B44-AD26-4A902B2E57C4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{3843ECAF-FC15-3B44-AD26-4A902B2E57C4}"/>
   </bookViews>
   <sheets>
     <sheet name="edges" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="258">
   <si>
     <t>from</t>
   </si>
@@ -878,7 +878,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1029,8 +1029,20 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1077,11 +1089,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1206,6 +1231,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1520,10 +1547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8322CDB-25C4-5444-B944-F0725C38DC11}">
-  <dimension ref="A1:D197"/>
+  <dimension ref="A1:D198"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="137" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="137" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3175,6 +3202,14 @@
       </c>
       <c r="D197" s="23"/>
     </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="B198" s="53" t="s">
+        <v>166</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C58" xr:uid="{A8322CDB-25C4-5444-B944-F0725C38DC11}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3185,8 +3220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D721A325-FFE8-414B-B2EB-8286847F0276}">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="112" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A92" zoomScale="112" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schilder/Desktop/Ilona_thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC98ECD3-6FA2-BA4C-8C1D-7203B7BBDD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4451BB-C996-D740-91C6-A12A03B61C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{3843ECAF-FC15-3B44-AD26-4A902B2E57C4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{3843ECAF-FC15-3B44-AD26-4A902B2E57C4}"/>
   </bookViews>
   <sheets>
     <sheet name="edges" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="258">
   <si>
     <t>from</t>
   </si>
@@ -1549,7 +1549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8322CDB-25C4-5444-B944-F0725C38DC11}">
   <dimension ref="A1:D198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="137" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A35" zoomScale="137" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
@@ -3220,8 +3220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D721A325-FFE8-414B-B2EB-8286847F0276}">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" zoomScale="112" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="112" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39:G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3354,7 +3354,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>255</v>
       </c>
@@ -3371,11 +3371,13 @@
       <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="5" t="s">
+        <v>255</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="119" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>199</v>
       </c>
@@ -3394,11 +3396,13 @@
       <c r="F7" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="5" t="s">
+        <v>255</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="119" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>11</v>
       </c>
@@ -3417,11 +3421,13 @@
       <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="5" t="s">
+        <v>255</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="119" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
@@ -3440,7 +3446,9 @@
       <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="5" t="s">
+        <v>255</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
@@ -3461,7 +3469,9 @@
       <c r="F10" s="3">
         <v>2</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
@@ -3482,7 +3492,9 @@
       <c r="F11" s="3">
         <v>2</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
@@ -3505,7 +3517,9 @@
       <c r="F12" s="3">
         <v>2</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
@@ -3528,7 +3542,9 @@
       <c r="F13" s="3">
         <v>2</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
@@ -3549,7 +3565,9 @@
       <c r="F14" s="3">
         <v>3</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
@@ -3572,7 +3590,9 @@
       <c r="F15" s="3">
         <v>3</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
@@ -3595,7 +3615,9 @@
       <c r="F16" s="3">
         <v>3</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
@@ -3618,7 +3640,9 @@
       <c r="F17" s="3">
         <v>3</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
@@ -3639,7 +3663,9 @@
       <c r="F18" s="3">
         <v>4</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
@@ -3662,7 +3688,9 @@
       <c r="F19" s="3">
         <v>4</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
@@ -3685,7 +3713,9 @@
       <c r="F20" s="3">
         <v>4</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
@@ -3708,7 +3738,9 @@
       <c r="F21" s="3">
         <v>4</v>
       </c>
-      <c r="G21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
@@ -3731,7 +3763,9 @@
       <c r="F22" s="3">
         <v>4</v>
       </c>
-      <c r="G22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
@@ -3754,7 +3788,9 @@
       <c r="F23" s="3">
         <v>4</v>
       </c>
-      <c r="G23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
@@ -4128,7 +4164,9 @@
       <c r="F39" s="3">
         <v>8</v>
       </c>
-      <c r="G39" s="3"/>
+      <c r="G39" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
@@ -4151,7 +4189,9 @@
       <c r="F40" s="3">
         <v>8</v>
       </c>
-      <c r="G40" s="3"/>
+      <c r="G40" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
@@ -4174,7 +4214,9 @@
       <c r="F41" s="3">
         <v>8</v>
       </c>
-      <c r="G41" s="3"/>
+      <c r="G41" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
@@ -4197,7 +4239,9 @@
       <c r="F42" s="3">
         <v>8</v>
       </c>
-      <c r="G42" s="3"/>
+      <c r="G42" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
@@ -4220,7 +4264,9 @@
       <c r="F43" s="3">
         <v>8</v>
       </c>
-      <c r="G43" s="3"/>
+      <c r="G43" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schilder/Desktop/Ilona_thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4451BB-C996-D740-91C6-A12A03B61C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A389D5-66B1-4C45-ABE0-0FA6A96538F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{3843ECAF-FC15-3B44-AD26-4A902B2E57C4}"/>
   </bookViews>
@@ -794,9 +794,6 @@
     <t>Manager</t>
   </si>
   <si>
-    <t>Ed Cavanag</t>
-  </si>
-  <si>
     <t>Works Manager</t>
   </si>
   <si>
@@ -848,6 +845,9 @@
   </si>
   <si>
     <t>Archivist, Research Development Specialist, Moving Image &amp; Sound</t>
+  </si>
+  <si>
+    <t>Ed Cavanagh</t>
   </si>
 </sst>
 </file>
@@ -1611,7 +1611,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -1677,7 +1677,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1693,7 +1693,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1866,7 +1866,7 @@
     </row>
     <row r="35" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>200</v>
@@ -1874,7 +1874,7 @@
     </row>
     <row r="36" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>11</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="37" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>12</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="38" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>13</v>
@@ -1909,7 +1909,7 @@
         <v>13</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -1925,7 +1925,7 @@
         <v>13</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -1933,7 +1933,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -1949,7 +1949,7 @@
         <v>35</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -2386,7 +2386,7 @@
     </row>
     <row r="100" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B100" t="s">
         <v>3</v>
@@ -2782,7 +2782,7 @@
         <v>154</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -2843,7 +2843,7 @@
     </row>
     <row r="153" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>34</v>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B160" t="s">
         <v>34</v>
@@ -2942,12 +2942,12 @@
         <v>145</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>34</v>
@@ -2982,7 +2982,7 @@
         <v>201</v>
       </c>
       <c r="B170" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3220,8 +3220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D721A325-FFE8-414B-B2EB-8286847F0276}">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="112" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39:G43"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="112" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3247,13 +3247,13 @@
         <v>40</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>125</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>39</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -3356,10 +3356,10 @@
     </row>
     <row r="6" spans="1:10" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="3">
@@ -3372,7 +3372,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -3397,7 +3397,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -3422,7 +3422,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -3447,7 +3447,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -3500,13 +3500,13 @@
     </row>
     <row r="12" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="20" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>63</v>
@@ -3806,7 +3806,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>242</v>
+        <v>6</v>
       </c>
       <c r="F24" s="3">
         <v>5</v>
@@ -4130,7 +4130,7 @@
         <v>93</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -4559,7 +4559,7 @@
         <v>142</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>180</v>
@@ -4579,13 +4579,13 @@
     </row>
     <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>248</v>
       </c>
       <c r="D57" s="3">
         <v>3</v>
@@ -4602,13 +4602,13 @@
     </row>
     <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="D58" s="3">
         <v>3</v>
@@ -5224,7 +5224,7 @@
         <v>6</v>
       </c>
       <c r="G86" s="31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -5247,15 +5247,15 @@
         <v>6</v>
       </c>
       <c r="G87" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A88" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C88" s="30"/>
       <c r="D88" s="3">
@@ -5268,7 +5268,7 @@
         <v>6</v>
       </c>
       <c r="G88" s="31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -5291,7 +5291,7 @@
         <v>6</v>
       </c>
       <c r="G89" s="31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -5785,10 +5785,10 @@
         <v>144</v>
       </c>
       <c r="B112" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="C112" s="33" t="s">
         <v>240</v>
-      </c>
-      <c r="C112" s="33" t="s">
-        <v>241</v>
       </c>
       <c r="D112" s="3">
         <v>3</v>
@@ -5844,13 +5844,13 @@
         <v>40</v>
       </c>
       <c r="E1" s="50" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F1" s="50" t="s">
         <v>125</v>
       </c>
       <c r="G1" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H1" s="50" t="s">
         <v>39</v>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schilder/Desktop/Ilona_thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A389D5-66B1-4C45-ABE0-0FA6A96538F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D672DA2C-4934-B54E-AC41-1FCBA68372FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{3843ECAF-FC15-3B44-AD26-4A902B2E57C4}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="258">
   <si>
     <t>from</t>
   </si>
@@ -3220,8 +3220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D721A325-FFE8-414B-B2EB-8286847F0276}">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="112" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="112" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3289,10 +3289,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3">
@@ -3309,38 +3309,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="3"/>
+    <row r="4" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="F4" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="F4" s="3">
+        <v>10</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="85" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>213</v>
+    </row>
+    <row r="5" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>254</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>60</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C5" s="5"/>
       <c r="D5" s="3">
         <v>1</v>
       </c>
@@ -3348,20 +3347,24 @@
         <v>6</v>
       </c>
       <c r="F5" s="3">
-        <v>10</v>
-      </c>
-      <c r="G5" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>254</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="119" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>254</v>
+      <c r="A6" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
@@ -3379,13 +3382,13 @@
     </row>
     <row r="7" spans="1:10" ht="119" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>199</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>203</v>
+        <v>57</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -3404,13 +3407,13 @@
     </row>
     <row r="8" spans="1:10" ht="119" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -3427,16 +3430,14 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="119" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>59</v>
-      </c>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="3">
         <v>1</v>
       </c>
@@ -3444,20 +3445,20 @@
         <v>6</v>
       </c>
       <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>254</v>
+        <v>2</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
@@ -3475,14 +3476,16 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="3"/>
+    <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>256</v>
+      </c>
       <c r="D11" s="3">
         <v>1</v>
       </c>
@@ -3498,15 +3501,15 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>255</v>
+        <v>14</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>256</v>
+        <v>62</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -3523,16 +3526,14 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>62</v>
-      </c>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="3">
         <v>1</v>
       </c>
@@ -3540,22 +3541,24 @@
         <v>6</v>
       </c>
       <c r="F13" s="3">
-        <v>2</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="3"/>
+    <row r="14" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D14" s="3">
         <v>1</v>
       </c>
@@ -3573,13 +3576,13 @@
     </row>
     <row r="15" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -3598,13 +3601,13 @@
     </row>
     <row r="16" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -3621,16 +3624,14 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>95</v>
-      </c>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3"/>
       <c r="D17" s="3">
         <v>1</v>
       </c>
@@ -3638,22 +3639,24 @@
         <v>6</v>
       </c>
       <c r="F17" s="3">
-        <v>3</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>22</v>
+        <v>4</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="3"/>
+    <row r="18" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="D18" s="3">
         <v>1</v>
       </c>
@@ -3669,15 +3672,15 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>214</v>
+    <row r="19" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>253</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>220</v>
+        <v>63</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -3694,15 +3697,15 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>253</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>64</v>
+        <v>211</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -3719,15 +3722,15 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -3744,15 +3747,15 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -3769,16 +3772,14 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>99</v>
-      </c>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3"/>
       <c r="D23" s="3">
         <v>1</v>
       </c>
@@ -3786,20 +3787,23 @@
         <v>6</v>
       </c>
       <c r="F23" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
+      <c r="J23">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3">
@@ -3816,18 +3820,17 @@
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24">
-        <v>2</v>
-      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D25" s="3">
         <v>1</v>
       </c>
@@ -3845,13 +3848,13 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
@@ -3870,13 +3873,13 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -3895,14 +3898,12 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C28" s="3"/>
       <c r="D28" s="3">
         <v>1</v>
       </c>
@@ -3919,11 +3920,11 @@
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
-        <v>5</v>
+      <c r="A29" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3">
@@ -3933,22 +3934,22 @@
         <v>6</v>
       </c>
       <c r="F29" s="3">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
-        <v>65</v>
+      <c r="A30" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="D30" s="3">
         <v>1</v>
       </c>
@@ -3956,21 +3957,20 @@
         <v>6</v>
       </c>
       <c r="F30" s="3">
-        <v>6</v>
-      </c>
-      <c r="G30" s="3"/>
+        <v>7</v>
+      </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -3981,18 +3981,19 @@
       <c r="F31" s="3">
         <v>7</v>
       </c>
+      <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -4009,13 +4010,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
@@ -4032,13 +4033,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -4055,13 +4056,13 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -4078,13 +4079,13 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
@@ -4101,13 +4102,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>87</v>
+        <v>242</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
@@ -4123,14 +4124,14 @@
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="17" t="s">
-        <v>93</v>
+      <c r="A38" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -4139,18 +4140,20 @@
         <v>6</v>
       </c>
       <c r="F38" s="3">
-        <v>7</v>
-      </c>
-      <c r="G38" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>79</v>
@@ -4172,10 +4175,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>79</v>
@@ -4197,10 +4200,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>79</v>
@@ -4222,10 +4225,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>79</v>
@@ -4245,15 +4248,15 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>79</v>
+    <row r="43" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A43" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="D43" s="3">
         <v>1</v>
@@ -4262,35 +4265,35 @@
         <v>6</v>
       </c>
       <c r="F43" s="3">
-        <v>8</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>79</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>104</v>
-      </c>
+    <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F44" s="3">
-        <v>9</v>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="I44" s="3"/>
     </row>
     <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4305,12 +4308,14 @@
         <v>2</v>
       </c>
       <c r="E45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="3">
-        <v>1</v>
-      </c>
-      <c r="G45" s="3"/>
       <c r="H45" s="3" t="b">
         <v>1</v>
       </c>
@@ -4328,12 +4333,14 @@
         <v>2</v>
       </c>
       <c r="E46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F46" s="3">
-        <v>1</v>
-      </c>
-      <c r="G46" s="3"/>
       <c r="H46" s="3" t="b">
         <v>1</v>
       </c>
@@ -4351,12 +4358,14 @@
         <v>2</v>
       </c>
       <c r="E47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="3">
-        <v>1</v>
-      </c>
-      <c r="G47" s="3"/>
       <c r="H47" s="3" t="b">
         <v>1</v>
       </c>
@@ -4376,12 +4385,14 @@
         <v>2</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F48" s="3">
         <v>2</v>
       </c>
-      <c r="G48" s="3"/>
+      <c r="G48" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="H48" s="3" t="b">
         <v>1</v>
       </c>
@@ -4399,12 +4410,14 @@
         <v>2</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F49" s="3">
         <v>2</v>
       </c>
-      <c r="G49" s="3"/>
+      <c r="G49" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="H49" s="3" t="b">
         <v>1</v>
       </c>
@@ -4422,12 +4435,14 @@
         <v>2</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F50" s="3">
         <v>2</v>
       </c>
-      <c r="G50" s="3"/>
+      <c r="G50" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="H50" s="3" t="b">
         <v>1</v>
       </c>
@@ -4445,12 +4460,14 @@
         <v>2</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F51" s="3">
         <v>2</v>
       </c>
-      <c r="G51" s="3"/>
+      <c r="G51" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="H51" s="3" t="b">
         <v>1</v>
       </c>
@@ -4468,12 +4485,14 @@
         <v>2</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F52" s="3">
         <v>2</v>
       </c>
-      <c r="G52" s="3"/>
+      <c r="G52" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="H52" s="3" t="b">
         <v>1</v>
       </c>
@@ -4493,12 +4512,14 @@
         <v>2</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F53" s="3">
         <v>2</v>
       </c>
-      <c r="G53" s="3"/>
+      <c r="G53" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="H53" s="3" t="b">
         <v>1</v>
       </c>
@@ -4518,12 +4539,14 @@
         <v>2</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F54" s="3">
         <v>2</v>
       </c>
-      <c r="G54" s="3"/>
+      <c r="G54" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="H54" s="3" t="b">
         <v>1</v>
       </c>
@@ -4543,12 +4566,14 @@
         <v>2</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F55" s="3">
         <v>2</v>
       </c>
-      <c r="G55" s="3"/>
+      <c r="G55" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="H55" s="3" t="b">
         <v>1</v>
       </c>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schilder/Desktop/Ilona_thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D672DA2C-4934-B54E-AC41-1FCBA68372FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37302756-6DD3-C742-8173-F723D60486E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{3843ECAF-FC15-3B44-AD26-4A902B2E57C4}"/>
   </bookViews>
@@ -3220,8 +3220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D721A325-FFE8-414B-B2EB-8286847F0276}">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="112" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="112" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schilder/Desktop/Ilona_thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37302756-6DD3-C742-8173-F723D60486E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BECF61E-300B-1C4F-9030-D72818448E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{3843ECAF-FC15-3B44-AD26-4A902B2E57C4}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="261">
   <si>
     <t>from</t>
   </si>
@@ -848,6 +848,15 @@
   </si>
   <si>
     <t>Ed Cavanagh</t>
+  </si>
+  <si>
+    <t>Brian Schilder</t>
+  </si>
+  <si>
+    <t>Brian Schilder, Research Associate</t>
+  </si>
+  <si>
+    <t>Research Associate, Department of Brain Sciences, Imperial College London</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1233,6 +1242,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1547,10 +1558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8322CDB-25C4-5444-B944-F0725C38DC11}">
-  <dimension ref="A1:D198"/>
+  <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="137" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView topLeftCell="A179" zoomScale="137" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3210,6 +3221,22 @@
         <v>166</v>
       </c>
     </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="B199" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="55" t="s">
+        <v>259</v>
+      </c>
+      <c r="B200" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C58" xr:uid="{A8322CDB-25C4-5444-B944-F0725C38DC11}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3218,10 +3245,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D721A325-FFE8-414B-B2EB-8286847F0276}">
-  <dimension ref="A1:J112"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="112" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="112" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4280,7 +4307,7 @@
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>6</v>
@@ -4305,7 +4332,7 @@
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>6</v>
@@ -4330,7 +4357,7 @@
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>6</v>
@@ -4355,7 +4382,7 @@
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>6</v>
@@ -4382,7 +4409,7 @@
         <v>102</v>
       </c>
       <c r="D48" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>6</v>
@@ -4407,7 +4434,7 @@
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>6</v>
@@ -4432,7 +4459,7 @@
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>6</v>
@@ -4457,7 +4484,7 @@
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>6</v>
@@ -4482,7 +4509,7 @@
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>6</v>
@@ -4509,7 +4536,7 @@
         <v>108</v>
       </c>
       <c r="D53" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>6</v>
@@ -4536,7 +4563,7 @@
         <v>110</v>
       </c>
       <c r="D54" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>6</v>
@@ -4563,7 +4590,7 @@
         <v>53</v>
       </c>
       <c r="D55" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>6</v>
@@ -4590,7 +4617,7 @@
         <v>180</v>
       </c>
       <c r="D56" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>34</v>
@@ -4613,7 +4640,7 @@
         <v>247</v>
       </c>
       <c r="D57" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>34</v>
@@ -4636,7 +4663,7 @@
         <v>250</v>
       </c>
       <c r="D58" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>34</v>
@@ -4659,7 +4686,7 @@
       </c>
       <c r="C59" s="24"/>
       <c r="D59" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>34</v>
@@ -4680,7 +4707,7 @@
       </c>
       <c r="C60" s="24"/>
       <c r="D60" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>34</v>
@@ -4701,7 +4728,7 @@
       </c>
       <c r="C61" s="24"/>
       <c r="D61" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>34</v>
@@ -4722,7 +4749,7 @@
       </c>
       <c r="C62" s="24"/>
       <c r="D62" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>34</v>
@@ -4743,7 +4770,7 @@
       </c>
       <c r="C63" s="24"/>
       <c r="D63" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>34</v>
@@ -4764,7 +4791,7 @@
       </c>
       <c r="C64" s="24"/>
       <c r="D64" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>34</v>
@@ -4785,7 +4812,7 @@
       </c>
       <c r="C65" s="24"/>
       <c r="D65" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>34</v>
@@ -4806,7 +4833,7 @@
       </c>
       <c r="C66" s="24"/>
       <c r="D66" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>34</v>
@@ -4827,7 +4854,7 @@
       </c>
       <c r="C67" s="24"/>
       <c r="D67" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>34</v>
@@ -4850,7 +4877,7 @@
         <v>79</v>
       </c>
       <c r="D68" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>34</v>
@@ -4871,7 +4898,7 @@
         <v>79</v>
       </c>
       <c r="D69" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>34</v>
@@ -4892,7 +4919,7 @@
         <v>171</v>
       </c>
       <c r="D70" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>34</v>
@@ -4913,7 +4940,7 @@
         <v>173</v>
       </c>
       <c r="D71" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>34</v>
@@ -4934,7 +4961,7 @@
         <v>173</v>
       </c>
       <c r="D72" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>34</v>
@@ -4955,7 +4982,7 @@
         <v>173</v>
       </c>
       <c r="D73" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>34</v>
@@ -4976,7 +5003,7 @@
         <v>173</v>
       </c>
       <c r="D74" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>34</v>
@@ -4997,7 +5024,7 @@
         <v>173</v>
       </c>
       <c r="D75" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>34</v>
@@ -5018,7 +5045,7 @@
         <v>180</v>
       </c>
       <c r="D76" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>34</v>
@@ -5039,7 +5066,7 @@
         <v>182</v>
       </c>
       <c r="D77" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>34</v>
@@ -5058,7 +5085,7 @@
       </c>
       <c r="C78" s="26"/>
       <c r="D78" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>34</v>
@@ -5081,7 +5108,7 @@
         <v>184</v>
       </c>
       <c r="D79" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>34</v>
@@ -5104,7 +5131,7 @@
         <v>186</v>
       </c>
       <c r="D80" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>34</v>
@@ -5127,7 +5154,7 @@
         <v>188</v>
       </c>
       <c r="D81" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>34</v>
@@ -5150,7 +5177,7 @@
         <v>190</v>
       </c>
       <c r="D82" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>34</v>
@@ -5173,7 +5200,7 @@
         <v>192</v>
       </c>
       <c r="D83" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>34</v>
@@ -5194,7 +5221,7 @@
       </c>
       <c r="C84" s="28"/>
       <c r="D84" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>34</v>
@@ -5217,7 +5244,7 @@
         <v>194</v>
       </c>
       <c r="D85" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>34</v>
@@ -5240,7 +5267,7 @@
         <v>197</v>
       </c>
       <c r="D86" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>34</v>
@@ -5263,7 +5290,7 @@
         <v>204</v>
       </c>
       <c r="D87" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>34</v>
@@ -5284,7 +5311,7 @@
       </c>
       <c r="C88" s="30"/>
       <c r="D88" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>34</v>
@@ -5307,7 +5334,7 @@
         <v>206</v>
       </c>
       <c r="D89" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>34</v>
@@ -5330,7 +5357,7 @@
         <v>208</v>
       </c>
       <c r="D90" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>34</v>
@@ -5351,7 +5378,7 @@
       </c>
       <c r="C91" s="33"/>
       <c r="D91" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>34</v>
@@ -5374,7 +5401,7 @@
         <v>210</v>
       </c>
       <c r="D92" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>34</v>
@@ -5395,7 +5422,7 @@
       </c>
       <c r="C93" s="37"/>
       <c r="D93" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>34</v>
@@ -5418,7 +5445,7 @@
         <v>212</v>
       </c>
       <c r="D94" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>34</v>
@@ -5439,7 +5466,7 @@
       </c>
       <c r="C95" s="37"/>
       <c r="D95" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>34</v>
@@ -5460,7 +5487,7 @@
       </c>
       <c r="C96" s="37"/>
       <c r="D96" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>34</v>
@@ -5481,7 +5508,7 @@
       </c>
       <c r="C97" s="38"/>
       <c r="D97" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>34</v>
@@ -5504,7 +5531,7 @@
         <v>208</v>
       </c>
       <c r="D98" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>34</v>
@@ -5527,7 +5554,7 @@
         <v>224</v>
       </c>
       <c r="D99" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>34</v>
@@ -5548,7 +5575,7 @@
       </c>
       <c r="C100" s="39"/>
       <c r="D100" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>34</v>
@@ -5571,7 +5598,7 @@
         <v>226</v>
       </c>
       <c r="D101" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>34</v>
@@ -5594,7 +5621,7 @@
         <v>204</v>
       </c>
       <c r="D102" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>34</v>
@@ -5617,7 +5644,7 @@
         <v>229</v>
       </c>
       <c r="D103" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>34</v>
@@ -5638,7 +5665,7 @@
       </c>
       <c r="C104" s="40"/>
       <c r="D104" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>34</v>
@@ -5661,7 +5688,7 @@
         <v>231</v>
       </c>
       <c r="D105" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>34</v>
@@ -5682,7 +5709,7 @@
       </c>
       <c r="C106" s="42"/>
       <c r="D106" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>34</v>
@@ -5705,7 +5732,7 @@
         <v>234</v>
       </c>
       <c r="D107" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>34</v>
@@ -5728,7 +5755,7 @@
         <v>237</v>
       </c>
       <c r="D108" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>34</v>
@@ -5749,7 +5776,7 @@
       </c>
       <c r="C109" s="30"/>
       <c r="D109" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>34</v>
@@ -5772,7 +5799,7 @@
         <v>239</v>
       </c>
       <c r="D110" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>34</v>
@@ -5793,7 +5820,7 @@
       </c>
       <c r="C111" s="33"/>
       <c r="D111" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>34</v>
@@ -5816,7 +5843,7 @@
         <v>240</v>
       </c>
       <c r="D112" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>34</v>
@@ -5826,6 +5853,26 @@
       </c>
       <c r="G112" s="35" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="B113" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="C113" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="D113" s="21">
+        <v>2</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F113">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schilder/Desktop/Ilona_thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BECF61E-300B-1C4F-9030-D72818448E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2AB314-7740-BC41-9409-5EE87BCF0C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{3843ECAF-FC15-3B44-AD26-4A902B2E57C4}"/>
+    <workbookView xWindow="1920" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{3843ECAF-FC15-3B44-AD26-4A902B2E57C4}"/>
   </bookViews>
   <sheets>
     <sheet name="edges" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="dup_nodes" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">edges!$A$1:$C$58</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">nodes!$A$1:$J$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">edges!$A$1:$C$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">nodes!$A$1:$J$111</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="258">
   <si>
     <t>from</t>
   </si>
@@ -147,9 +147,6 @@
     <t>Emma Balkind</t>
   </si>
   <si>
-    <t>Clara Crivellaro &amp; Alex Taylor</t>
-  </si>
-  <si>
     <t>Kirsty Hendry (co-author of Self-Service)
 Artist and Curator</t>
   </si>
@@ -189,9 +186,6 @@
   </si>
   <si>
     <t>role</t>
-  </si>
-  <si>
-    <t>The Health and Social Care Alliance Scotland, Research Fellow in Health Policy University of Strathclyde, Pioneer Health Foundation</t>
   </si>
   <si>
     <t xml:space="preserve">Laura Wilson </t>
@@ -702,9 +696,6 @@
     <t>Chair Pioneer Health Foundation and former GP Darnall GP surgery Sheffield (equal pay collective) and Darnall Wellbeing, a community health and wellbeing group</t>
   </si>
   <si>
-    <t>Senior Lecturer in Architecture at Sheffield Hallam University, director of the UKs first Social Enterprise architecture practice, Studio Polpo</t>
-  </si>
-  <si>
     <t>Dr. Felicity Thomas
 Director of the Wellcome Centre for Cultures and Environments of Health
 WHO Collaborating Centre for Culture and Health 
@@ -809,24 +800,6 @@
     <t>Damien Gray</t>
   </si>
   <si>
-    <t>Richard Syddall</t>
-  </si>
-  <si>
-    <t>Richard Syddall, Drawings, Almuno</t>
-  </si>
-  <si>
-    <t>Drawings, Almuno</t>
-  </si>
-  <si>
-    <t>David Bickie</t>
-  </si>
-  <si>
-    <t>David Bickie, Drawings, Hawkins Brown</t>
-  </si>
-  <si>
-    <t>Drawings, Hawkins Brown</t>
-  </si>
-  <si>
     <t>subcluster_name</t>
   </si>
   <si>
@@ -857,6 +830,24 @@
   </si>
   <si>
     <t>Research Associate, Department of Brain Sciences, Imperial College London</t>
+  </si>
+  <si>
+    <t>Crew (Deep Structure)</t>
+  </si>
+  <si>
+    <t>Chair, Pioneer Health Foundation and former GP Darnall GP surgery Sheffield (equal pay collective)</t>
+  </si>
+  <si>
+    <t>Research Fellow in Health Policy University of Strathclyde, Pioneer Health Foundation</t>
+  </si>
+  <si>
+    <t>Senior Lecturer in Architecture at Sheffield Hallam University, director of architecture practice, Studio Polpo</t>
+  </si>
+  <si>
+    <t>Clara Crivellaro</t>
+  </si>
+  <si>
+    <t>Crew</t>
   </si>
 </sst>
 </file>
@@ -1558,10 +1549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8322CDB-25C4-5444-B944-F0725C38DC11}">
-  <dimension ref="A1:D200"/>
+  <dimension ref="A1:D217"/>
   <sheetViews>
-    <sheetView topLeftCell="A179" zoomScale="137" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B201" sqref="B201"/>
+    <sheetView topLeftCell="A123" zoomScale="137" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1578,10 +1569,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1589,7 +1580,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -1611,7 +1602,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -1622,7 +1613,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -1655,7 +1646,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -1677,7 +1668,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -1688,7 +1679,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1704,7 +1695,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1712,7 +1703,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1720,7 +1711,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1728,7 +1719,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1744,7 +1735,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1752,7 +1743,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1760,7 +1751,7 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1768,7 +1759,7 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1776,7 +1767,7 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1792,7 +1783,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1808,7 +1799,7 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1816,7 +1807,7 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1824,7 +1815,7 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1832,7 +1823,7 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1840,7 +1831,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1848,7 +1839,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -1856,7 +1847,7 @@
         <v>6</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -1869,7 +1860,7 @@
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>5</v>
@@ -1877,15 +1868,15 @@
     </row>
     <row r="35" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>11</v>
@@ -1893,7 +1884,7 @@
     </row>
     <row r="37" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>12</v>
@@ -1901,7 +1892,7 @@
     </row>
     <row r="38" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>13</v>
@@ -1912,7 +1903,7 @@
         <v>13</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -1920,7 +1911,7 @@
         <v>13</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -1936,20 +1927,20 @@
         <v>13</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>14</v>
@@ -1957,10 +1948,10 @@
     </row>
     <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -1968,7 +1959,7 @@
         <v>22</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -1976,7 +1967,7 @@
         <v>22</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -1984,26 +1975,26 @@
         <v>22</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>3</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -2011,15 +2002,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>3</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -2027,23 +2018,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>3</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>3</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -2051,68 +2042,80 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="60" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="B62" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>2</v>
-      </c>
-      <c r="B63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -2120,12 +2123,12 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
@@ -2133,31 +2136,31 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
@@ -2165,50 +2168,50 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>119</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>25</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>105</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -2216,7 +2219,7 @@
         <v>25</v>
       </c>
       <c r="B77" t="s">
-        <v>106</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -2224,7 +2227,7 @@
         <v>25</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -2232,7 +2235,7 @@
         <v>25</v>
       </c>
       <c r="B79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -2240,306 +2243,288 @@
         <v>25</v>
       </c>
       <c r="B80" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>25</v>
       </c>
       <c r="B81" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>25</v>
       </c>
-      <c r="B82" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="B82" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>25</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>25</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>25</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>25</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>25</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>25</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>25</v>
       </c>
-      <c r="B89" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B89" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>25</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B91" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>25</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>25</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>25</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>25</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>25</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B97" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>34</v>
-      </c>
-      <c r="B92" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>34</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>34</v>
-      </c>
-      <c r="B94" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>34</v>
-      </c>
-      <c r="B95" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>34</v>
-      </c>
-      <c r="B96" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>34</v>
-      </c>
-      <c r="B97" s="20" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B98" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A99" s="14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>33</v>
+      </c>
+      <c r="B99" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>33</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>33</v>
+      </c>
+      <c r="B101" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>33</v>
+      </c>
+      <c r="B102" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>33</v>
+      </c>
+      <c r="B103" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>33</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>33</v>
+      </c>
+      <c r="B105" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A106" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B99" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="B100" t="s">
+      <c r="B106" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="B107" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A101" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B101" s="12" t="s">
+    <row r="108" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A108" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A109" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B109" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A102" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B102" s="12" t="s">
+    <row r="110" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A110" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B110" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A103" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B103" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A104" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B104" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A105" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D105" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A106" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B106" t="s">
-        <v>28</v>
-      </c>
-      <c r="D106" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A107" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B107" t="s">
-        <v>30</v>
-      </c>
-      <c r="D107" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A108" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D108" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A109" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B109" t="s">
+    <row r="111" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A111" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D109" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A110" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D110" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A111" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D111" t="b">
-        <v>1</v>
+      <c r="B111" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D112" t="b">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="B112" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="D113" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
+      </c>
+      <c r="B114" t="s">
+        <v>28</v>
       </c>
       <c r="D114" t="b">
         <v>1</v>
@@ -2547,708 +2532,892 @@
     </row>
     <row r="115" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B115" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B115" t="s">
+        <v>30</v>
+      </c>
+      <c r="D115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A116" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A117" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A118" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B118" t="s">
+        <v>219</v>
+      </c>
+      <c r="D118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A119" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A120" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A121" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A122" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A123" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A124" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D115" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>126</v>
-      </c>
-      <c r="B116" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>126</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>129</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+      <c r="D124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
         <v>127</v>
       </c>
-      <c r="B119" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>127</v>
-      </c>
-      <c r="B120" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>147</v>
-      </c>
-      <c r="B121" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>147</v>
-      </c>
-      <c r="B122" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>128</v>
-      </c>
-      <c r="B123" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>130</v>
-      </c>
-      <c r="B124" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>130</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>131</v>
-      </c>
-      <c r="B126" t="s">
-        <v>129</v>
+        <v>124</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>132</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>34</v>
+        <v>125</v>
+      </c>
+      <c r="B129" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B130" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>133</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>34</v>
+        <v>145</v>
+      </c>
+      <c r="B131" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B132" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>128</v>
+      </c>
+      <c r="B133" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>128</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>134</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>135</v>
-      </c>
-      <c r="B134" t="s">
+      <c r="B135" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>135</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>136</v>
-      </c>
-      <c r="B136" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B136" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>137</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="B137" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>138</v>
-      </c>
-      <c r="B138" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>141</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>34</v>
+        <v>131</v>
+      </c>
+      <c r="B139" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>159</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>34</v>
+        <v>132</v>
+      </c>
+      <c r="B141" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>144</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>34</v>
+        <v>133</v>
+      </c>
+      <c r="B143" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>154</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="B145" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>154</v>
-      </c>
-      <c r="B146" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>142</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>34</v>
+        <v>136</v>
+      </c>
+      <c r="B147" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>236</v>
+        <v>139</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>236</v>
-      </c>
-      <c r="B149" t="s">
         <v>139</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>233</v>
+        <v>157</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>233</v>
+        <v>142</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>139</v>
-      </c>
-      <c r="B152" t="s">
-        <v>34</v>
+        <v>142</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>246</v>
+        <v>159</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>158</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="B155" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>158</v>
-      </c>
-      <c r="B156" t="s">
-        <v>166</v>
+        <v>140</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A157" s="2" t="s">
-        <v>140</v>
+      <c r="A157" t="s">
+        <v>233</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>227</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>34</v>
+        <v>233</v>
+      </c>
+      <c r="B158" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>249</v>
-      </c>
-      <c r="B160" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>157</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>195</v>
+        <v>137</v>
+      </c>
+      <c r="B161" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>145</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>34</v>
+        <v>156</v>
+      </c>
+      <c r="B164" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>145</v>
+      <c r="A165" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>243</v>
+        <v>33</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>148</v>
+        <v>224</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>201</v>
-      </c>
-      <c r="B169" s="22" t="s">
-        <v>34</v>
+        <v>155</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>201</v>
-      </c>
-      <c r="B170" s="22" t="s">
-        <v>243</v>
+        <v>193</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>150</v>
-      </c>
-      <c r="B171" s="22" t="s">
-        <v>34</v>
+        <v>143</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>146</v>
-      </c>
-      <c r="B172" s="22" t="s">
-        <v>34</v>
+        <v>143</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>177</v>
-      </c>
-      <c r="B173" s="22" t="s">
-        <v>34</v>
+        <v>240</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>155</v>
-      </c>
-      <c r="B174" s="22" t="s">
-        <v>34</v>
+        <v>146</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>155</v>
-      </c>
-      <c r="B175" s="22" t="s">
-        <v>156</v>
+        <v>147</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="B176" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="B177" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="B178" s="22" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="B179" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>223</v>
-      </c>
-      <c r="B180" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+      <c r="B180" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>152</v>
-      </c>
-      <c r="B181" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="B181" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>156</v>
-      </c>
-      <c r="B182" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="B182" s="22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>136</v>
-      </c>
-      <c r="B183" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="B183" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>160</v>
-      </c>
-      <c r="B184" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="B184" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>216</v>
-      </c>
-      <c r="B185" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="B185" s="22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>216</v>
-      </c>
-      <c r="B186" t="s">
-        <v>217</v>
+        <v>200</v>
+      </c>
+      <c r="B186" s="22" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="B187" t="s">
-        <v>217</v>
+        <v>141</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="B188" t="s">
-        <v>162</v>
+        <v>33</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>223</v>
+        <v>154</v>
       </c>
       <c r="B189" t="s">
-        <v>162</v>
+        <v>33</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="B190" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="B191" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="B192" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>130</v>
+        <v>213</v>
       </c>
       <c r="B193" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A194" s="2" t="s">
-        <v>96</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>199</v>
       </c>
       <c r="B194" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A195" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>200</v>
       </c>
       <c r="B195" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>93</v>
+        <v>220</v>
       </c>
       <c r="B196" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>91</v>
+      </c>
+      <c r="B197" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>91</v>
+      </c>
+      <c r="B198" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>129</v>
+      </c>
+      <c r="B199" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>128</v>
+      </c>
+      <c r="B200" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B201" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A202" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B202" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>91</v>
+      </c>
+      <c r="B203" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>165</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>167</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D197" s="23"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="B198" s="53" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="54" t="s">
-        <v>259</v>
-      </c>
-      <c r="B199" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="55" t="s">
-        <v>259</v>
-      </c>
-      <c r="B200" t="s">
-        <v>6</v>
+      <c r="D204" s="23"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="B205" s="53" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="B206" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" s="55" t="s">
+        <v>250</v>
+      </c>
+      <c r="B207" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>91</v>
+      </c>
+      <c r="B208" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>91</v>
+      </c>
+      <c r="B209" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="B210" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D210" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="B211" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="D211" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="B212" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D212" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="B213" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="D213" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A214" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="D214" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="B215" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D215" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="B216" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D216" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A217" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B217" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C58" xr:uid="{A8322CDB-25C4-5444-B944-F0725C38DC11}"/>
+  <autoFilter ref="A1:C62" xr:uid="{A8322CDB-25C4-5444-B944-F0725C38DC11}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D721A325-FFE8-414B-B2EB-8286847F0276}">
-  <dimension ref="A1:J113"/>
+  <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="112" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="112" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3262,34 +3431,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>121</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3304,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -3316,17 +3485,17 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -3338,13 +3507,13 @@
     </row>
     <row r="4" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -3361,10 +3530,10 @@
     </row>
     <row r="5" spans="1:10" ht="119" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="3">
@@ -3377,20 +3546,20 @@
         <v>1</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -3402,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -3412,10 +3581,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -3427,7 +3596,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -3437,10 +3606,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -3452,7 +3621,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -3482,10 +3651,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
@@ -3505,13 +3674,13 @@
     </row>
     <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -3533,10 +3702,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -3578,13 +3747,13 @@
     </row>
     <row r="14" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -3603,13 +3772,13 @@
     </row>
     <row r="15" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -3631,10 +3800,10 @@
         <v>23</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -3676,13 +3845,13 @@
     </row>
     <row r="18" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>45</v>
+        <v>254</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -3701,13 +3870,13 @@
     </row>
     <row r="19" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -3724,15 +3893,15 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -3754,10 +3923,10 @@
         <v>24</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -3776,13 +3945,13 @@
     </row>
     <row r="22" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -3853,10 +4022,10 @@
         <v>8</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -3878,10 +4047,10 @@
         <v>9</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
@@ -3900,13 +4069,13 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -3948,10 +4117,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3">
@@ -3963,19 +4132,21 @@
       <c r="F29" s="3">
         <v>6</v>
       </c>
-      <c r="G29" s="3"/>
+      <c r="G29" s="21" t="s">
+        <v>257</v>
+      </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -3985,6 +4156,9 @@
       </c>
       <c r="F30" s="3">
         <v>7</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>257</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -3994,10 +4168,10 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -4008,19 +4182,21 @@
       <c r="F31" s="3">
         <v>7</v>
       </c>
-      <c r="G31" s="3"/>
+      <c r="G31" s="21" t="s">
+        <v>257</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -4031,7 +4207,9 @@
       <c r="F32" s="3">
         <v>7</v>
       </c>
-      <c r="G32" s="3"/>
+      <c r="G32" s="21" t="s">
+        <v>257</v>
+      </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
@@ -4040,10 +4218,10 @@
         <v>20</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
@@ -4054,19 +4232,21 @@
       <c r="F33" s="3">
         <v>7</v>
       </c>
-      <c r="G33" s="3"/>
+      <c r="G33" s="21" t="s">
+        <v>257</v>
+      </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -4077,7 +4257,9 @@
       <c r="F34" s="3">
         <v>7</v>
       </c>
-      <c r="G34" s="3"/>
+      <c r="G34" s="21" t="s">
+        <v>257</v>
+      </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
@@ -4086,10 +4268,10 @@
         <v>21</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -4100,19 +4282,21 @@
       <c r="F35" s="3">
         <v>7</v>
       </c>
-      <c r="G35" s="3"/>
+      <c r="G35" s="21" t="s">
+        <v>257</v>
+      </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
@@ -4123,19 +4307,21 @@
       <c r="F36" s="3">
         <v>7</v>
       </c>
-      <c r="G36" s="3"/>
+      <c r="G36" s="21" t="s">
+        <v>257</v>
+      </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
@@ -4146,7 +4332,9 @@
       <c r="F37" s="3">
         <v>7</v>
       </c>
-      <c r="G37" s="3"/>
+      <c r="G37" s="21" t="s">
+        <v>257</v>
+      </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
@@ -4155,10 +4343,10 @@
         <v>15</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -4170,20 +4358,20 @@
         <v>8</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
@@ -4195,7 +4383,7 @@
         <v>8</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -4205,10 +4393,10 @@
         <v>17</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
@@ -4220,7 +4408,7 @@
         <v>8</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -4230,10 +4418,10 @@
         <v>18</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D41" s="3">
         <v>1</v>
@@ -4245,7 +4433,7 @@
         <v>8</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -4255,10 +4443,10 @@
         <v>19</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D42" s="3">
         <v>1</v>
@@ -4270,7 +4458,7 @@
         <v>8</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -4280,10 +4468,10 @@
         <v>7</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D43" s="3">
         <v>1</v>
@@ -4318,9 +4506,7 @@
       <c r="G44" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H44" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
     <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4343,17 +4529,15 @@
       <c r="G45" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H45" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3">
@@ -4368,17 +4552,15 @@
       <c r="G46" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H46" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
     <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3">
@@ -4393,9 +4575,7 @@
       <c r="G47" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H47" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
     <row r="48" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -4403,10 +4583,10 @@
         <v>26</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
@@ -4420,9 +4600,7 @@
       <c r="G48" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H48" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
     <row r="49" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4445,9 +4623,7 @@
       <c r="G49" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H49" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="H49" s="3"/>
       <c r="I49" s="3"/>
     </row>
     <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4470,9 +4646,7 @@
       <c r="G50" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H50" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
     <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4495,17 +4669,15 @@
       <c r="G51" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H51" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="H51" s="3"/>
       <c r="I51" s="3"/>
     </row>
     <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>31</v>
+        <v>256</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>256</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3">
@@ -4520,21 +4692,17 @@
       <c r="G52" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H52" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="H52" s="3"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>108</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C53" s="3"/>
       <c r="D53" s="3">
         <v>1</v>
       </c>
@@ -4547,20 +4715,18 @@
       <c r="G53" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H53" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="H53" s="3"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>110</v>
+        <v>212</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="D54" s="3">
         <v>1</v>
@@ -4574,20 +4740,18 @@
       <c r="G54" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H54" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="H54" s="3"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>53</v>
+      <c r="B55" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="D55" s="3">
         <v>1</v>
@@ -4601,316 +4765,320 @@
       <c r="G55" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H55" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="H55" s="3"/>
       <c r="I55" s="3"/>
     </row>
-    <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
-        <v>142</v>
+    <row r="56" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A56" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>244</v>
+        <v>50</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="D56" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3" t="b">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F56" s="3">
+        <v>2</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H56" s="3"/>
       <c r="I56" s="3"/>
     </row>
     <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>246</v>
+        <v>140</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>247</v>
+        <v>178</v>
       </c>
       <c r="D57" s="3">
         <v>2</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3" t="b">
-        <v>1</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F57" s="21">
+        <v>3</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="H57" s="3"/>
       <c r="I57" s="3"/>
     </row>
-    <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>250</v>
-      </c>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" s="24"/>
       <c r="D58" s="3">
         <v>2</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F58" s="3">
-        <v>2</v>
-      </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I58" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="F58" s="21">
+        <v>3</v>
+      </c>
+      <c r="G58" s="24" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="24" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C59" s="24"/>
       <c r="D59" s="3">
         <v>2</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F59" s="21">
         <v>3</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C60" s="24"/>
       <c r="D60" s="3">
         <v>2</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F60" s="21">
         <v>3</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C61" s="24"/>
       <c r="D61" s="3">
         <v>2</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F61" s="21">
         <v>3</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C62" s="24"/>
       <c r="D62" s="3">
         <v>2</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F62" s="21">
         <v>3</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C63" s="24"/>
       <c r="D63" s="3">
         <v>2</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F63" s="21">
         <v>3</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C64" s="24"/>
       <c r="D64" s="3">
         <v>2</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F64" s="21">
         <v>3</v>
       </c>
       <c r="G64" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C65" s="24"/>
       <c r="D65" s="3">
         <v>2</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F65" s="21">
         <v>3</v>
       </c>
       <c r="G65" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C66" s="24"/>
       <c r="D66" s="3">
         <v>2</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F66" s="21">
         <v>3</v>
       </c>
       <c r="G66" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="24" t="s">
+      <c r="A67" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="B67" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="C67" s="24"/>
+      <c r="B67" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="D67" s="3">
         <v>2</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F67" s="21">
-        <v>3</v>
-      </c>
-      <c r="G67" s="24" t="s">
-        <v>129</v>
+        <v>4</v>
+      </c>
+      <c r="G67" s="43" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D68" s="3">
         <v>2</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F68" s="21">
         <v>4</v>
       </c>
-      <c r="G68" s="43"/>
+      <c r="G68" s="43" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="25" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B69" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="C69" s="25" t="s">
-        <v>79</v>
-      </c>
       <c r="D69" s="3">
         <v>2</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F69" s="21">
         <v>4</v>
       </c>
-      <c r="G69" s="43"/>
+      <c r="G69" s="43" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="25" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B70" s="25" t="s">
         <v>170</v>
@@ -4922,75 +5090,83 @@
         <v>2</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F70" s="21">
         <v>4</v>
       </c>
-      <c r="G70" s="43"/>
+      <c r="G70" s="43" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B71" s="25" t="s">
         <v>172</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D71" s="3">
         <v>2</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F71" s="21">
         <v>4</v>
       </c>
-      <c r="G71" s="43"/>
+      <c r="G71" s="43" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="25" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D72" s="3">
         <v>2</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F72" s="21">
         <v>4</v>
       </c>
-      <c r="G72" s="43"/>
+      <c r="G72" s="43" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="25" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D73" s="3">
         <v>2</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F73" s="21">
         <v>4</v>
       </c>
-      <c r="G73" s="43"/>
+      <c r="G73" s="43" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="25" t="s">
@@ -5000,43 +5176,47 @@
         <v>176</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D74" s="3">
         <v>2</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F74" s="21">
         <v>4</v>
       </c>
-      <c r="G74" s="43"/>
+      <c r="G74" s="43" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="25" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B75" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C75" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="C75" s="25" t="s">
-        <v>173</v>
-      </c>
       <c r="D75" s="3">
         <v>2</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F75" s="21">
         <v>4</v>
       </c>
-      <c r="G75" s="43"/>
+      <c r="G75" s="43" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="25" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B76" s="25" t="s">
         <v>179</v>
@@ -5048,58 +5228,62 @@
         <v>2</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F76" s="21">
         <v>4</v>
       </c>
-      <c r="G76" s="43"/>
+      <c r="G76" s="43" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="B77" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="C77" s="25" t="s">
-        <v>182</v>
-      </c>
+      <c r="A77" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C77" s="26"/>
       <c r="D77" s="3">
         <v>2</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F77" s="21">
-        <v>4</v>
-      </c>
-      <c r="G77" s="43"/>
+        <v>5</v>
+      </c>
+      <c r="G77" s="26" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="26" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C78" s="26"/>
+        <v>181</v>
+      </c>
+      <c r="C78" s="26" t="s">
+        <v>182</v>
+      </c>
       <c r="D78" s="3">
         <v>2</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F78" s="21">
         <v>5</v>
       </c>
       <c r="G78" s="26" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="26" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="B79" s="26" t="s">
         <v>183</v>
@@ -5111,18 +5295,18 @@
         <v>2</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F79" s="21">
         <v>5</v>
       </c>
-      <c r="G79" s="26" t="s">
-        <v>156</v>
+      <c r="G79" s="27" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="26" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B80" s="26" t="s">
         <v>185</v>
@@ -5134,18 +5318,18 @@
         <v>2</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F80" s="21">
         <v>5</v>
       </c>
       <c r="G80" s="27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="26" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B81" s="26" t="s">
         <v>187</v>
@@ -5157,571 +5341,571 @@
         <v>2</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F81" s="21">
         <v>5</v>
       </c>
       <c r="G81" s="27" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="B82" s="26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B82" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="C82" s="26" t="s">
+      <c r="C82" s="28" t="s">
         <v>190</v>
       </c>
       <c r="D82" s="3">
         <v>2</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F82" s="21">
         <v>5</v>
       </c>
-      <c r="G82" s="27" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G82" s="28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="28" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="C83" s="28" t="s">
-        <v>192</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="C83" s="28"/>
       <c r="D83" s="3">
         <v>2</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F83" s="21">
         <v>5</v>
       </c>
-      <c r="G83" s="28" t="s">
-        <v>195</v>
+      <c r="G83" s="29" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="28" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="B84" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="C84" s="28"/>
+        <v>191</v>
+      </c>
+      <c r="C84" s="28" t="s">
+        <v>192</v>
+      </c>
       <c r="D84" s="3">
         <v>2</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F84" s="21">
         <v>5</v>
       </c>
       <c r="G84" s="29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A85" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B85" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="C85" s="30" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="B85" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="C85" s="28" t="s">
-        <v>194</v>
-      </c>
       <c r="D85" s="3">
         <v>2</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F85" s="21">
-        <v>5</v>
-      </c>
-      <c r="G85" s="29" t="s">
-        <v>195</v>
+        <v>6</v>
+      </c>
+      <c r="G85" s="31" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A86" s="30" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B86" s="30" t="s">
         <v>196</v>
       </c>
       <c r="C86" s="30" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D86" s="3">
         <v>2</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F86" s="21">
         <v>6</v>
       </c>
-      <c r="G86" s="31" t="s">
-        <v>243</v>
+      <c r="G86" s="32" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A87" s="30" t="s">
-        <v>201</v>
+        <v>240</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="C87" s="30" t="s">
-        <v>204</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C87" s="30"/>
       <c r="D87" s="3">
         <v>2</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F87" s="21">
         <v>6</v>
       </c>
-      <c r="G87" s="32" t="s">
-        <v>243</v>
+      <c r="G87" s="31" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A88" s="30" t="s">
-        <v>243</v>
+        <v>152</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="C88" s="30"/>
+        <v>203</v>
+      </c>
+      <c r="C88" s="30" t="s">
+        <v>204</v>
+      </c>
       <c r="D88" s="3">
         <v>2</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F88" s="21">
         <v>6</v>
       </c>
       <c r="G88" s="31" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A89" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="B89" s="30" t="s">
+      <c r="A89" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="B89" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="C89" s="30" t="s">
+      <c r="C89" s="33" t="s">
         <v>206</v>
       </c>
       <c r="D89" s="3">
         <v>2</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F89" s="21">
-        <v>6</v>
-      </c>
-      <c r="G89" s="31" t="s">
-        <v>243</v>
+        <v>7</v>
+      </c>
+      <c r="G89" s="34" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A90" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="B90" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="C90" s="33" t="s">
-        <v>208</v>
-      </c>
+      <c r="A90" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B90" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="C90" s="33"/>
       <c r="D90" s="3">
         <v>2</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F90" s="21">
         <v>7</v>
       </c>
       <c r="G90" s="34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A91" s="33" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A91" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="B91" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="C91" s="33"/>
+      <c r="B91" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="C91" s="33" t="s">
+        <v>208</v>
+      </c>
       <c r="D91" s="3">
         <v>2</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F91" s="21">
         <v>7</v>
       </c>
-      <c r="G91" s="34" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A92" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="B92" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="C92" s="33" t="s">
-        <v>210</v>
-      </c>
+      <c r="G91" s="35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="B92" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="C92" s="37"/>
       <c r="D92" s="3">
         <v>2</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F92" s="21">
-        <v>7</v>
-      </c>
-      <c r="G92" s="35" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="B93" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="C93" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F92">
+        <v>8</v>
+      </c>
+      <c r="G92" s="37" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A93" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="B93" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="C93" s="37" t="s">
+        <v>255</v>
+      </c>
       <c r="D93" s="3">
         <v>2</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F93">
         <v>8</v>
       </c>
       <c r="G93" s="37" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A94" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="B94" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="C94" s="37" t="s">
-        <v>212</v>
-      </c>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="B94" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C94" s="37"/>
       <c r="D94" s="3">
         <v>2</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F94">
         <v>8</v>
       </c>
       <c r="G94" s="37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="37" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B95" s="37" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C95" s="37"/>
       <c r="D95" s="3">
         <v>2</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F95">
         <v>8</v>
       </c>
       <c r="G95" s="37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="B96" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="C96" s="37"/>
+      <c r="A96" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="B96" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C96" s="38"/>
       <c r="D96" s="3">
         <v>2</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F96">
-        <v>8</v>
-      </c>
-      <c r="G96" s="37" t="s">
-        <v>163</v>
+        <v>9</v>
+      </c>
+      <c r="G96" s="38" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="38" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="B97" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="C97" s="38"/>
+        <v>205</v>
+      </c>
+      <c r="C97" s="38" t="s">
+        <v>206</v>
+      </c>
       <c r="D97" s="3">
         <v>2</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F97">
         <v>9</v>
       </c>
       <c r="G97" s="38" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="38" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="B98" s="38" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C98" s="38" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="D98" s="3">
         <v>2</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F98">
         <v>9</v>
       </c>
       <c r="G98" s="38" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="B99" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="C99" s="38" t="s">
-        <v>224</v>
-      </c>
+      <c r="A99" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="B99" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="C99" s="39"/>
       <c r="D99" s="3">
         <v>2</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F99">
-        <v>9</v>
-      </c>
-      <c r="G99" s="38" t="s">
-        <v>162</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="39" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="39" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B100" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="C100" s="39"/>
+        <v>222</v>
+      </c>
+      <c r="C100" s="39" t="s">
+        <v>223</v>
+      </c>
       <c r="D100" s="3">
         <v>2</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F100">
         <v>10</v>
       </c>
       <c r="G100" s="39" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="39" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="B101" s="39" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="C101" s="39" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="D101" s="3">
         <v>2</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F101">
         <v>10</v>
       </c>
       <c r="G101" s="39" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="B102" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="C102" s="39" t="s">
-        <v>204</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A102" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="B102" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="C102" s="40" t="s">
+        <v>226</v>
       </c>
       <c r="D102" s="3">
         <v>2</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F102">
-        <v>10</v>
-      </c>
-      <c r="G102" s="39" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G102" s="41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="40" t="s">
-        <v>227</v>
+        <v>138</v>
       </c>
       <c r="B103" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="C103" s="40" t="s">
-        <v>229</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C103" s="40"/>
       <c r="D103" s="3">
         <v>2</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F103">
         <v>11</v>
       </c>
-      <c r="G103" s="41" t="s">
-        <v>140</v>
+      <c r="G103" s="40" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="B104" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="C104" s="40"/>
+      <c r="A104" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="B104" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="C104" s="42" t="s">
+        <v>228</v>
+      </c>
       <c r="D104" s="3">
         <v>2</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F104">
-        <v>11</v>
-      </c>
-      <c r="G104" s="40" t="s">
-        <v>140</v>
+        <v>12</v>
+      </c>
+      <c r="G104" s="42" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="42" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B105" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="C105" s="42" t="s">
-        <v>231</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C105" s="42"/>
       <c r="D105" s="3">
         <v>2</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F105">
         <v>12</v>
       </c>
       <c r="G105" s="42" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="B106" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="C106" s="42"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B106" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>231</v>
+      </c>
       <c r="D106" s="3">
         <v>2</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F106">
-        <v>12</v>
-      </c>
-      <c r="G106" s="42" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="G106" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="30" t="s">
         <v>233</v>
       </c>
@@ -5735,144 +5919,124 @@
         <v>2</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F107">
         <v>13</v>
       </c>
-      <c r="G107" s="31" t="s">
-        <v>139</v>
+      <c r="G107" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="30" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="C108" s="30" t="s">
-        <v>237</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C108" s="30"/>
       <c r="D108" s="3">
         <v>2</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F108">
         <v>13</v>
       </c>
       <c r="G108" s="30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A109" s="33" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="B109" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="C109" s="30"/>
+      <c r="B109" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="C109" s="33" t="s">
+        <v>236</v>
+      </c>
       <c r="D109" s="3">
         <v>2</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F109">
-        <v>13</v>
-      </c>
-      <c r="G109" s="30" t="s">
-        <v>139</v>
+        <v>14</v>
+      </c>
+      <c r="G109" s="35" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" s="33" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="B110" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="C110" s="33" t="s">
-        <v>239</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C110" s="33"/>
       <c r="D110" s="3">
         <v>2</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F110">
         <v>14</v>
       </c>
       <c r="G110" s="35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A111" s="33" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B111" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="C111" s="33"/>
+        <v>248</v>
+      </c>
+      <c r="C111" s="33" t="s">
+        <v>237</v>
+      </c>
       <c r="D111" s="3">
         <v>2</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F111">
         <v>14</v>
       </c>
       <c r="G111" s="35" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A112" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="B112" s="33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="B112" s="54" t="s">
+        <v>249</v>
+      </c>
+      <c r="C112" s="54" t="s">
+        <v>251</v>
+      </c>
+      <c r="D112" s="21">
+        <v>2</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F112" s="3">
+        <v>7</v>
+      </c>
+      <c r="G112" s="21" t="s">
         <v>257</v>
-      </c>
-      <c r="C112" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="D112" s="3">
-        <v>2</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F112">
-        <v>14</v>
-      </c>
-      <c r="G112" s="35" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="54" t="s">
-        <v>259</v>
-      </c>
-      <c r="B113" s="54" t="s">
-        <v>258</v>
-      </c>
-      <c r="C113" s="54" t="s">
-        <v>260</v>
-      </c>
-      <c r="D113" s="21">
-        <v>2</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F113">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -5904,57 +6068,57 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="51" t="s">
         <v>121</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="50" t="s">
-        <v>252</v>
-      </c>
-      <c r="F1" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="G1" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="H1" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="J1" s="51" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="44" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D2" s="47">
         <v>3</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="48">
         <v>8</v>
       </c>
       <c r="G2" s="49" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
@@ -5962,23 +6126,23 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="3">
         <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>9</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
